--- a/2-PERSONAL/----PENDIENTES/PENDIENTES 09-06-22.xlsx
+++ b/2-PERSONAL/----PENDIENTES/PENDIENTES 09-06-22.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AKM\2-PERSONAL\----PENDIENTES\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45B6075E-9405-4119-8E26-987E01341950}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC3C2E13-96EE-4AE7-A728-8927FA6CE87E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="2" activeTab="2" xr2:uid="{E80D2E49-80EA-4EBC-AFF4-7850061B15D2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="2" activeTab="4" xr2:uid="{E80D2E49-80EA-4EBC-AFF4-7850061B15D2}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja3" sheetId="3" r:id="rId1"/>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4190" uniqueCount="810">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4192" uniqueCount="810">
   <si>
     <t>FECHA</t>
   </si>
@@ -2705,7 +2705,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2922,25 +2922,26 @@
     <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="10" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="4">
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFA9D08E"/>
+          <fgColor rgb="FFB4C6E7"/>
           <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3003,7 +3004,7 @@
       <sheetName val="MODELO3"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
+      <sheetData sheetId="0" refreshError="1"/>
       <sheetData sheetId="1">
         <row r="1">
           <cell r="A1" t="str">
@@ -3267,27 +3268,15 @@
             <v>0.29166666666666669</v>
           </cell>
         </row>
-        <row r="4">
-          <cell r="A4"/>
-          <cell r="B4"/>
-          <cell r="C4"/>
-          <cell r="D4"/>
-          <cell r="E4"/>
-          <cell r="F4"/>
-        </row>
-        <row r="5">
-          <cell r="A5"/>
-          <cell r="B5"/>
-        </row>
       </sheetData>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5" refreshError="1"/>
+      <sheetData sheetId="6" refreshError="1"/>
+      <sheetData sheetId="7" refreshError="1"/>
+      <sheetData sheetId="8" refreshError="1"/>
+      <sheetData sheetId="9" refreshError="1"/>
+      <sheetData sheetId="10" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -10038,7 +10027,7 @@
   </sheetPr>
   <dimension ref="A1:L205"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="O172" sqref="O172"/>
     </sheetView>
   </sheetViews>
@@ -23837,13 +23826,13 @@
   </sheetData>
   <autoFilter ref="A1:AB117" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <filterColumn colId="2">
-      <colorFilter dxfId="3"/>
+      <colorFilter dxfId="2"/>
     </filterColumn>
     <filterColumn colId="11">
       <filters blank="1"/>
     </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A13:AB117">
-      <sortCondition sortBy="cellColor" ref="C1:C117" dxfId="4"/>
+      <sortCondition sortBy="cellColor" ref="C1:C117" dxfId="3"/>
     </sortState>
   </autoFilter>
   <dataConsolidate/>
@@ -23932,8 +23921,8 @@
   <sheetPr codeName="Hoja2" filterMode="1"/>
   <dimension ref="A1:AB117"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F98" sqref="F8:F98"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F123" sqref="F123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24047,111 +24036,104 @@
         <v>404</v>
       </c>
     </row>
-    <row r="2" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
-        <v>405</v>
-      </c>
-      <c r="B2" s="13">
-        <v>1</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>25</v>
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A2" s="11"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="27" t="s">
+        <v>39</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="E2" s="24">
-        <v>26093</v>
+        <v>34144</v>
       </c>
       <c r="F2" s="25" t="s">
-        <v>406</v>
+        <v>41</v>
       </c>
       <c r="G2" s="13">
         <v>1</v>
       </c>
-      <c r="H2" s="11" t="str">
-        <f>VLOOKUP(G2,AREAS,2)</f>
-        <v>Operaciones</v>
+      <c r="H2" s="11" t="s">
+        <v>416</v>
       </c>
       <c r="I2" s="24">
-        <v>44413</v>
-      </c>
-      <c r="J2" s="24"/>
-      <c r="K2" s="24"/>
-      <c r="L2" s="24"/>
-      <c r="M2" s="7">
-        <v>970707787</v>
+        <v>44707</v>
+      </c>
+      <c r="J2" s="11"/>
+      <c r="K2" s="11"/>
+      <c r="L2" s="11"/>
+      <c r="M2" s="13">
+        <v>927949335</v>
       </c>
       <c r="N2" s="13">
         <v>1</v>
       </c>
-      <c r="O2" s="13" t="str">
-        <f>VLOOKUP([2]Empleados!M3,TURNOS,2)</f>
-        <v>MAÑANA</v>
-      </c>
-      <c r="P2" s="18"/>
-      <c r="Q2" s="18"/>
+      <c r="O2" s="13" t="s">
+        <v>412</v>
+      </c>
+      <c r="P2" s="18" t="s">
+        <v>423</v>
+      </c>
+      <c r="Q2" s="26" t="s">
+        <v>424</v>
+      </c>
       <c r="R2" s="13" t="s">
-        <v>407</v>
+        <v>418</v>
       </c>
       <c r="S2" s="13" t="s">
         <v>408</v>
       </c>
       <c r="T2" s="13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U2" s="13" t="s">
-        <v>409</v>
-      </c>
-      <c r="V2" s="18"/>
-      <c r="W2" s="18"/>
-      <c r="X2" s="18"/>
-      <c r="Y2" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="Z2" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="AA2" s="13" t="s">
-        <v>410</v>
-      </c>
+        <v>425</v>
+      </c>
+      <c r="V2" s="13" t="s">
+        <v>426</v>
+      </c>
+      <c r="W2" s="28" t="s">
+        <v>427</v>
+      </c>
+      <c r="X2" s="13"/>
+      <c r="Y2" s="13"/>
+      <c r="Z2" s="13"/>
+      <c r="AA2" s="13"/>
       <c r="AB2" s="13" t="str">
-        <f t="shared" ref="AB2:AB9" si="0">CONCATENATE(C2," ", D2)</f>
-        <v>ALIAGA MARIN JOSE RULY</v>
-      </c>
-    </row>
-    <row r="3" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+        <f>CONCATENATE(C2," ", D2)</f>
+        <v>AQUITUARI PEREZ KELLY</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A3" s="11"/>
-      <c r="B3" s="13">
-        <v>2</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>27</v>
+      <c r="B3" s="13"/>
+      <c r="C3" s="27" t="s">
+        <v>53</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>28</v>
+        <v>54</v>
       </c>
       <c r="E3" s="24">
-        <v>37757</v>
+        <v>37823</v>
       </c>
       <c r="F3" s="25" t="s">
-        <v>411</v>
+        <v>55</v>
       </c>
       <c r="G3" s="13">
         <v>1</v>
       </c>
-      <c r="H3" s="11" t="str">
-        <f>VLOOKUP(G3,AREAS,2)</f>
-        <v>Operaciones</v>
+      <c r="H3" s="11" t="s">
+        <v>416</v>
       </c>
       <c r="I3" s="24">
-        <v>44657</v>
+        <v>44707</v>
       </c>
       <c r="J3" s="11"/>
       <c r="K3" s="11"/>
       <c r="L3" s="11"/>
       <c r="M3" s="13">
-        <v>936950163</v>
+        <v>933645125</v>
       </c>
       <c r="N3" s="13">
         <v>1</v>
@@ -24160,10 +24142,10 @@
         <v>412</v>
       </c>
       <c r="P3" s="18" t="s">
-        <v>413</v>
+        <v>442</v>
       </c>
       <c r="Q3" s="26" t="s">
-        <v>414</v>
+        <v>443</v>
       </c>
       <c r="R3" s="13" t="s">
         <v>407</v>
@@ -24171,35 +24153,31 @@
       <c r="S3" s="13"/>
       <c r="T3" s="13"/>
       <c r="U3" s="13"/>
-      <c r="V3" s="18"/>
+      <c r="V3" s="13"/>
       <c r="W3" s="13"/>
-      <c r="X3" s="18"/>
-      <c r="Y3" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="Z3" s="13" t="s">
-        <v>15</v>
-      </c>
+      <c r="X3" s="13"/>
+      <c r="Y3" s="13"/>
+      <c r="Z3" s="13"/>
       <c r="AA3" s="13"/>
       <c r="AB3" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>ALVARADO CORNEJO ADRIAN LEANDRO</v>
-      </c>
-    </row>
-    <row r="4" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+        <f>CONCATENATE(C3," ", D3)</f>
+        <v>AVALOS VEGA YHEIK HENRY</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A4" s="11"/>
       <c r="B4" s="13"/>
-      <c r="C4" s="11" t="s">
-        <v>126</v>
+      <c r="C4" s="27" t="s">
+        <v>145</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>127</v>
+        <v>146</v>
       </c>
       <c r="E4" s="24">
-        <v>30679</v>
+        <v>34176</v>
       </c>
       <c r="F4" s="25" t="s">
-        <v>415</v>
+        <v>147</v>
       </c>
       <c r="G4" s="13">
         <v>1</v>
@@ -24208,13 +24186,13 @@
         <v>416</v>
       </c>
       <c r="I4" s="24">
-        <v>44680</v>
+        <v>44708</v>
       </c>
       <c r="J4" s="11"/>
       <c r="K4" s="11"/>
       <c r="L4" s="11"/>
       <c r="M4" s="13">
-        <v>936193090</v>
+        <v>995649370</v>
       </c>
       <c r="N4" s="13">
         <v>1</v>
@@ -24223,204 +24201,177 @@
         <v>412</v>
       </c>
       <c r="P4" s="18" t="s">
-        <v>417</v>
-      </c>
-      <c r="Q4" s="18"/>
+        <v>522</v>
+      </c>
+      <c r="Q4" s="26" t="s">
+        <v>523</v>
+      </c>
       <c r="R4" s="13" t="s">
         <v>418</v>
       </c>
-      <c r="S4" s="13" t="s">
-        <v>408</v>
-      </c>
-      <c r="T4" s="13">
-        <v>4</v>
-      </c>
+      <c r="S4" s="13"/>
+      <c r="T4" s="13"/>
       <c r="U4" s="13"/>
-      <c r="V4" s="18"/>
-      <c r="W4" s="13"/>
+      <c r="V4" s="13" t="s">
+        <v>426</v>
+      </c>
+      <c r="W4" s="28" t="s">
+        <v>524</v>
+      </c>
       <c r="X4" s="13"/>
-      <c r="Y4" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="Z4" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="AA4" s="12" t="s">
-        <v>419</v>
-      </c>
+      <c r="Y4" s="13"/>
+      <c r="Z4" s="13"/>
+      <c r="AA4" s="13"/>
       <c r="AB4" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>ANTONIETTE FRANCIA MARIA MILAGROS</v>
-      </c>
-    </row>
-    <row r="5" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="11" t="s">
-        <v>420</v>
-      </c>
-      <c r="B5" s="13">
-        <v>1</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>421</v>
+        <f>CONCATENATE(C4," ", D4)</f>
+        <v>DIAZ CASTILLO EVELYN ROSALI</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A5" s="11"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="27" t="s">
+        <v>311</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>13</v>
+        <v>312</v>
       </c>
       <c r="E5" s="24">
-        <v>28446</v>
-      </c>
-      <c r="F5" s="25">
-        <v>80591175</v>
+        <v>37517</v>
+      </c>
+      <c r="F5" s="25" t="s">
+        <v>313</v>
       </c>
       <c r="G5" s="13">
         <v>1</v>
       </c>
-      <c r="H5" s="11" t="str">
-        <f>VLOOKUP(G5,AREAS,2)</f>
-        <v>Operaciones</v>
+      <c r="H5" s="11" t="s">
+        <v>416</v>
       </c>
       <c r="I5" s="24">
-        <v>44348</v>
-      </c>
-      <c r="J5" s="24"/>
-      <c r="K5" s="24"/>
-      <c r="L5" s="24"/>
-      <c r="M5" s="7">
-        <v>960874318</v>
+        <v>44706</v>
+      </c>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="13">
+        <v>950473606</v>
       </c>
       <c r="N5" s="13">
         <v>1</v>
       </c>
-      <c r="O5" s="13" t="str">
-        <f>VLOOKUP([2]Empleados!M5,TURNOS,2)</f>
-        <v>MAÑANA</v>
-      </c>
-      <c r="P5" s="18"/>
-      <c r="Q5" s="18"/>
+      <c r="O5" s="13" t="s">
+        <v>412</v>
+      </c>
+      <c r="P5" s="18" t="s">
+        <v>620</v>
+      </c>
+      <c r="Q5" s="38"/>
       <c r="R5" s="13" t="s">
         <v>418</v>
       </c>
-      <c r="S5" s="13" t="s">
-        <v>408</v>
-      </c>
-      <c r="T5" s="13">
-        <v>3</v>
-      </c>
-      <c r="U5" s="13" t="s">
-        <v>422</v>
-      </c>
-      <c r="V5" s="18"/>
-      <c r="W5" s="18"/>
-      <c r="X5" s="18"/>
-      <c r="Y5" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="Z5" s="13" t="s">
-        <v>15</v>
-      </c>
+      <c r="S5" s="13"/>
+      <c r="T5" s="13"/>
+      <c r="U5" s="13"/>
+      <c r="V5" s="13"/>
+      <c r="W5" s="13"/>
+      <c r="X5" s="13"/>
+      <c r="Y5" s="13"/>
+      <c r="Z5" s="13"/>
       <c r="AA5" s="13"/>
       <c r="AB5" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>AQUITUARI CALDERON LUPE AMPARO</v>
-      </c>
-    </row>
-    <row r="6" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="11" t="s">
-        <v>428</v>
-      </c>
-      <c r="B6" s="13">
-        <v>1</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>429</v>
+        <f>CONCATENATE(C5," ", D5)</f>
+        <v>MANCO FERNANDEZ ROSA MILAGROS</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A6" s="11"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="27" t="s">
+        <v>327</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>23</v>
+        <v>328</v>
       </c>
       <c r="E6" s="24">
-        <v>26738</v>
-      </c>
-      <c r="F6" s="25">
-        <v>32286935</v>
+        <v>38119</v>
+      </c>
+      <c r="F6" s="25" t="s">
+        <v>329</v>
       </c>
       <c r="G6" s="13">
         <v>1</v>
       </c>
-      <c r="H6" s="11" t="str">
-        <f>VLOOKUP(G6,AREAS,2)</f>
-        <v>Operaciones</v>
+      <c r="H6" s="11" t="s">
+        <v>416</v>
       </c>
       <c r="I6" s="24">
-        <v>44412</v>
-      </c>
-      <c r="J6" s="24"/>
-      <c r="K6" s="24"/>
-      <c r="L6" s="24"/>
-      <c r="M6" s="7">
-        <v>989424824</v>
+        <v>44706</v>
+      </c>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="13">
+        <v>951068840</v>
       </c>
       <c r="N6" s="13">
         <v>1</v>
       </c>
-      <c r="O6" s="13" t="str">
-        <f>VLOOKUP([2]Empleados!M6,TURNOS,2)</f>
-        <v>MAÑANA</v>
-      </c>
-      <c r="P6" s="18"/>
-      <c r="Q6" s="18"/>
+      <c r="O6" s="13" t="s">
+        <v>412</v>
+      </c>
+      <c r="P6" s="18" t="s">
+        <v>666</v>
+      </c>
+      <c r="Q6" s="26" t="s">
+        <v>667</v>
+      </c>
       <c r="R6" s="13" t="s">
-        <v>418</v>
+        <v>407</v>
       </c>
       <c r="S6" s="13"/>
       <c r="T6" s="13"/>
       <c r="U6" s="13"/>
-      <c r="V6" s="18"/>
-      <c r="W6" s="18"/>
-      <c r="X6" s="18"/>
-      <c r="Y6" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="Z6" s="13" t="s">
-        <v>15</v>
-      </c>
+      <c r="V6" s="13"/>
+      <c r="W6" s="13"/>
+      <c r="X6" s="13"/>
+      <c r="Y6" s="13"/>
+      <c r="Z6" s="13"/>
       <c r="AA6" s="13"/>
       <c r="AB6" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>ARANDA GONZALES MELY BERTITA</v>
-      </c>
-    </row>
-    <row r="7" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+        <f>CONCATENATE(C6," ", D6)</f>
+        <v>PEREZ CORDOVA BOOZ OBED</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A7" s="11"/>
-      <c r="B7" s="13">
-        <v>1</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>47</v>
+      <c r="B7" s="13"/>
+      <c r="C7" s="27" t="s">
+        <v>330</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>48</v>
+        <v>331</v>
       </c>
       <c r="E7" s="24">
-        <v>35421</v>
+        <v>32499</v>
       </c>
       <c r="F7" s="25" t="s">
-        <v>430</v>
+        <v>332</v>
       </c>
       <c r="G7" s="13">
         <v>1</v>
       </c>
-      <c r="H7" s="11" t="str">
-        <f>VLOOKUP(G7,AREAS,2)</f>
-        <v>Operaciones</v>
+      <c r="H7" s="11" t="s">
+        <v>416</v>
       </c>
       <c r="I7" s="24">
-        <v>44657</v>
+        <v>44706</v>
       </c>
       <c r="J7" s="11"/>
       <c r="K7" s="11"/>
       <c r="L7" s="11"/>
       <c r="M7" s="13">
-        <v>942630758</v>
+        <v>960465297</v>
       </c>
       <c r="N7" s="13">
         <v>1</v>
@@ -24429,48 +24380,48 @@
         <v>412</v>
       </c>
       <c r="P7" s="18" t="s">
-        <v>431</v>
+        <v>683</v>
       </c>
       <c r="Q7" s="26" t="s">
-        <v>432</v>
+        <v>684</v>
       </c>
       <c r="R7" s="13" t="s">
         <v>418</v>
       </c>
-      <c r="S7" s="13"/>
-      <c r="T7" s="13"/>
-      <c r="U7" s="13"/>
-      <c r="V7" s="18"/>
+      <c r="S7" s="13" t="s">
+        <v>408</v>
+      </c>
+      <c r="T7" s="13">
+        <v>3</v>
+      </c>
+      <c r="U7" s="10" t="s">
+        <v>685</v>
+      </c>
+      <c r="V7" s="13"/>
       <c r="W7" s="13"/>
-      <c r="X7" s="18"/>
-      <c r="Y7" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="Z7" s="13" t="s">
-        <v>15</v>
-      </c>
+      <c r="X7" s="13"/>
+      <c r="Y7" s="13"/>
+      <c r="Z7" s="13"/>
       <c r="AA7" s="13"/>
       <c r="AB7" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>ARIAS ARIAS LOURDES DE FATIMA</v>
+        <f>CONCATENATE(C7," ", D7)</f>
+        <v>QUIROZ VARGAS KARINA ELIZABETH</v>
       </c>
     </row>
     <row r="8" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A8" s="11"/>
-      <c r="B8" s="13">
-        <v>1</v>
-      </c>
-      <c r="C8" s="56" t="s">
-        <v>296</v>
+      <c r="B8" s="13"/>
+      <c r="C8" s="27" t="s">
+        <v>336</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>297</v>
+        <v>337</v>
       </c>
       <c r="E8" s="24">
-        <v>36930</v>
-      </c>
-      <c r="F8" s="76" t="s">
-        <v>565</v>
+        <v>37848</v>
+      </c>
+      <c r="F8" s="25" t="s">
+        <v>338</v>
       </c>
       <c r="G8" s="13">
         <v>1</v>
@@ -24479,13 +24430,13 @@
         <v>416</v>
       </c>
       <c r="I8" s="24">
-        <v>44672</v>
+        <v>44706</v>
       </c>
       <c r="J8" s="11"/>
       <c r="K8" s="11"/>
       <c r="L8" s="11"/>
       <c r="M8" s="13">
-        <v>913706725</v>
+        <v>994944393</v>
       </c>
       <c r="N8" s="13">
         <v>1</v>
@@ -24494,10 +24445,10 @@
         <v>412</v>
       </c>
       <c r="P8" s="18" t="s">
-        <v>566</v>
+        <v>699</v>
       </c>
       <c r="Q8" s="26" t="s">
-        <v>567</v>
+        <v>700</v>
       </c>
       <c r="R8" s="13" t="s">
         <v>418</v>
@@ -24505,39 +24456,31 @@
       <c r="S8" s="13"/>
       <c r="T8" s="13"/>
       <c r="U8" s="13"/>
-      <c r="V8" s="18"/>
+      <c r="V8" s="13"/>
       <c r="W8" s="13"/>
-      <c r="X8" s="18"/>
-      <c r="Y8" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="Z8" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="AA8" s="12" t="s">
-        <v>568</v>
-      </c>
+      <c r="X8" s="13"/>
+      <c r="Y8" s="13"/>
+      <c r="Z8" s="13"/>
+      <c r="AA8" s="13"/>
       <c r="AB8" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>GRABIEL LIVIA JESSICA KELY</v>
-      </c>
-    </row>
-    <row r="9" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+        <f>CONCATENATE(C8," ", D8)</f>
+        <v>RAMOS HUAMANI ADRIANA PAOLA</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A9" s="11"/>
-      <c r="B9" s="13">
-        <v>1</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>437</v>
+      <c r="B9" s="13"/>
+      <c r="C9" s="27" t="s">
+        <v>339</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>438</v>
+        <v>716</v>
       </c>
       <c r="E9" s="24">
-        <v>36862</v>
-      </c>
-      <c r="F9" s="25" t="s">
-        <v>439</v>
+        <v>32661</v>
+      </c>
+      <c r="F9" s="49" t="s">
+        <v>341</v>
       </c>
       <c r="G9" s="13">
         <v>1</v>
@@ -24546,13 +24489,13 @@
         <v>416</v>
       </c>
       <c r="I9" s="24">
-        <v>44644</v>
+        <v>44707</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="11"/>
       <c r="L9" s="11"/>
       <c r="M9" s="13">
-        <v>990520979</v>
+        <v>983112056</v>
       </c>
       <c r="N9" s="13">
         <v>1</v>
@@ -24561,10 +24504,10 @@
         <v>412</v>
       </c>
       <c r="P9" s="18" t="s">
-        <v>440</v>
+        <v>717</v>
       </c>
       <c r="Q9" s="26" t="s">
-        <v>441</v>
+        <v>718</v>
       </c>
       <c r="R9" s="13" t="s">
         <v>418</v>
@@ -24573,40 +24516,36 @@
         <v>408</v>
       </c>
       <c r="T9" s="13">
-        <v>1</v>
-      </c>
-      <c r="U9" s="13">
         <v>2</v>
       </c>
-      <c r="V9" s="18"/>
-      <c r="W9" s="18"/>
-      <c r="X9" s="18"/>
-      <c r="Y9" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="Z9" s="13" t="s">
-        <v>15</v>
-      </c>
+      <c r="U9" s="13" t="s">
+        <v>719</v>
+      </c>
+      <c r="V9" s="13"/>
+      <c r="W9" s="13"/>
+      <c r="X9" s="13"/>
+      <c r="Y9" s="13"/>
+      <c r="Z9" s="13"/>
       <c r="AA9" s="13"/>
       <c r="AB9" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>ATAHUA LINARES KAMILA ALEXANDRA</v>
+        <f>CONCATENATE(C9," ", D9)</f>
+        <v>SILVA GARCIA DAYALIS YURUVI</v>
       </c>
     </row>
     <row r="10" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A10" s="11"/>
       <c r="B10" s="13"/>
-      <c r="C10" s="56" t="s">
-        <v>128</v>
+      <c r="C10" s="27" t="s">
+        <v>342</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>129</v>
+        <v>343</v>
       </c>
       <c r="E10" s="24">
-        <v>37685</v>
-      </c>
-      <c r="F10" s="76" t="s">
-        <v>433</v>
+        <v>36554</v>
+      </c>
+      <c r="F10" s="25" t="s">
+        <v>344</v>
       </c>
       <c r="G10" s="13">
         <v>1</v>
@@ -24615,13 +24554,13 @@
         <v>416</v>
       </c>
       <c r="I10" s="24">
-        <v>44677</v>
+        <v>44706</v>
       </c>
       <c r="J10" s="11"/>
       <c r="K10" s="11"/>
       <c r="L10" s="11"/>
       <c r="M10" s="13">
-        <v>922592869</v>
+        <v>925362534</v>
       </c>
       <c r="N10" s="13">
         <v>1</v>
@@ -24630,10 +24569,10 @@
         <v>412</v>
       </c>
       <c r="P10" s="18" t="s">
-        <v>434</v>
+        <v>725</v>
       </c>
       <c r="Q10" s="26" t="s">
-        <v>435</v>
+        <v>726</v>
       </c>
       <c r="R10" s="13" t="s">
         <v>407</v>
@@ -24641,37 +24580,31 @@
       <c r="S10" s="13"/>
       <c r="T10" s="13"/>
       <c r="U10" s="13"/>
-      <c r="V10" s="18"/>
+      <c r="V10" s="13"/>
       <c r="W10" s="13"/>
       <c r="X10" s="13"/>
-      <c r="Y10" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="Z10" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="AA10" s="12" t="s">
-        <v>436</v>
-      </c>
+      <c r="Y10" s="13"/>
+      <c r="Z10" s="13"/>
+      <c r="AA10" s="13"/>
       <c r="AB10" s="13" t="str">
-        <f t="shared" ref="AB10:AB41" si="1">CONCATENATE(C10," ", D10)</f>
-        <v>ARIAS CONDORI LUIS ANGEL</v>
+        <f>CONCATENATE(C10," ", D10)</f>
+        <v>SILVA VASQUEZ PEDRO SABINA</v>
       </c>
     </row>
     <row r="11" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A11" s="11"/>
       <c r="B11" s="13"/>
-      <c r="C11" s="56" t="s">
-        <v>132</v>
+      <c r="C11" s="27" t="s">
+        <v>347</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>133</v>
+        <v>348</v>
       </c>
       <c r="E11" s="24">
-        <v>37206</v>
-      </c>
-      <c r="F11" s="76" t="s">
-        <v>478</v>
+        <v>37102</v>
+      </c>
+      <c r="F11" s="25" t="s">
+        <v>349</v>
       </c>
       <c r="G11" s="13">
         <v>1</v>
@@ -24680,13 +24613,13 @@
         <v>416</v>
       </c>
       <c r="I11" s="24">
-        <v>44680</v>
+        <v>44706</v>
       </c>
       <c r="J11" s="11"/>
       <c r="K11" s="11"/>
       <c r="L11" s="11"/>
       <c r="M11" s="13">
-        <v>968768491</v>
+        <v>929290822</v>
       </c>
       <c r="N11" s="13">
         <v>1</v>
@@ -24695,127 +24628,121 @@
         <v>412</v>
       </c>
       <c r="P11" s="18" t="s">
-        <v>479</v>
+        <v>727</v>
       </c>
       <c r="Q11" s="26" t="s">
-        <v>480</v>
+        <v>728</v>
       </c>
       <c r="R11" s="13" t="s">
         <v>418</v>
       </c>
-      <c r="S11" s="13" t="s">
-        <v>408</v>
-      </c>
-      <c r="T11" s="13">
-        <v>1</v>
-      </c>
+      <c r="S11" s="13"/>
+      <c r="T11" s="13"/>
       <c r="U11" s="13"/>
-      <c r="V11" s="18" t="s">
-        <v>481</v>
+      <c r="V11" s="13" t="s">
+        <v>426</v>
       </c>
       <c r="W11" s="28" t="s">
-        <v>482</v>
-      </c>
-      <c r="X11" s="28" t="s">
-        <v>483</v>
-      </c>
-      <c r="Y11" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="Z11" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="AA11" s="12" t="s">
-        <v>484</v>
-      </c>
+        <v>729</v>
+      </c>
+      <c r="X11" s="13"/>
+      <c r="Y11" s="13"/>
+      <c r="Z11" s="13"/>
+      <c r="AA11" s="13"/>
       <c r="AB11" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>CAMASCA QUINTO LEYDI HELEN</v>
-      </c>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A12" s="11"/>
-      <c r="B12" s="13"/>
-      <c r="C12" s="56" t="s">
-        <v>143</v>
+        <f>CONCATENATE(C11," ", D11)</f>
+        <v>SOLIS DURAND JESSICA MARISOL</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="11" t="s">
+        <v>405</v>
+      </c>
+      <c r="B12" s="13">
+        <v>1</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>25</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>144</v>
+        <v>26</v>
       </c>
       <c r="E12" s="24">
-        <v>37678</v>
-      </c>
-      <c r="F12" s="76" t="s">
-        <v>539</v>
+        <v>26093</v>
+      </c>
+      <c r="F12" s="25" t="s">
+        <v>406</v>
       </c>
       <c r="G12" s="13">
         <v>1</v>
       </c>
-      <c r="H12" s="11" t="s">
-        <v>416</v>
+      <c r="H12" s="11" t="str">
+        <f>VLOOKUP(G12,AREAS,2)</f>
+        <v>Operaciones</v>
       </c>
       <c r="I12" s="24">
-        <v>44677</v>
-      </c>
-      <c r="J12" s="11"/>
-      <c r="K12" s="11"/>
-      <c r="L12" s="11"/>
-      <c r="M12" s="13">
-        <v>927661757</v>
+        <v>44413</v>
+      </c>
+      <c r="J12" s="24"/>
+      <c r="K12" s="24"/>
+      <c r="L12" s="24"/>
+      <c r="M12" s="7">
+        <v>970707787</v>
       </c>
       <c r="N12" s="13">
         <v>1</v>
       </c>
-      <c r="O12" s="13" t="s">
-        <v>412</v>
-      </c>
-      <c r="P12" s="18" t="s">
-        <v>540</v>
-      </c>
-      <c r="Q12" s="26" t="s">
-        <v>541</v>
-      </c>
+      <c r="O12" s="13" t="str">
+        <f>VLOOKUP([2]Empleados!M3,TURNOS,2)</f>
+        <v>MAÑANA</v>
+      </c>
+      <c r="P12" s="18"/>
+      <c r="Q12" s="18"/>
       <c r="R12" s="13" t="s">
         <v>407</v>
       </c>
-      <c r="S12" s="13"/>
-      <c r="T12" s="13"/>
-      <c r="U12" s="13"/>
+      <c r="S12" s="13" t="s">
+        <v>408</v>
+      </c>
+      <c r="T12" s="13">
+        <v>3</v>
+      </c>
+      <c r="U12" s="13" t="s">
+        <v>409</v>
+      </c>
       <c r="V12" s="18"/>
-      <c r="W12" s="13"/>
-      <c r="X12" s="13"/>
+      <c r="W12" s="18"/>
+      <c r="X12" s="18"/>
       <c r="Y12" s="13" t="s">
         <v>15</v>
       </c>
       <c r="Z12" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="AA12" s="12" t="s">
-        <v>542</v>
+      <c r="AA12" s="13" t="s">
+        <v>410</v>
       </c>
       <c r="AB12" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>ENCALADA LAZARO BRAYAN MANUEL</v>
+        <f>CONCATENATE(C12," ", D12)</f>
+        <v>ALIAGA MARIN JOSE RULY</v>
       </c>
     </row>
     <row r="13" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="11" t="s">
-        <v>477</v>
-      </c>
+      <c r="A13" s="11"/>
       <c r="B13" s="13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E13" s="24">
-        <v>36816</v>
-      </c>
-      <c r="F13" s="25">
-        <v>76081325</v>
+        <v>37757</v>
+      </c>
+      <c r="F13" s="25" t="s">
+        <v>411</v>
       </c>
       <c r="G13" s="13">
         <v>1</v>
@@ -24825,23 +24752,26 @@
         <v>Operaciones</v>
       </c>
       <c r="I13" s="24">
-        <v>44319</v>
-      </c>
-      <c r="J13" s="24"/>
-      <c r="K13" s="24"/>
-      <c r="L13" s="24"/>
+        <v>44657</v>
+      </c>
+      <c r="J13" s="11"/>
+      <c r="K13" s="11"/>
+      <c r="L13" s="11"/>
       <c r="M13" s="13">
-        <v>985753890</v>
+        <v>936950163</v>
       </c>
       <c r="N13" s="13">
         <v>1</v>
       </c>
-      <c r="O13" s="13" t="str">
-        <f>VLOOKUP([2]Empleados!M11,TURNOS,2)</f>
-        <v>MAÑANA</v>
-      </c>
-      <c r="P13" s="18"/>
-      <c r="Q13" s="18"/>
+      <c r="O13" s="13" t="s">
+        <v>412</v>
+      </c>
+      <c r="P13" s="18" t="s">
+        <v>413</v>
+      </c>
+      <c r="Q13" s="26" t="s">
+        <v>414</v>
+      </c>
       <c r="R13" s="13" t="s">
         <v>407</v>
       </c>
@@ -24849,7 +24779,7 @@
       <c r="T13" s="13"/>
       <c r="U13" s="13"/>
       <c r="V13" s="18"/>
-      <c r="W13" s="18"/>
+      <c r="W13" s="13"/>
       <c r="X13" s="18"/>
       <c r="Y13" s="13" t="s">
         <v>15</v>
@@ -24859,24 +24789,24 @@
       </c>
       <c r="AA13" s="13"/>
       <c r="AB13" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>CALVAY CASTRO MIGUEL ALONSO</v>
-      </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
+        <f>CONCATENATE(C13," ", D13)</f>
+        <v>ALVARADO CORNEJO ADRIAN LEANDRO</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="11"/>
       <c r="B14" s="13"/>
-      <c r="C14" s="56" t="s">
-        <v>152</v>
+      <c r="C14" s="11" t="s">
+        <v>126</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>153</v>
+        <v>127</v>
       </c>
       <c r="E14" s="24">
-        <v>32806</v>
-      </c>
-      <c r="F14" s="76" t="s">
-        <v>595</v>
+        <v>30679</v>
+      </c>
+      <c r="F14" s="25" t="s">
+        <v>415</v>
       </c>
       <c r="G14" s="13">
         <v>1</v>
@@ -24891,7 +24821,7 @@
       <c r="K14" s="11"/>
       <c r="L14" s="11"/>
       <c r="M14" s="13">
-        <v>933077747</v>
+        <v>936193090</v>
       </c>
       <c r="N14" s="13">
         <v>1</v>
@@ -24900,16 +24830,18 @@
         <v>412</v>
       </c>
       <c r="P14" s="18" t="s">
-        <v>596</v>
-      </c>
-      <c r="Q14" s="26" t="s">
-        <v>597</v>
-      </c>
+        <v>417</v>
+      </c>
+      <c r="Q14" s="18"/>
       <c r="R14" s="13" t="s">
-        <v>407</v>
-      </c>
-      <c r="S14" s="13"/>
-      <c r="T14" s="13"/>
+        <v>418</v>
+      </c>
+      <c r="S14" s="13" t="s">
+        <v>408</v>
+      </c>
+      <c r="T14" s="13">
+        <v>4</v>
+      </c>
       <c r="U14" s="13"/>
       <c r="V14" s="18"/>
       <c r="W14" s="13"/>
@@ -24921,37 +24853,38 @@
         <v>15</v>
       </c>
       <c r="AA14" s="12" t="s">
-        <v>598</v>
+        <v>419</v>
       </c>
       <c r="AB14" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>LLANOS RAYMUNDO JUAN LEVIN</v>
+        <f>CONCATENATE(C14," ", D14)</f>
+        <v>ANTONIETTE FRANCIA MARIA MILAGROS</v>
       </c>
     </row>
     <row r="15" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
-        <v>485</v>
+        <v>420</v>
       </c>
       <c r="B15" s="13">
         <v>1</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>486</v>
+        <v>421</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="E15" s="24">
-        <v>30733</v>
+        <v>28446</v>
       </c>
       <c r="F15" s="25">
-        <v>42874249</v>
+        <v>80591175</v>
       </c>
       <c r="G15" s="13">
         <v>1</v>
       </c>
-      <c r="H15" s="11" t="s">
-        <v>416</v>
+      <c r="H15" s="11" t="str">
+        <f>VLOOKUP(G15,AREAS,2)</f>
+        <v>Operaciones</v>
       </c>
       <c r="I15" s="24">
         <v>44348</v>
@@ -24960,13 +24893,13 @@
       <c r="K15" s="24"/>
       <c r="L15" s="24"/>
       <c r="M15" s="7">
-        <v>912724050</v>
+        <v>960874318</v>
       </c>
       <c r="N15" s="13">
         <v>1</v>
       </c>
       <c r="O15" s="13" t="str">
-        <f>VLOOKUP([2]Empleados!M12,TURNOS,2)</f>
+        <f>VLOOKUP([2]Empleados!M5,TURNOS,2)</f>
         <v>MAÑANA</v>
       </c>
       <c r="P15" s="18"/>
@@ -24978,10 +24911,10 @@
         <v>408</v>
       </c>
       <c r="T15" s="13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U15" s="13" t="s">
-        <v>487</v>
+        <v>422</v>
       </c>
       <c r="V15" s="18"/>
       <c r="W15" s="18"/>
@@ -24994,83 +24927,73 @@
       </c>
       <c r="AA15" s="13"/>
       <c r="AB15" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>CAMPOS ASIN MARIA LUISA</v>
-      </c>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A16" s="11"/>
-      <c r="B16" s="13"/>
-      <c r="C16" s="56" t="s">
-        <v>154</v>
+        <f>CONCATENATE(C15," ", D15)</f>
+        <v>AQUITUARI CALDERON LUPE AMPARO</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="11" t="s">
+        <v>428</v>
+      </c>
+      <c r="B16" s="13">
+        <v>1</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>429</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>155</v>
+        <v>23</v>
       </c>
       <c r="E16" s="24">
-        <v>37796</v>
-      </c>
-      <c r="F16" s="76" t="s">
-        <v>629</v>
+        <v>26738</v>
+      </c>
+      <c r="F16" s="25">
+        <v>32286935</v>
       </c>
       <c r="G16" s="13">
         <v>1</v>
       </c>
-      <c r="H16" s="11" t="s">
-        <v>416</v>
+      <c r="H16" s="11" t="str">
+        <f>VLOOKUP(G16,AREAS,2)</f>
+        <v>Operaciones</v>
       </c>
       <c r="I16" s="24">
-        <v>44677</v>
-      </c>
-      <c r="J16" s="11"/>
-      <c r="K16" s="11"/>
-      <c r="L16" s="11"/>
-      <c r="M16" s="13">
-        <v>968486681</v>
+        <v>44412</v>
+      </c>
+      <c r="J16" s="24"/>
+      <c r="K16" s="24"/>
+      <c r="L16" s="24"/>
+      <c r="M16" s="7">
+        <v>989424824</v>
       </c>
       <c r="N16" s="13">
         <v>1</v>
       </c>
-      <c r="O16" s="13" t="s">
-        <v>412</v>
-      </c>
-      <c r="P16" s="18" t="s">
-        <v>630</v>
-      </c>
-      <c r="Q16" s="26" t="s">
-        <v>631</v>
-      </c>
+      <c r="O16" s="13" t="str">
+        <f>VLOOKUP([2]Empleados!M6,TURNOS,2)</f>
+        <v>MAÑANA</v>
+      </c>
+      <c r="P16" s="18"/>
+      <c r="Q16" s="18"/>
       <c r="R16" s="13" t="s">
         <v>418</v>
       </c>
-      <c r="S16" s="13" t="s">
-        <v>408</v>
-      </c>
-      <c r="T16" s="13">
-        <v>2</v>
-      </c>
-      <c r="U16" s="13" t="s">
-        <v>632</v>
-      </c>
-      <c r="V16" s="13" t="s">
-        <v>426</v>
-      </c>
-      <c r="W16" s="28" t="s">
-        <v>633</v>
-      </c>
-      <c r="X16" s="13"/>
+      <c r="S16" s="13"/>
+      <c r="T16" s="13"/>
+      <c r="U16" s="13"/>
+      <c r="V16" s="18"/>
+      <c r="W16" s="18"/>
+      <c r="X16" s="18"/>
       <c r="Y16" s="13" t="s">
         <v>15</v>
       </c>
       <c r="Z16" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="AA16" s="12" t="s">
-        <v>634</v>
-      </c>
+      <c r="AA16" s="13"/>
       <c r="AB16" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>MERCADO CUYA MAYBELYN</v>
+        <f>CONCATENATE(C16," ", D16)</f>
+        <v>ARANDA GONZALES MELY BERTITA</v>
       </c>
     </row>
     <row r="17" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
@@ -25142,28 +25065,26 @@
       <c r="Z17" s="28"/>
       <c r="AA17" s="28"/>
       <c r="AB17" s="13" t="str">
-        <f t="shared" si="1"/>
+        <f>CONCATENATE(C17," ", D17)</f>
         <v>BOJORQUEZ BERROCAL LUZ CRISTINA</v>
       </c>
     </row>
     <row r="18" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="11" t="s">
-        <v>497</v>
-      </c>
+      <c r="A18" s="11"/>
       <c r="B18" s="13">
         <v>1</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>498</v>
+        <v>47</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>85</v>
+        <v>48</v>
       </c>
       <c r="E18" s="24">
-        <v>29229</v>
-      </c>
-      <c r="F18" s="25">
-        <v>40399288</v>
+        <v>35421</v>
+      </c>
+      <c r="F18" s="25" t="s">
+        <v>430</v>
       </c>
       <c r="G18" s="13">
         <v>1</v>
@@ -25173,31 +25094,34 @@
         <v>Operaciones</v>
       </c>
       <c r="I18" s="24">
-        <v>44411</v>
-      </c>
-      <c r="J18" s="24"/>
-      <c r="K18" s="24"/>
-      <c r="L18" s="24"/>
-      <c r="M18" s="7">
-        <v>982253154</v>
+        <v>44657</v>
+      </c>
+      <c r="J18" s="11"/>
+      <c r="K18" s="11"/>
+      <c r="L18" s="11"/>
+      <c r="M18" s="13">
+        <v>942630758</v>
       </c>
       <c r="N18" s="13">
         <v>1</v>
       </c>
-      <c r="O18" s="13" t="str">
-        <f>VLOOKUP([2]Empleados!M15,TURNOS,2)</f>
-        <v>MAÑANA</v>
-      </c>
-      <c r="P18" s="18"/>
-      <c r="Q18" s="18"/>
+      <c r="O18" s="13" t="s">
+        <v>412</v>
+      </c>
+      <c r="P18" s="18" t="s">
+        <v>431</v>
+      </c>
+      <c r="Q18" s="26" t="s">
+        <v>432</v>
+      </c>
       <c r="R18" s="13" t="s">
-        <v>407</v>
+        <v>418</v>
       </c>
       <c r="S18" s="13"/>
       <c r="T18" s="13"/>
       <c r="U18" s="13"/>
       <c r="V18" s="18"/>
-      <c r="W18" s="18"/>
+      <c r="W18" s="13"/>
       <c r="X18" s="18"/>
       <c r="Y18" s="13" t="s">
         <v>15</v>
@@ -25207,24 +25131,26 @@
       </c>
       <c r="AA18" s="13"/>
       <c r="AB18" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>CARDENAS LAVAGGE PERCY ENRIQUE</v>
+        <f>CONCATENATE(C18," ", D18)</f>
+        <v>ARIAS ARIAS LOURDES DE FATIMA</v>
       </c>
     </row>
     <row r="19" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="11"/>
-      <c r="B19" s="13"/>
-      <c r="C19" s="11" t="s">
-        <v>499</v>
+      <c r="B19" s="13">
+        <v>1</v>
+      </c>
+      <c r="C19" s="56" t="s">
+        <v>296</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>91</v>
+        <v>297</v>
       </c>
       <c r="E19" s="24">
-        <v>34155</v>
-      </c>
-      <c r="F19" s="25" t="s">
-        <v>500</v>
+        <v>36930</v>
+      </c>
+      <c r="F19" s="76" t="s">
+        <v>565</v>
       </c>
       <c r="G19" s="13">
         <v>1</v>
@@ -25233,13 +25159,13 @@
         <v>416</v>
       </c>
       <c r="I19" s="24">
-        <v>44695</v>
+        <v>44672</v>
       </c>
       <c r="J19" s="11"/>
       <c r="K19" s="11"/>
       <c r="L19" s="11"/>
       <c r="M19" s="13">
-        <v>933783765</v>
+        <v>913706725</v>
       </c>
       <c r="N19" s="13">
         <v>1</v>
@@ -25248,30 +25174,20 @@
         <v>412</v>
       </c>
       <c r="P19" s="18" t="s">
-        <v>501</v>
+        <v>566</v>
       </c>
       <c r="Q19" s="26" t="s">
-        <v>502</v>
+        <v>567</v>
       </c>
       <c r="R19" s="13" t="s">
         <v>418</v>
       </c>
-      <c r="S19" s="13" t="s">
-        <v>408</v>
-      </c>
-      <c r="T19" s="13">
-        <v>1</v>
-      </c>
-      <c r="U19" s="13">
-        <v>9</v>
-      </c>
-      <c r="V19" s="13" t="s">
-        <v>426</v>
-      </c>
-      <c r="W19" s="28" t="s">
-        <v>503</v>
-      </c>
-      <c r="X19" s="13"/>
+      <c r="S19" s="13"/>
+      <c r="T19" s="13"/>
+      <c r="U19" s="13"/>
+      <c r="V19" s="18"/>
+      <c r="W19" s="13"/>
+      <c r="X19" s="18"/>
       <c r="Y19" s="13" t="s">
         <v>15</v>
       </c>
@@ -25279,57 +25195,57 @@
         <v>15</v>
       </c>
       <c r="AA19" s="12" t="s">
-        <v>504</v>
+        <v>568</v>
       </c>
       <c r="AB19" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>CASTRO CORTEZ CAROLYNE BEATRIZ</v>
+        <f>CONCATENATE(C19," ", D19)</f>
+        <v>GRABIEL LIVIA JESSICA KELY</v>
       </c>
     </row>
     <row r="20" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="11" t="s">
-        <v>505</v>
-      </c>
+      <c r="A20" s="11"/>
       <c r="B20" s="13">
         <v>1</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>44</v>
+        <v>437</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>45</v>
+        <v>438</v>
       </c>
       <c r="E20" s="24">
-        <v>34424</v>
-      </c>
-      <c r="F20" s="25">
-        <v>70661512</v>
+        <v>36862</v>
+      </c>
+      <c r="F20" s="25" t="s">
+        <v>439</v>
       </c>
       <c r="G20" s="13">
         <v>1</v>
       </c>
-      <c r="H20" s="11" t="str">
-        <f>VLOOKUP(G20,AREAS,2)</f>
-        <v>Operaciones</v>
+      <c r="H20" s="11" t="s">
+        <v>416</v>
       </c>
       <c r="I20" s="24">
-        <v>44348</v>
-      </c>
-      <c r="J20" s="24"/>
-      <c r="K20" s="24"/>
-      <c r="L20" s="24"/>
-      <c r="M20" s="7">
-        <v>974243750</v>
+        <v>44644</v>
+      </c>
+      <c r="J20" s="11"/>
+      <c r="K20" s="11"/>
+      <c r="L20" s="11"/>
+      <c r="M20" s="13">
+        <v>990520979</v>
       </c>
       <c r="N20" s="13">
         <v>1</v>
       </c>
-      <c r="O20" s="13" t="str">
-        <f>VLOOKUP([2]Empleados!M18,TURNOS,2)</f>
-        <v>MAÑANA</v>
-      </c>
-      <c r="P20" s="18"/>
-      <c r="Q20" s="18"/>
+      <c r="O20" s="13" t="s">
+        <v>412</v>
+      </c>
+      <c r="P20" s="18" t="s">
+        <v>440</v>
+      </c>
+      <c r="Q20" s="26" t="s">
+        <v>441</v>
+      </c>
       <c r="R20" s="13" t="s">
         <v>418</v>
       </c>
@@ -25340,7 +25256,7 @@
         <v>1</v>
       </c>
       <c r="U20" s="13">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="V20" s="18"/>
       <c r="W20" s="18"/>
@@ -25353,97 +25269,89 @@
       </c>
       <c r="AA20" s="13"/>
       <c r="AB20" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>CHINGUEL FACUNDO BRENDA</v>
+        <f>CONCATENATE(C20," ", D20)</f>
+        <v>ATAHUA LINARES KAMILA ALEXANDRA</v>
       </c>
     </row>
     <row r="21" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="11"/>
-      <c r="B21" s="13">
-        <v>1</v>
-      </c>
-      <c r="C21" s="11" t="s">
-        <v>92</v>
+      <c r="B21" s="13"/>
+      <c r="C21" s="56" t="s">
+        <v>128</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>93</v>
+        <v>129</v>
       </c>
       <c r="E21" s="24">
-        <v>28339</v>
-      </c>
-      <c r="F21" s="37" t="s">
-        <v>94</v>
+        <v>37685</v>
+      </c>
+      <c r="F21" s="76" t="s">
+        <v>433</v>
       </c>
       <c r="G21" s="13">
         <v>1</v>
       </c>
-      <c r="H21" s="11" t="str">
-        <f>VLOOKUP(G21,AREAS,2)</f>
-        <v>Operaciones</v>
+      <c r="H21" s="11" t="s">
+        <v>416</v>
       </c>
       <c r="I21" s="24">
-        <v>44586</v>
+        <v>44677</v>
       </c>
       <c r="J21" s="11"/>
       <c r="K21" s="11"/>
       <c r="L21" s="11"/>
       <c r="M21" s="13">
-        <v>925006993</v>
+        <v>922592869</v>
       </c>
       <c r="N21" s="13">
         <v>1</v>
       </c>
-      <c r="O21" s="13" t="str">
-        <f>VLOOKUP([2]Empleados!M99,TURNOS,2)</f>
-        <v>MAÑANA</v>
+      <c r="O21" s="13" t="s">
+        <v>412</v>
       </c>
       <c r="P21" s="18" t="s">
-        <v>506</v>
+        <v>434</v>
       </c>
       <c r="Q21" s="26" t="s">
-        <v>507</v>
+        <v>435</v>
       </c>
       <c r="R21" s="13" t="s">
-        <v>418</v>
-      </c>
-      <c r="S21" s="13" t="s">
-        <v>408</v>
-      </c>
-      <c r="T21" s="13">
-        <v>2</v>
-      </c>
-      <c r="U21" s="13" t="s">
-        <v>508</v>
-      </c>
+        <v>407</v>
+      </c>
+      <c r="S21" s="13"/>
+      <c r="T21" s="13"/>
+      <c r="U21" s="13"/>
       <c r="V21" s="18"/>
-      <c r="W21" s="18"/>
-      <c r="X21" s="18"/>
+      <c r="W21" s="13"/>
+      <c r="X21" s="13"/>
       <c r="Y21" s="13" t="s">
         <v>15</v>
       </c>
       <c r="Z21" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="AA21" s="13"/>
+      <c r="AA21" s="12" t="s">
+        <v>436</v>
+      </c>
       <c r="AB21" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>CHINO FLORES MARGARITA EDITH</v>
-      </c>
-    </row>
-    <row r="22" spans="1:28" x14ac:dyDescent="0.25">
+        <f>CONCATENATE(C21," ", D21)</f>
+        <v>ARIAS CONDORI LUIS ANGEL</v>
+      </c>
+    </row>
+    <row r="22" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="11"/>
       <c r="B22" s="13"/>
       <c r="C22" s="56" t="s">
-        <v>156</v>
+        <v>132</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>157</v>
+        <v>133</v>
       </c>
       <c r="E22" s="24">
-        <v>37098</v>
+        <v>37206</v>
       </c>
       <c r="F22" s="76" t="s">
-        <v>635</v>
+        <v>478</v>
       </c>
       <c r="G22" s="13">
         <v>1</v>
@@ -25458,7 +25366,7 @@
       <c r="K22" s="11"/>
       <c r="L22" s="11"/>
       <c r="M22" s="13">
-        <v>967379468</v>
+        <v>968768491</v>
       </c>
       <c r="N22" s="13">
         <v>1</v>
@@ -25467,202 +25375,203 @@
         <v>412</v>
       </c>
       <c r="P22" s="18" t="s">
-        <v>636</v>
+        <v>479</v>
       </c>
       <c r="Q22" s="26" t="s">
-        <v>637</v>
+        <v>480</v>
       </c>
       <c r="R22" s="13" t="s">
         <v>418</v>
       </c>
-      <c r="S22" s="13"/>
-      <c r="T22" s="13"/>
+      <c r="S22" s="13" t="s">
+        <v>408</v>
+      </c>
+      <c r="T22" s="13">
+        <v>1</v>
+      </c>
       <c r="U22" s="13"/>
-      <c r="V22" s="18"/>
-      <c r="W22" s="13"/>
-      <c r="X22" s="13"/>
-      <c r="Y22" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="Z22" s="13" t="s">
+      <c r="V22" s="18" t="s">
+        <v>481</v>
+      </c>
+      <c r="W22" s="28" t="s">
+        <v>482</v>
+      </c>
+      <c r="X22" s="28" t="s">
+        <v>483</v>
+      </c>
+      <c r="Y22" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="Z22" s="28" t="s">
         <v>15</v>
       </c>
       <c r="AA22" s="12" t="s">
-        <v>638</v>
+        <v>484</v>
       </c>
       <c r="AB22" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>MEZA MALASQUEZ LISBETH PAULINA</v>
+        <f>CONCATENATE(C22," ", D22)</f>
+        <v>CAMASCA QUINTO LEYDI HELEN</v>
       </c>
     </row>
     <row r="23" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="11" t="s">
-        <v>515</v>
-      </c>
-      <c r="B23" s="13">
-        <v>1</v>
-      </c>
-      <c r="C23" s="11" t="s">
-        <v>111</v>
+      <c r="A23" s="11"/>
+      <c r="B23" s="13"/>
+      <c r="C23" s="56" t="s">
+        <v>143</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>83</v>
+        <v>144</v>
       </c>
       <c r="E23" s="24">
-        <v>26576</v>
-      </c>
-      <c r="F23" s="25">
-        <v>41491172</v>
+        <v>37678</v>
+      </c>
+      <c r="F23" s="76" t="s">
+        <v>539</v>
       </c>
       <c r="G23" s="13">
         <v>1</v>
       </c>
-      <c r="H23" s="11" t="str">
-        <f>VLOOKUP(G23,AREAS,2)</f>
-        <v>Operaciones</v>
+      <c r="H23" s="11" t="s">
+        <v>416</v>
       </c>
       <c r="I23" s="24">
-        <v>44519</v>
-      </c>
-      <c r="J23" s="24"/>
-      <c r="K23" s="24"/>
-      <c r="L23" s="24"/>
-      <c r="M23" s="7">
-        <v>910562904</v>
+        <v>44677</v>
+      </c>
+      <c r="J23" s="11"/>
+      <c r="K23" s="11"/>
+      <c r="L23" s="11"/>
+      <c r="M23" s="13">
+        <v>927661757</v>
       </c>
       <c r="N23" s="13">
         <v>1</v>
       </c>
-      <c r="O23" s="13" t="str">
-        <f>VLOOKUP([2]Empleados!M21,TURNOS,2)</f>
-        <v>MAÑANA</v>
-      </c>
-      <c r="P23" s="18"/>
+      <c r="O23" s="13" t="s">
+        <v>412</v>
+      </c>
+      <c r="P23" s="18" t="s">
+        <v>540</v>
+      </c>
       <c r="Q23" s="26" t="s">
-        <v>516</v>
+        <v>541</v>
       </c>
       <c r="R23" s="13" t="s">
-        <v>418</v>
+        <v>407</v>
       </c>
       <c r="S23" s="13"/>
       <c r="T23" s="13"/>
       <c r="U23" s="13"/>
       <c r="V23" s="18"/>
-      <c r="W23" s="18"/>
-      <c r="X23" s="18"/>
+      <c r="W23" s="13"/>
+      <c r="X23" s="13"/>
       <c r="Y23" s="13" t="s">
         <v>15</v>
       </c>
       <c r="Z23" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="AA23" s="13"/>
+      <c r="AA23" s="12" t="s">
+        <v>542</v>
+      </c>
       <c r="AB23" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>CONDORI LANDEO LUCY</v>
-      </c>
-    </row>
-    <row r="24" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A24" s="11"/>
-      <c r="B24" s="13"/>
-      <c r="C24" s="56" t="s">
-        <v>168</v>
+        <f>CONCATENATE(C23," ", D23)</f>
+        <v>ENCALADA LAZARO BRAYAN MANUEL</v>
+      </c>
+    </row>
+    <row r="24" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="11" t="s">
+        <v>477</v>
+      </c>
+      <c r="B24" s="13">
+        <v>1</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>30</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>169</v>
+        <v>31</v>
       </c>
       <c r="E24" s="24">
-        <v>35940</v>
-      </c>
-      <c r="F24" s="76" t="s">
-        <v>711</v>
+        <v>36816</v>
+      </c>
+      <c r="F24" s="25">
+        <v>76081325</v>
       </c>
       <c r="G24" s="13">
         <v>1</v>
       </c>
-      <c r="H24" s="11" t="s">
-        <v>416</v>
+      <c r="H24" s="11" t="str">
+        <f>VLOOKUP(G24,AREAS,2)</f>
+        <v>Operaciones</v>
       </c>
       <c r="I24" s="24">
-        <v>44677</v>
-      </c>
-      <c r="J24" s="11"/>
-      <c r="K24" s="11"/>
-      <c r="L24" s="11"/>
+        <v>44319</v>
+      </c>
+      <c r="J24" s="24"/>
+      <c r="K24" s="24"/>
+      <c r="L24" s="24"/>
       <c r="M24" s="13">
-        <v>955880534</v>
+        <v>985753890</v>
       </c>
       <c r="N24" s="13">
         <v>1</v>
       </c>
-      <c r="O24" s="13" t="s">
-        <v>412</v>
-      </c>
-      <c r="P24" s="18" t="s">
-        <v>712</v>
-      </c>
-      <c r="Q24" s="26" t="s">
-        <v>713</v>
-      </c>
+      <c r="O24" s="13" t="str">
+        <f>VLOOKUP([2]Empleados!M11,TURNOS,2)</f>
+        <v>MAÑANA</v>
+      </c>
+      <c r="P24" s="18"/>
+      <c r="Q24" s="18"/>
       <c r="R24" s="13" t="s">
-        <v>418</v>
+        <v>407</v>
       </c>
       <c r="S24" s="13"/>
       <c r="T24" s="13"/>
       <c r="U24" s="13"/>
-      <c r="V24" s="13" t="s">
-        <v>426</v>
-      </c>
-      <c r="W24" s="28" t="s">
-        <v>714</v>
-      </c>
-      <c r="X24" s="13"/>
+      <c r="V24" s="18"/>
+      <c r="W24" s="18"/>
+      <c r="X24" s="18"/>
       <c r="Y24" s="13" t="s">
         <v>15</v>
       </c>
       <c r="Z24" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="AA24" s="12" t="s">
-        <v>715</v>
-      </c>
+      <c r="AA24" s="13"/>
       <c r="AB24" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>SEMINARIO JIMENEZ ANDREA</v>
+        <f>CONCATENATE(C24," ", D24)</f>
+        <v>CALVAY CASTRO MIGUEL ALONSO</v>
       </c>
     </row>
     <row r="25" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="11"/>
-      <c r="B25" s="13">
-        <v>1</v>
-      </c>
-      <c r="C25" s="11" t="s">
-        <v>525</v>
+      <c r="B25" s="13"/>
+      <c r="C25" s="56" t="s">
+        <v>152</v>
       </c>
       <c r="D25" s="11" t="s">
-        <v>526</v>
+        <v>153</v>
       </c>
       <c r="E25" s="24">
-        <v>34991</v>
-      </c>
-      <c r="F25" s="25" t="s">
-        <v>527</v>
+        <v>32806</v>
+      </c>
+      <c r="F25" s="76" t="s">
+        <v>595</v>
       </c>
       <c r="G25" s="13">
         <v>1</v>
       </c>
-      <c r="H25" s="11" t="str">
-        <f>VLOOKUP(G25,AREAS,2)</f>
-        <v>Operaciones</v>
+      <c r="H25" s="11" t="s">
+        <v>416</v>
       </c>
       <c r="I25" s="24">
-        <v>44649</v>
+        <v>44680</v>
       </c>
       <c r="J25" s="11"/>
       <c r="K25" s="11"/>
       <c r="L25" s="11"/>
       <c r="M25" s="13">
-        <v>955350471</v>
+        <v>933077747</v>
       </c>
       <c r="N25" s="13">
         <v>1</v>
@@ -25671,72 +25580,73 @@
         <v>412</v>
       </c>
       <c r="P25" s="18" t="s">
-        <v>528</v>
+        <v>596</v>
       </c>
       <c r="Q25" s="26" t="s">
-        <v>529</v>
+        <v>597</v>
       </c>
       <c r="R25" s="13" t="s">
-        <v>418</v>
+        <v>407</v>
       </c>
       <c r="S25" s="13"/>
       <c r="T25" s="13"/>
       <c r="U25" s="13"/>
       <c r="V25" s="18"/>
-      <c r="W25" s="18"/>
-      <c r="X25" s="18"/>
+      <c r="W25" s="13"/>
+      <c r="X25" s="13"/>
       <c r="Y25" s="13" t="s">
         <v>15</v>
       </c>
       <c r="Z25" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="AA25" s="13"/>
+      <c r="AA25" s="12" t="s">
+        <v>598</v>
+      </c>
       <c r="AB25" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>DIAZ CORTEZ DANITZA KATHERINE</v>
+        <f>CONCATENATE(C25," ", D25)</f>
+        <v>LLANOS RAYMUNDO JUAN LEVIN</v>
       </c>
     </row>
     <row r="26" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="31" t="s">
-        <v>530</v>
+        <v>485</v>
       </c>
       <c r="B26" s="13">
         <v>1</v>
       </c>
       <c r="C26" s="31" t="s">
-        <v>180</v>
+        <v>486</v>
       </c>
       <c r="D26" s="31" t="s">
-        <v>531</v>
+        <v>33</v>
       </c>
       <c r="E26" s="32">
-        <v>35251</v>
+        <v>30733</v>
       </c>
       <c r="F26" s="33">
-        <v>76371910</v>
+        <v>42874249</v>
       </c>
       <c r="G26" s="34">
         <v>1</v>
       </c>
-      <c r="H26" s="31" t="str">
-        <f>VLOOKUP(G26,AREAS,2)</f>
-        <v>Operaciones</v>
+      <c r="H26" s="31" t="s">
+        <v>416</v>
       </c>
       <c r="I26" s="32">
-        <v>44498</v>
+        <v>44348</v>
       </c>
       <c r="J26" s="32"/>
       <c r="K26" s="32"/>
       <c r="L26" s="32"/>
       <c r="M26" s="51">
-        <v>934488000</v>
+        <v>912724050</v>
       </c>
       <c r="N26" s="34">
         <v>1</v>
       </c>
       <c r="O26" s="34" t="str">
-        <f>VLOOKUP([2]Empleados!M24,TURNOS,2)</f>
+        <f>VLOOKUP([2]Empleados!M12,TURNOS,2)</f>
         <v>MAÑANA</v>
       </c>
       <c r="P26" s="35"/>
@@ -25744,9 +25654,15 @@
       <c r="R26" s="13" t="s">
         <v>418</v>
       </c>
-      <c r="S26" s="13"/>
-      <c r="T26" s="13"/>
-      <c r="U26" s="13"/>
+      <c r="S26" s="13" t="s">
+        <v>408</v>
+      </c>
+      <c r="T26" s="13">
+        <v>2</v>
+      </c>
+      <c r="U26" s="13" t="s">
+        <v>487</v>
+      </c>
       <c r="V26" s="18"/>
       <c r="W26" s="18"/>
       <c r="X26" s="18"/>
@@ -25758,93 +25674,103 @@
       </c>
       <c r="AA26" s="13"/>
       <c r="AB26" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>DIAZ HERRERA ROSITA</v>
+        <f>CONCATENATE(C26," ", D26)</f>
+        <v>CAMPOS ASIN MARIA LUISA</v>
       </c>
     </row>
     <row r="27" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="11" t="s">
-        <v>532</v>
-      </c>
-      <c r="B27" s="13">
-        <v>1</v>
-      </c>
-      <c r="C27" s="11" t="s">
-        <v>533</v>
+      <c r="A27" s="11"/>
+      <c r="B27" s="13"/>
+      <c r="C27" s="56" t="s">
+        <v>154</v>
       </c>
       <c r="D27" s="11" t="s">
-        <v>534</v>
+        <v>155</v>
       </c>
       <c r="E27" s="24">
-        <v>37453</v>
-      </c>
-      <c r="F27" s="25">
-        <v>76438151</v>
+        <v>37796</v>
+      </c>
+      <c r="F27" s="76" t="s">
+        <v>629</v>
       </c>
       <c r="G27" s="13">
         <v>1</v>
       </c>
-      <c r="H27" s="11" t="str">
-        <f>VLOOKUP(G27,AREAS,2)</f>
-        <v>Operaciones</v>
+      <c r="H27" s="11" t="s">
+        <v>416</v>
       </c>
       <c r="I27" s="24">
-        <v>44648</v>
-      </c>
-      <c r="J27" s="24"/>
-      <c r="K27" s="24"/>
-      <c r="L27" s="24"/>
-      <c r="M27" s="45" t="s">
-        <v>535</v>
+        <v>44677</v>
+      </c>
+      <c r="J27" s="11"/>
+      <c r="K27" s="11"/>
+      <c r="L27" s="11"/>
+      <c r="M27" s="13">
+        <v>968486681</v>
       </c>
       <c r="N27" s="13">
         <v>1</v>
       </c>
-      <c r="O27" s="13" t="str">
-        <f>VLOOKUP([2]Empleados!M23,TURNOS,2)</f>
-        <v>MAÑANA</v>
-      </c>
-      <c r="P27" s="18"/>
-      <c r="Q27" s="18"/>
+      <c r="O27" s="13" t="s">
+        <v>412</v>
+      </c>
+      <c r="P27" s="18" t="s">
+        <v>630</v>
+      </c>
+      <c r="Q27" s="26" t="s">
+        <v>631</v>
+      </c>
       <c r="R27" s="13" t="s">
         <v>418</v>
       </c>
-      <c r="S27" s="13"/>
-      <c r="T27" s="13"/>
-      <c r="U27" s="13"/>
-      <c r="V27" s="18"/>
-      <c r="W27" s="18"/>
-      <c r="X27" s="18"/>
+      <c r="S27" s="13" t="s">
+        <v>408</v>
+      </c>
+      <c r="T27" s="13">
+        <v>2</v>
+      </c>
+      <c r="U27" s="13" t="s">
+        <v>632</v>
+      </c>
+      <c r="V27" s="13" t="s">
+        <v>426</v>
+      </c>
+      <c r="W27" s="28" t="s">
+        <v>633</v>
+      </c>
+      <c r="X27" s="13"/>
       <c r="Y27" s="13" t="s">
         <v>15</v>
       </c>
       <c r="Z27" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="AA27" s="13"/>
+      <c r="AA27" s="12" t="s">
+        <v>634</v>
+      </c>
       <c r="AB27" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>DIAZ ORTIZ GLADYS SUSANA</v>
+        <f>CONCATENATE(C27," ", D27)</f>
+        <v>MERCADO CUYA MAYBELYN</v>
       </c>
     </row>
     <row r="28" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="11" t="s">
-        <v>536</v>
+        <v>497</v>
       </c>
       <c r="B28" s="13">
         <v>1</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>537</v>
+        <v>498</v>
       </c>
       <c r="D28" s="11" t="s">
-        <v>184</v>
+        <v>85</v>
       </c>
       <c r="E28" s="24">
-        <v>36418</v>
+        <v>29229</v>
       </c>
       <c r="F28" s="25">
-        <v>74251412</v>
+        <v>40399288</v>
       </c>
       <c r="G28" s="13">
         <v>1</v>
@@ -25854,35 +25780,29 @@
         <v>Operaciones</v>
       </c>
       <c r="I28" s="24">
-        <v>44422</v>
+        <v>44411</v>
       </c>
       <c r="J28" s="24"/>
       <c r="K28" s="24"/>
       <c r="L28" s="24"/>
       <c r="M28" s="7">
-        <v>976964338</v>
+        <v>982253154</v>
       </c>
       <c r="N28" s="13">
         <v>1</v>
       </c>
       <c r="O28" s="13" t="str">
-        <f>VLOOKUP([2]Empleados!M25,TURNOS,2)</f>
+        <f>VLOOKUP([2]Empleados!M15,TURNOS,2)</f>
         <v>MAÑANA</v>
       </c>
       <c r="P28" s="18"/>
       <c r="Q28" s="18"/>
       <c r="R28" s="13" t="s">
-        <v>418</v>
-      </c>
-      <c r="S28" s="13" t="s">
-        <v>408</v>
-      </c>
-      <c r="T28" s="13">
-        <v>2</v>
-      </c>
-      <c r="U28" s="13" t="s">
-        <v>538</v>
-      </c>
+        <v>407</v>
+      </c>
+      <c r="S28" s="13"/>
+      <c r="T28" s="13"/>
+      <c r="U28" s="13"/>
       <c r="V28" s="18"/>
       <c r="W28" s="18"/>
       <c r="X28" s="18"/>
@@ -25894,8 +25814,8 @@
       </c>
       <c r="AA28" s="13"/>
       <c r="AB28" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>DIAZ SARMIENTO KAROLAY ESTHEFANY</v>
+        <f>CONCATENATE(C28," ", D28)</f>
+        <v>CARDENAS LAVAGGE PERCY ENRIQUE</v>
       </c>
     </row>
     <row r="29" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
@@ -25955,7 +25875,7 @@
       <c r="Z29" s="13"/>
       <c r="AA29" s="13"/>
       <c r="AB29" s="13" t="str">
-        <f t="shared" si="1"/>
+        <f>CONCATENATE(C29," ", D29)</f>
         <v>CHUMPITAZ ROMAN MARGARITA</v>
       </c>
     </row>
@@ -26028,24 +25948,24 @@
       <c r="Z30" s="13"/>
       <c r="AA30" s="13"/>
       <c r="AB30" s="13" t="str">
-        <f t="shared" si="1"/>
+        <f>CONCATENATE(C30," ", D30)</f>
         <v>COELO SINUIRI GUADALUPE</v>
       </c>
     </row>
-    <row r="31" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="11"/>
       <c r="B31" s="13"/>
-      <c r="C31" s="56" t="s">
-        <v>170</v>
+      <c r="C31" s="11" t="s">
+        <v>499</v>
       </c>
       <c r="D31" s="11" t="s">
-        <v>171</v>
+        <v>91</v>
       </c>
       <c r="E31" s="24">
-        <v>37040</v>
-      </c>
-      <c r="F31" s="76" t="s">
-        <v>745</v>
+        <v>34155</v>
+      </c>
+      <c r="F31" s="25" t="s">
+        <v>500</v>
       </c>
       <c r="G31" s="13">
         <v>1</v>
@@ -26054,13 +25974,13 @@
         <v>416</v>
       </c>
       <c r="I31" s="24">
-        <v>44680</v>
+        <v>44695</v>
       </c>
       <c r="J31" s="11"/>
       <c r="K31" s="11"/>
       <c r="L31" s="11"/>
       <c r="M31" s="13">
-        <v>982366868</v>
+        <v>933783765</v>
       </c>
       <c r="N31" s="13">
         <v>1</v>
@@ -26069,19 +25989,29 @@
         <v>412</v>
       </c>
       <c r="P31" s="18" t="s">
-        <v>746</v>
+        <v>501</v>
       </c>
       <c r="Q31" s="26" t="s">
-        <v>747</v>
+        <v>502</v>
       </c>
       <c r="R31" s="13" t="s">
         <v>418</v>
       </c>
-      <c r="S31" s="13"/>
-      <c r="T31" s="13"/>
-      <c r="U31" s="13"/>
-      <c r="V31" s="18"/>
-      <c r="W31" s="13"/>
+      <c r="S31" s="13" t="s">
+        <v>408</v>
+      </c>
+      <c r="T31" s="13">
+        <v>1</v>
+      </c>
+      <c r="U31" s="13">
+        <v>9</v>
+      </c>
+      <c r="V31" s="13" t="s">
+        <v>426</v>
+      </c>
+      <c r="W31" s="28" t="s">
+        <v>503</v>
+      </c>
       <c r="X31" s="13"/>
       <c r="Y31" s="13" t="s">
         <v>15</v>
@@ -26090,230 +26020,240 @@
         <v>15</v>
       </c>
       <c r="AA31" s="12" t="s">
-        <v>748</v>
+        <v>504</v>
       </c>
       <c r="AB31" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>TANTA CULQUI KATHERINE MARGOT</v>
-      </c>
-    </row>
-    <row r="32" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A32" s="11"/>
-      <c r="B32" s="13"/>
-      <c r="C32" s="56" t="s">
-        <v>174</v>
+        <f>CONCATENATE(C31," ", D31)</f>
+        <v>CASTRO CORTEZ CAROLYNE BEATRIZ</v>
+      </c>
+    </row>
+    <row r="32" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="11" t="s">
+        <v>505</v>
+      </c>
+      <c r="B32" s="13">
+        <v>1</v>
+      </c>
+      <c r="C32" s="11" t="s">
+        <v>44</v>
       </c>
       <c r="D32" s="11" t="s">
-        <v>175</v>
+        <v>45</v>
       </c>
       <c r="E32" s="24">
-        <v>35465</v>
-      </c>
-      <c r="F32" s="76" t="s">
-        <v>778</v>
+        <v>34424</v>
+      </c>
+      <c r="F32" s="25">
+        <v>70661512</v>
       </c>
       <c r="G32" s="13">
         <v>1</v>
       </c>
-      <c r="H32" s="11" t="s">
-        <v>416</v>
+      <c r="H32" s="11" t="str">
+        <f>VLOOKUP(G32,AREAS,2)</f>
+        <v>Operaciones</v>
       </c>
       <c r="I32" s="24">
-        <v>44677</v>
-      </c>
-      <c r="J32" s="11"/>
-      <c r="K32" s="11"/>
-      <c r="L32" s="11"/>
-      <c r="M32" s="13">
-        <v>974948812</v>
+        <v>44348</v>
+      </c>
+      <c r="J32" s="24"/>
+      <c r="K32" s="24"/>
+      <c r="L32" s="24"/>
+      <c r="M32" s="7">
+        <v>974243750</v>
       </c>
       <c r="N32" s="13">
         <v>1</v>
       </c>
-      <c r="O32" s="13" t="s">
-        <v>412</v>
-      </c>
-      <c r="P32" s="18" t="s">
-        <v>712</v>
-      </c>
-      <c r="Q32" s="26" t="s">
-        <v>713</v>
-      </c>
+      <c r="O32" s="13" t="str">
+        <f>VLOOKUP([2]Empleados!M18,TURNOS,2)</f>
+        <v>MAÑANA</v>
+      </c>
+      <c r="P32" s="18"/>
+      <c r="Q32" s="18"/>
       <c r="R32" s="13" t="s">
-        <v>407</v>
-      </c>
-      <c r="S32" s="13"/>
-      <c r="T32" s="13"/>
-      <c r="U32" s="13"/>
+        <v>418</v>
+      </c>
+      <c r="S32" s="13" t="s">
+        <v>408</v>
+      </c>
+      <c r="T32" s="13">
+        <v>1</v>
+      </c>
+      <c r="U32" s="13">
+        <v>4</v>
+      </c>
       <c r="V32" s="18"/>
-      <c r="W32" s="13"/>
-      <c r="X32" s="13"/>
+      <c r="W32" s="18"/>
+      <c r="X32" s="18"/>
       <c r="Y32" s="13" t="s">
         <v>15</v>
       </c>
       <c r="Z32" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="AA32" s="12" t="s">
-        <v>779</v>
-      </c>
+      <c r="AA32" s="13"/>
       <c r="AB32" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>VILCA MORENO ANTONY WILFREDO</v>
-      </c>
-    </row>
-    <row r="33" spans="1:28" x14ac:dyDescent="0.25">
+        <f>CONCATENATE(C32," ", D32)</f>
+        <v>CHINGUEL FACUNDO BRENDA</v>
+      </c>
+    </row>
+    <row r="33" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="11"/>
-      <c r="B33" s="13"/>
+      <c r="B33" s="13">
+        <v>1</v>
+      </c>
       <c r="C33" s="11" t="s">
-        <v>444</v>
+        <v>92</v>
       </c>
       <c r="D33" s="11" t="s">
-        <v>284</v>
+        <v>93</v>
       </c>
       <c r="E33" s="24">
-        <v>35727</v>
-      </c>
-      <c r="F33" s="76" t="s">
-        <v>445</v>
+        <v>28339</v>
+      </c>
+      <c r="F33" s="37" t="s">
+        <v>94</v>
       </c>
       <c r="G33" s="13">
         <v>1</v>
       </c>
-      <c r="H33" s="11" t="s">
-        <v>416</v>
+      <c r="H33" s="11" t="str">
+        <f>VLOOKUP(G33,AREAS,2)</f>
+        <v>Operaciones</v>
       </c>
       <c r="I33" s="24">
-        <v>44693</v>
+        <v>44586</v>
       </c>
       <c r="J33" s="11"/>
       <c r="K33" s="11"/>
       <c r="L33" s="11"/>
       <c r="M33" s="13">
-        <v>984189162</v>
+        <v>925006993</v>
       </c>
       <c r="N33" s="13">
         <v>1</v>
       </c>
-      <c r="O33" s="13" t="s">
+      <c r="O33" s="13" t="str">
+        <f>VLOOKUP([2]Empleados!M99,TURNOS,2)</f>
+        <v>MAÑANA</v>
+      </c>
+      <c r="P33" s="18" t="s">
+        <v>506</v>
+      </c>
+      <c r="Q33" s="26" t="s">
+        <v>507</v>
+      </c>
+      <c r="R33" s="13" t="s">
+        <v>418</v>
+      </c>
+      <c r="S33" s="13" t="s">
+        <v>408</v>
+      </c>
+      <c r="T33" s="13">
+        <v>2</v>
+      </c>
+      <c r="U33" s="13" t="s">
+        <v>508</v>
+      </c>
+      <c r="V33" s="18"/>
+      <c r="W33" s="18"/>
+      <c r="X33" s="18"/>
+      <c r="Y33" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="Z33" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="AA33" s="13"/>
+      <c r="AB33" s="13" t="str">
+        <f>CONCATENATE(C33," ", D33)</f>
+        <v>CHINO FLORES MARGARITA EDITH</v>
+      </c>
+    </row>
+    <row r="34" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="11"/>
+      <c r="B34" s="13"/>
+      <c r="C34" s="56" t="s">
+        <v>156</v>
+      </c>
+      <c r="D34" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="E34" s="24">
+        <v>37098</v>
+      </c>
+      <c r="F34" s="76" t="s">
+        <v>635</v>
+      </c>
+      <c r="G34" s="13">
+        <v>1</v>
+      </c>
+      <c r="H34" s="11" t="s">
+        <v>416</v>
+      </c>
+      <c r="I34" s="24">
+        <v>44680</v>
+      </c>
+      <c r="J34" s="11"/>
+      <c r="K34" s="39"/>
+      <c r="L34" s="39"/>
+      <c r="M34" s="13">
+        <v>967379468</v>
+      </c>
+      <c r="N34" s="13">
+        <v>1</v>
+      </c>
+      <c r="O34" s="13" t="s">
         <v>412</v>
       </c>
-      <c r="P33" s="18" t="s">
-        <v>446</v>
-      </c>
-      <c r="Q33" s="26" t="s">
-        <v>447</v>
-      </c>
-      <c r="R33" s="13" t="s">
-        <v>407</v>
-      </c>
-      <c r="S33" s="13"/>
-      <c r="T33" s="13"/>
-      <c r="U33" s="13"/>
-      <c r="V33" s="18"/>
-      <c r="W33" s="13"/>
-      <c r="X33" s="13"/>
-      <c r="Y33" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="Z33" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="AA33" s="12" t="s">
-        <v>448</v>
-      </c>
-      <c r="AB33" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>AYALA MONTES JORGE LUIS</v>
-      </c>
-    </row>
-    <row r="34" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="11" t="s">
-        <v>555</v>
-      </c>
-      <c r="B34" s="13">
-        <v>1</v>
-      </c>
-      <c r="C34" s="11" t="s">
-        <v>189</v>
-      </c>
-      <c r="D34" s="11" t="s">
-        <v>190</v>
-      </c>
-      <c r="E34" s="24">
-        <v>36703</v>
-      </c>
-      <c r="F34" s="25">
-        <v>75447318</v>
-      </c>
-      <c r="G34" s="13">
-        <v>1</v>
-      </c>
-      <c r="H34" s="11" t="str">
-        <f>VLOOKUP(G34,AREAS,2)</f>
-        <v>Operaciones</v>
-      </c>
-      <c r="I34" s="24">
-        <v>44491</v>
-      </c>
-      <c r="J34" s="24"/>
-      <c r="K34" s="40"/>
-      <c r="L34" s="40"/>
-      <c r="M34" s="7">
-        <v>932826338</v>
-      </c>
-      <c r="N34" s="13">
-        <v>1</v>
-      </c>
-      <c r="O34" s="13" t="str">
-        <f>VLOOKUP([2]Empleados!M28,TURNOS,2)</f>
-        <v>MAÑANA</v>
-      </c>
-      <c r="P34" s="18"/>
-      <c r="Q34" s="18"/>
+      <c r="P34" s="18" t="s">
+        <v>636</v>
+      </c>
+      <c r="Q34" s="26" t="s">
+        <v>637</v>
+      </c>
       <c r="R34" s="13" t="s">
         <v>418</v>
       </c>
-      <c r="S34" s="13" t="s">
-        <v>408</v>
-      </c>
-      <c r="T34" s="13">
-        <v>1</v>
-      </c>
-      <c r="U34" s="13">
-        <v>3</v>
-      </c>
+      <c r="S34" s="13"/>
+      <c r="T34" s="13"/>
+      <c r="U34" s="13"/>
       <c r="V34" s="18"/>
-      <c r="W34" s="18"/>
-      <c r="X34" s="18"/>
+      <c r="W34" s="13"/>
+      <c r="X34" s="13"/>
       <c r="Y34" s="13" t="s">
         <v>15</v>
       </c>
       <c r="Z34" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="AA34" s="13"/>
+      <c r="AA34" s="12" t="s">
+        <v>638</v>
+      </c>
       <c r="AB34" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>FLORES SOSA ANGIE DEL CIELO</v>
+        <f>CONCATENATE(C34," ", D34)</f>
+        <v>MEZA MALASQUEZ LISBETH PAULINA</v>
       </c>
     </row>
     <row r="35" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="11"/>
+      <c r="A35" s="11" t="s">
+        <v>515</v>
+      </c>
       <c r="B35" s="13">
         <v>1</v>
       </c>
       <c r="C35" s="11" t="s">
-        <v>291</v>
+        <v>111</v>
       </c>
       <c r="D35" s="11" t="s">
-        <v>292</v>
+        <v>83</v>
       </c>
       <c r="E35" s="24">
-        <v>36800</v>
+        <v>26576</v>
       </c>
       <c r="F35" s="25">
-        <v>76001423</v>
+        <v>41491172</v>
       </c>
       <c r="G35" s="13">
         <v>1</v>
@@ -26323,38 +26263,31 @@
         <v>Operaciones</v>
       </c>
       <c r="I35" s="24">
-        <v>44597</v>
-      </c>
-      <c r="J35" s="11"/>
-      <c r="K35" s="11"/>
-      <c r="L35" s="11"/>
-      <c r="M35" s="13">
-        <v>974652284</v>
+        <v>44519</v>
+      </c>
+      <c r="J35" s="24"/>
+      <c r="K35" s="24"/>
+      <c r="L35" s="24"/>
+      <c r="M35" s="7">
+        <v>910562904</v>
       </c>
       <c r="N35" s="13">
         <v>1</v>
       </c>
-      <c r="O35" s="13" t="s">
-        <v>412</v>
-      </c>
-      <c r="P35" s="18" t="s">
-        <v>560</v>
-      </c>
+      <c r="O35" s="13" t="str">
+        <f>VLOOKUP([2]Empleados!M21,TURNOS,2)</f>
+        <v>MAÑANA</v>
+      </c>
+      <c r="P35" s="18"/>
       <c r="Q35" s="26" t="s">
-        <v>561</v>
+        <v>516</v>
       </c>
       <c r="R35" s="13" t="s">
         <v>418</v>
       </c>
-      <c r="S35" s="13" t="s">
-        <v>408</v>
-      </c>
-      <c r="T35" s="13">
-        <v>1</v>
-      </c>
-      <c r="U35" s="13">
-        <v>3</v>
-      </c>
+      <c r="S35" s="13"/>
+      <c r="T35" s="13"/>
+      <c r="U35" s="13"/>
       <c r="V35" s="18"/>
       <c r="W35" s="18"/>
       <c r="X35" s="18"/>
@@ -26366,24 +26299,24 @@
       </c>
       <c r="AA35" s="13"/>
       <c r="AB35" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>GARCIA CARDOZO GIOVANA</v>
+        <f>CONCATENATE(C35," ", D35)</f>
+        <v>CONDORI LANDEO LUCY</v>
       </c>
     </row>
     <row r="36" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="11"/>
       <c r="B36" s="13"/>
-      <c r="C36" s="39" t="s">
-        <v>543</v>
+      <c r="C36" s="82" t="s">
+        <v>168</v>
       </c>
       <c r="D36" s="39" t="s">
-        <v>288</v>
+        <v>169</v>
       </c>
       <c r="E36" s="40">
-        <v>36848</v>
-      </c>
-      <c r="F36" s="41" t="s">
-        <v>544</v>
+        <v>35940</v>
+      </c>
+      <c r="F36" s="84" t="s">
+        <v>711</v>
       </c>
       <c r="G36" s="42">
         <v>1</v>
@@ -26392,13 +26325,13 @@
         <v>416</v>
       </c>
       <c r="I36" s="40">
-        <v>44693</v>
+        <v>44677</v>
       </c>
       <c r="J36" s="39"/>
       <c r="K36" s="39"/>
       <c r="L36" s="39"/>
       <c r="M36" s="42">
-        <v>923954793</v>
+        <v>955880534</v>
       </c>
       <c r="N36" s="42">
         <v>1</v>
@@ -26407,22 +26340,22 @@
         <v>412</v>
       </c>
       <c r="P36" s="44" t="s">
-        <v>545</v>
+        <v>712</v>
       </c>
       <c r="Q36" s="74" t="s">
-        <v>546</v>
+        <v>713</v>
       </c>
       <c r="R36" s="42" t="s">
-        <v>407</v>
+        <v>418</v>
       </c>
       <c r="S36" s="13"/>
       <c r="T36" s="13"/>
       <c r="U36" s="13"/>
-      <c r="V36" s="18" t="s">
+      <c r="V36" s="13" t="s">
         <v>426</v>
       </c>
       <c r="W36" s="28" t="s">
-        <v>547</v>
+        <v>714</v>
       </c>
       <c r="X36" s="13"/>
       <c r="Y36" s="13" t="s">
@@ -26432,11 +26365,11 @@
         <v>15</v>
       </c>
       <c r="AA36" s="12" t="s">
-        <v>548</v>
+        <v>715</v>
       </c>
       <c r="AB36" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>ESPINOZA RUBIO WILLY</v>
+        <f>CONCATENATE(C36," ", D36)</f>
+        <v>SEMINARIO JIMENEZ ANDREA</v>
       </c>
     </row>
     <row r="37" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
@@ -26445,31 +26378,32 @@
         <v>1</v>
       </c>
       <c r="C37" s="11" t="s">
-        <v>569</v>
+        <v>525</v>
       </c>
       <c r="D37" s="11" t="s">
-        <v>570</v>
+        <v>526</v>
       </c>
       <c r="E37" s="24">
-        <v>38037</v>
+        <v>34991</v>
       </c>
       <c r="F37" s="25" t="s">
-        <v>571</v>
+        <v>527</v>
       </c>
       <c r="G37" s="13">
         <v>1</v>
       </c>
-      <c r="H37" s="11" t="s">
-        <v>416</v>
+      <c r="H37" s="11" t="str">
+        <f>VLOOKUP(G37,AREAS,2)</f>
+        <v>Operaciones</v>
       </c>
       <c r="I37" s="24">
-        <v>44644</v>
+        <v>44649</v>
       </c>
       <c r="J37" s="11"/>
       <c r="K37" s="11"/>
       <c r="L37" s="11"/>
       <c r="M37" s="13">
-        <v>902477679</v>
+        <v>955350471</v>
       </c>
       <c r="N37" s="13">
         <v>1</v>
@@ -26478,10 +26412,10 @@
         <v>412</v>
       </c>
       <c r="P37" s="18" t="s">
-        <v>572</v>
+        <v>528</v>
       </c>
       <c r="Q37" s="26" t="s">
-        <v>573</v>
+        <v>529</v>
       </c>
       <c r="R37" s="13" t="s">
         <v>418</v>
@@ -26500,65 +26434,62 @@
       </c>
       <c r="AA37" s="13"/>
       <c r="AB37" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>GUTIERREZ LA ROSA KATLEHEN DANIELA</v>
+        <f>CONCATENATE(C37," ", D37)</f>
+        <v>DIAZ CORTEZ DANITZA KATHERINE</v>
       </c>
     </row>
     <row r="38" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="71" t="s">
+        <v>530</v>
+      </c>
       <c r="B38" s="13">
         <v>1</v>
       </c>
       <c r="C38" s="11" t="s">
-        <v>302</v>
+        <v>180</v>
       </c>
       <c r="D38" s="11" t="s">
-        <v>303</v>
+        <v>531</v>
       </c>
       <c r="E38" s="24">
-        <v>37584</v>
-      </c>
-      <c r="F38" s="25" t="s">
-        <v>580</v>
+        <v>35251</v>
+      </c>
+      <c r="F38" s="25">
+        <v>76371910</v>
       </c>
       <c r="G38" s="13">
         <v>1</v>
       </c>
-      <c r="H38" s="11" t="s">
-        <v>416</v>
+      <c r="H38" s="11" t="str">
+        <f>VLOOKUP(G38,AREAS,2)</f>
+        <v>Operaciones</v>
       </c>
       <c r="I38" s="24">
-        <v>44669</v>
-      </c>
-      <c r="J38" s="11"/>
-      <c r="K38" s="11"/>
-      <c r="L38" s="11"/>
-      <c r="M38" s="13">
-        <v>943693740</v>
+        <v>44498</v>
+      </c>
+      <c r="J38" s="24"/>
+      <c r="K38" s="24"/>
+      <c r="L38" s="24"/>
+      <c r="M38" s="7">
+        <v>934488000</v>
       </c>
       <c r="N38" s="13">
         <v>1</v>
       </c>
-      <c r="O38" s="13" t="s">
-        <v>412</v>
-      </c>
-      <c r="P38" s="18" t="s">
-        <v>581</v>
-      </c>
-      <c r="Q38" s="26" t="s">
-        <v>582</v>
-      </c>
+      <c r="O38" s="13" t="str">
+        <f>VLOOKUP([2]Empleados!M24,TURNOS,2)</f>
+        <v>MAÑANA</v>
+      </c>
+      <c r="P38" s="18"/>
+      <c r="Q38" s="18"/>
       <c r="R38" s="13" t="s">
-        <v>407</v>
+        <v>418</v>
       </c>
       <c r="S38" s="13"/>
       <c r="T38" s="13"/>
       <c r="U38" s="13"/>
-      <c r="V38" s="18" t="s">
-        <v>426</v>
-      </c>
-      <c r="W38" s="28" t="s">
-        <v>583</v>
-      </c>
+      <c r="V38" s="18"/>
+      <c r="W38" s="18"/>
       <c r="X38" s="18"/>
       <c r="Y38" s="13" t="s">
         <v>15</v>
@@ -26568,245 +26499,240 @@
       </c>
       <c r="AA38" s="13"/>
       <c r="AB38" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>HUAMALI VELASQUEZ DEYBI BRAYTON</v>
+        <f>CONCATENATE(C38," ", D38)</f>
+        <v>DIAZ HERRERA ROSITA</v>
       </c>
     </row>
     <row r="39" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="13"/>
+      <c r="A39" s="71" t="s">
+        <v>532</v>
+      </c>
+      <c r="B39" s="13">
+        <v>1</v>
+      </c>
       <c r="C39" s="11" t="s">
-        <v>150</v>
+        <v>533</v>
       </c>
       <c r="D39" s="11" t="s">
-        <v>151</v>
+        <v>534</v>
       </c>
       <c r="E39" s="24">
-        <v>36312</v>
-      </c>
-      <c r="F39" s="25" t="s">
-        <v>586</v>
+        <v>37453</v>
+      </c>
+      <c r="F39" s="25">
+        <v>76438151</v>
       </c>
       <c r="G39" s="13">
         <v>1</v>
       </c>
-      <c r="H39" s="11" t="s">
-        <v>416</v>
+      <c r="H39" s="11" t="str">
+        <f>VLOOKUP(G39,AREAS,2)</f>
+        <v>Operaciones</v>
       </c>
       <c r="I39" s="24">
-        <v>44677</v>
-      </c>
-      <c r="J39" s="11"/>
-      <c r="K39" s="11"/>
-      <c r="L39" s="11"/>
-      <c r="M39" s="13">
-        <v>991621567</v>
+        <v>44648</v>
+      </c>
+      <c r="J39" s="24"/>
+      <c r="K39" s="24"/>
+      <c r="L39" s="24"/>
+      <c r="M39" s="45" t="s">
+        <v>535</v>
       </c>
       <c r="N39" s="13">
         <v>1</v>
       </c>
-      <c r="O39" s="13" t="s">
-        <v>412</v>
-      </c>
-      <c r="P39" s="18" t="s">
-        <v>587</v>
-      </c>
-      <c r="Q39" s="26" t="s">
-        <v>588</v>
-      </c>
+      <c r="O39" s="13" t="str">
+        <f>VLOOKUP([2]Empleados!M23,TURNOS,2)</f>
+        <v>MAÑANA</v>
+      </c>
+      <c r="P39" s="18"/>
+      <c r="Q39" s="18"/>
       <c r="R39" s="13" t="s">
-        <v>407</v>
+        <v>418</v>
       </c>
       <c r="S39" s="13"/>
       <c r="T39" s="13"/>
       <c r="U39" s="13"/>
       <c r="V39" s="18"/>
-      <c r="W39" s="13"/>
-      <c r="X39" s="13"/>
+      <c r="W39" s="18"/>
+      <c r="X39" s="18"/>
       <c r="Y39" s="13" t="s">
         <v>15</v>
       </c>
       <c r="Z39" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="AA39" s="12" t="s">
-        <v>589</v>
-      </c>
+      <c r="AA39" s="13"/>
       <c r="AB39" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>INCHE ALMERCO DAVID RENZO</v>
-      </c>
-    </row>
-    <row r="40" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A40" s="71"/>
-      <c r="B40" s="13"/>
+        <f>CONCATENATE(C39," ", D39)</f>
+        <v>DIAZ ORTIZ GLADYS SUSANA</v>
+      </c>
+    </row>
+    <row r="40" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="71" t="s">
+        <v>536</v>
+      </c>
+      <c r="B40" s="13">
+        <v>1</v>
+      </c>
       <c r="C40" s="11" t="s">
-        <v>730</v>
+        <v>537</v>
       </c>
       <c r="D40" s="11" t="s">
-        <v>351</v>
+        <v>184</v>
       </c>
       <c r="E40" s="24">
-        <v>29540</v>
-      </c>
-      <c r="F40" s="76" t="s">
-        <v>731</v>
+        <v>36418</v>
+      </c>
+      <c r="F40" s="25">
+        <v>74251412</v>
       </c>
       <c r="G40" s="13">
         <v>1</v>
       </c>
-      <c r="H40" s="11" t="s">
-        <v>416</v>
+      <c r="H40" s="11" t="str">
+        <f>VLOOKUP(G40,AREAS,2)</f>
+        <v>Operaciones</v>
       </c>
       <c r="I40" s="24">
-        <v>44695</v>
-      </c>
-      <c r="J40" s="11"/>
-      <c r="K40" s="11"/>
-      <c r="L40" s="11"/>
-      <c r="M40" s="13">
-        <v>939304035</v>
+        <v>44422</v>
+      </c>
+      <c r="J40" s="24"/>
+      <c r="K40" s="24"/>
+      <c r="L40" s="24"/>
+      <c r="M40" s="7">
+        <v>976964338</v>
       </c>
       <c r="N40" s="13">
         <v>1</v>
       </c>
-      <c r="O40" s="13" t="s">
-        <v>412</v>
-      </c>
-      <c r="P40" s="18" t="s">
-        <v>732</v>
-      </c>
-      <c r="Q40" s="26" t="s">
-        <v>733</v>
-      </c>
+      <c r="O40" s="13" t="str">
+        <f>VLOOKUP([2]Empleados!M25,TURNOS,2)</f>
+        <v>MAÑANA</v>
+      </c>
+      <c r="P40" s="18"/>
+      <c r="Q40" s="18"/>
       <c r="R40" s="13" t="s">
         <v>418</v>
       </c>
-      <c r="S40" s="13"/>
-      <c r="T40" s="13"/>
-      <c r="U40" s="13"/>
-      <c r="V40" s="13" t="s">
-        <v>426</v>
-      </c>
-      <c r="W40" s="28" t="s">
-        <v>734</v>
-      </c>
-      <c r="X40" s="13"/>
+      <c r="S40" s="13" t="s">
+        <v>408</v>
+      </c>
+      <c r="T40" s="13">
+        <v>2</v>
+      </c>
+      <c r="U40" s="13" t="s">
+        <v>538</v>
+      </c>
+      <c r="V40" s="18"/>
+      <c r="W40" s="18"/>
+      <c r="X40" s="18"/>
       <c r="Y40" s="13" t="s">
         <v>15</v>
       </c>
       <c r="Z40" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="AA40" s="12" t="s">
-        <v>735</v>
-      </c>
+      <c r="AA40" s="13"/>
       <c r="AB40" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>SOLIS SIMON ESTHER MARLENE</v>
+        <f>CONCATENATE(C40," ", D40)</f>
+        <v>DIAZ SARMIENTO KAROLAY ESTHEFANY</v>
       </c>
     </row>
     <row r="41" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="46" t="s">
-        <v>599</v>
-      </c>
-      <c r="B41" s="13">
-        <v>1</v>
-      </c>
-      <c r="C41" s="11" t="s">
-        <v>304</v>
+      <c r="A41" s="71"/>
+      <c r="B41" s="13"/>
+      <c r="C41" s="56" t="s">
+        <v>170</v>
       </c>
       <c r="D41" s="11" t="s">
-        <v>600</v>
+        <v>171</v>
       </c>
       <c r="E41" s="24">
-        <v>35366</v>
-      </c>
-      <c r="F41" s="25">
-        <v>72420619</v>
+        <v>37040</v>
+      </c>
+      <c r="F41" s="76" t="s">
+        <v>745</v>
       </c>
       <c r="G41" s="13">
         <v>1</v>
       </c>
-      <c r="H41" s="11" t="str">
-        <f>VLOOKUP(G41,AREAS,2)</f>
-        <v>Operaciones</v>
+      <c r="H41" s="11" t="s">
+        <v>416</v>
       </c>
       <c r="I41" s="24">
-        <v>44559</v>
-      </c>
-      <c r="J41" s="24"/>
-      <c r="K41" s="24"/>
-      <c r="L41" s="24"/>
-      <c r="M41" s="45" t="s">
-        <v>601</v>
+        <v>44680</v>
+      </c>
+      <c r="J41" s="11"/>
+      <c r="K41" s="11"/>
+      <c r="L41" s="11"/>
+      <c r="M41" s="13">
+        <v>982366868</v>
       </c>
       <c r="N41" s="13">
         <v>1</v>
       </c>
-      <c r="O41" s="13" t="str">
-        <f>VLOOKUP([2]Empleados!M42,TURNOS,2)</f>
-        <v>MAÑANA</v>
-      </c>
-      <c r="P41" s="18"/>
-      <c r="Q41" s="18"/>
+      <c r="O41" s="13" t="s">
+        <v>412</v>
+      </c>
+      <c r="P41" s="18" t="s">
+        <v>746</v>
+      </c>
+      <c r="Q41" s="26" t="s">
+        <v>747</v>
+      </c>
       <c r="R41" s="13" t="s">
         <v>418</v>
       </c>
-      <c r="S41" s="13" t="s">
-        <v>408</v>
-      </c>
-      <c r="T41" s="13">
-        <v>2</v>
-      </c>
-      <c r="U41" s="13" t="s">
-        <v>602</v>
-      </c>
+      <c r="S41" s="13"/>
+      <c r="T41" s="13"/>
+      <c r="U41" s="13"/>
       <c r="V41" s="18"/>
-      <c r="W41" s="18"/>
-      <c r="X41" s="18"/>
+      <c r="W41" s="13"/>
+      <c r="X41" s="13"/>
       <c r="Y41" s="13" t="s">
         <v>15</v>
       </c>
       <c r="Z41" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="AA41" s="13"/>
+      <c r="AA41" s="12" t="s">
+        <v>748</v>
+      </c>
       <c r="AB41" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>LOPEZ AQUITUARI JHOYS EBELYN</v>
+        <f>CONCATENATE(C41," ", D41)</f>
+        <v>TANTA CULQUI KATHERINE MARGOT</v>
       </c>
     </row>
     <row r="42" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="13">
-        <v>1</v>
-      </c>
-      <c r="C42" s="11" t="s">
-        <v>603</v>
+      <c r="A42" s="71"/>
+      <c r="B42" s="13"/>
+      <c r="C42" s="56" t="s">
+        <v>174</v>
       </c>
       <c r="D42" s="11" t="s">
-        <v>604</v>
+        <v>175</v>
       </c>
       <c r="E42" s="24">
-        <v>34791</v>
-      </c>
-      <c r="F42" s="25" t="s">
-        <v>605</v>
+        <v>35465</v>
+      </c>
+      <c r="F42" s="76" t="s">
+        <v>778</v>
       </c>
       <c r="G42" s="13">
         <v>1</v>
       </c>
-      <c r="H42" s="11" t="str">
-        <f>VLOOKUP(G42,AREAS,2)</f>
-        <v>Operaciones</v>
+      <c r="H42" s="11" t="s">
+        <v>416</v>
       </c>
       <c r="I42" s="24">
-        <v>44649</v>
+        <v>44677</v>
       </c>
       <c r="J42" s="11"/>
       <c r="K42" s="11"/>
       <c r="L42" s="11"/>
       <c r="M42" s="13">
-        <v>930658467</v>
+        <v>974948812</v>
       </c>
       <c r="N42" s="13">
         <v>1</v>
@@ -26815,45 +26741,48 @@
         <v>412</v>
       </c>
       <c r="P42" s="18" t="s">
-        <v>528</v>
-      </c>
-      <c r="Q42" s="47" t="s">
-        <v>606</v>
+        <v>712</v>
+      </c>
+      <c r="Q42" s="26" t="s">
+        <v>713</v>
       </c>
       <c r="R42" s="13" t="s">
-        <v>418</v>
+        <v>407</v>
       </c>
       <c r="S42" s="13"/>
       <c r="T42" s="13"/>
       <c r="U42" s="13"/>
       <c r="V42" s="18"/>
-      <c r="W42" s="18"/>
-      <c r="X42" s="18"/>
+      <c r="W42" s="13"/>
+      <c r="X42" s="13"/>
       <c r="Y42" s="13" t="s">
         <v>15</v>
       </c>
       <c r="Z42" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="AA42" s="13"/>
+      <c r="AA42" s="12" t="s">
+        <v>779</v>
+      </c>
       <c r="AB42" s="13" t="str">
-        <f t="shared" ref="AB42:AB73" si="2">CONCATENATE(C42," ", D42)</f>
-        <v>LUNA SOCOLA LUCIA GERALDINE</v>
+        <f>CONCATENATE(C42," ", D42)</f>
+        <v>VILCA MORENO ANTONY WILFREDO</v>
       </c>
     </row>
     <row r="43" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="71"/>
       <c r="B43" s="72"/>
       <c r="C43" s="11" t="s">
-        <v>615</v>
+        <v>444</v>
       </c>
       <c r="D43" s="11" t="s">
         <v>284</v>
       </c>
       <c r="E43" s="24">
-        <v>35139</v>
-      </c>
-      <c r="F43" s="25" t="s">
-        <v>616</v>
+        <v>35727</v>
+      </c>
+      <c r="F43" s="76" t="s">
+        <v>445</v>
       </c>
       <c r="G43" s="13">
         <v>1</v>
@@ -26862,13 +26791,13 @@
         <v>416</v>
       </c>
       <c r="I43" s="24">
-        <v>44695</v>
+        <v>44693</v>
       </c>
       <c r="J43" s="11"/>
       <c r="K43" s="11"/>
       <c r="L43" s="11"/>
       <c r="M43" s="13">
-        <v>912649403</v>
+        <v>984189162</v>
       </c>
       <c r="N43" s="13">
         <v>1</v>
@@ -26877,29 +26806,19 @@
         <v>412</v>
       </c>
       <c r="P43" s="18" t="s">
-        <v>501</v>
+        <v>446</v>
       </c>
       <c r="Q43" s="26" t="s">
-        <v>617</v>
+        <v>447</v>
       </c>
       <c r="R43" s="13" t="s">
         <v>407</v>
       </c>
-      <c r="S43" s="13" t="s">
-        <v>408</v>
-      </c>
-      <c r="T43" s="13">
-        <v>1</v>
-      </c>
-      <c r="U43" s="13">
-        <v>9</v>
-      </c>
-      <c r="V43" s="13" t="s">
-        <v>426</v>
-      </c>
-      <c r="W43" s="28" t="s">
-        <v>618</v>
-      </c>
+      <c r="S43" s="13"/>
+      <c r="T43" s="13"/>
+      <c r="U43" s="13"/>
+      <c r="V43" s="18"/>
+      <c r="W43" s="13"/>
       <c r="X43" s="13"/>
       <c r="Y43" s="13" t="s">
         <v>15</v>
@@ -26908,56 +26827,57 @@
         <v>15</v>
       </c>
       <c r="AA43" s="12" t="s">
-        <v>619</v>
+        <v>448</v>
       </c>
       <c r="AB43" s="13" t="str">
-        <f t="shared" si="2"/>
-        <v>MALASQUEZ ZEÑA JORGE LUIS</v>
+        <f>CONCATENATE(C43," ", D43)</f>
+        <v>AYALA MONTES JORGE LUIS</v>
       </c>
     </row>
     <row r="44" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="71" t="s">
+        <v>555</v>
+      </c>
       <c r="B44" s="13">
         <v>1</v>
       </c>
       <c r="C44" s="11" t="s">
-        <v>314</v>
+        <v>189</v>
       </c>
       <c r="D44" s="11" t="s">
-        <v>315</v>
+        <v>190</v>
       </c>
       <c r="E44" s="24">
-        <v>27659</v>
-      </c>
-      <c r="F44" s="25" t="s">
-        <v>621</v>
+        <v>36703</v>
+      </c>
+      <c r="F44" s="25">
+        <v>75447318</v>
       </c>
       <c r="G44" s="13">
         <v>1</v>
       </c>
-      <c r="H44" s="11" t="s">
-        <v>416</v>
+      <c r="H44" s="11" t="str">
+        <f>VLOOKUP(G44,AREAS,2)</f>
+        <v>Operaciones</v>
       </c>
       <c r="I44" s="24">
-        <v>44671</v>
-      </c>
-      <c r="J44" s="11"/>
-      <c r="K44" s="11"/>
-      <c r="L44" s="11"/>
-      <c r="M44" s="13">
-        <v>902873073</v>
+        <v>44491</v>
+      </c>
+      <c r="J44" s="24"/>
+      <c r="K44" s="24"/>
+      <c r="L44" s="24"/>
+      <c r="M44" s="7">
+        <v>932826338</v>
       </c>
       <c r="N44" s="13">
         <v>1</v>
       </c>
-      <c r="O44" s="13" t="s">
-        <v>412</v>
-      </c>
-      <c r="P44" s="18" t="s">
-        <v>622</v>
-      </c>
-      <c r="Q44" s="26" t="s">
-        <v>623</v>
-      </c>
+      <c r="O44" s="13" t="str">
+        <f>VLOOKUP([2]Empleados!M28,TURNOS,2)</f>
+        <v>MAÑANA</v>
+      </c>
+      <c r="P44" s="18"/>
+      <c r="Q44" s="18"/>
       <c r="R44" s="13" t="s">
         <v>418</v>
       </c>
@@ -26968,10 +26888,10 @@
         <v>1</v>
       </c>
       <c r="U44" s="13">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="V44" s="18"/>
-      <c r="W44" s="13"/>
+      <c r="W44" s="18"/>
       <c r="X44" s="18"/>
       <c r="Y44" s="13" t="s">
         <v>15</v>
@@ -26981,28 +26901,26 @@
       </c>
       <c r="AA44" s="13"/>
       <c r="AB44" s="13" t="str">
-        <f t="shared" si="2"/>
-        <v>MASSA MONJA CLAUDIA CECILIA</v>
+        <f>CONCATENATE(C44," ", D44)</f>
+        <v>FLORES SOSA ANGIE DEL CIELO</v>
       </c>
     </row>
     <row r="45" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="46" t="s">
-        <v>627</v>
-      </c>
+      <c r="A45" s="71"/>
       <c r="B45" s="13">
         <v>1</v>
       </c>
       <c r="C45" s="11" t="s">
-        <v>628</v>
+        <v>291</v>
       </c>
       <c r="D45" s="11" t="s">
-        <v>215</v>
+        <v>292</v>
       </c>
       <c r="E45" s="24">
-        <v>35678</v>
+        <v>36800</v>
       </c>
       <c r="F45" s="25">
-        <v>75325472</v>
+        <v>76001423</v>
       </c>
       <c r="G45" s="13">
         <v>1</v>
@@ -27012,29 +26930,38 @@
         <v>Operaciones</v>
       </c>
       <c r="I45" s="24">
-        <v>44476</v>
-      </c>
-      <c r="J45" s="24"/>
-      <c r="K45" s="24"/>
-      <c r="L45" s="24"/>
+        <v>44597</v>
+      </c>
+      <c r="J45" s="11"/>
+      <c r="K45" s="11"/>
+      <c r="L45" s="11"/>
       <c r="M45" s="13">
-        <v>929332633</v>
+        <v>974652284</v>
       </c>
       <c r="N45" s="13">
         <v>1</v>
       </c>
-      <c r="O45" s="13" t="str">
-        <f>VLOOKUP([2]Empleados!M45,TURNOS,2)</f>
-        <v>MAÑANA</v>
-      </c>
-      <c r="P45" s="18"/>
-      <c r="Q45" s="18"/>
+      <c r="O45" s="13" t="s">
+        <v>412</v>
+      </c>
+      <c r="P45" s="18" t="s">
+        <v>560</v>
+      </c>
+      <c r="Q45" s="26" t="s">
+        <v>561</v>
+      </c>
       <c r="R45" s="13" t="s">
         <v>418</v>
       </c>
-      <c r="S45" s="13"/>
-      <c r="T45" s="13"/>
-      <c r="U45" s="13"/>
+      <c r="S45" s="13" t="s">
+        <v>408</v>
+      </c>
+      <c r="T45" s="13">
+        <v>1</v>
+      </c>
+      <c r="U45" s="13">
+        <v>3</v>
+      </c>
       <c r="V45" s="18"/>
       <c r="W45" s="18"/>
       <c r="X45" s="18"/>
@@ -27046,24 +26973,24 @@
       </c>
       <c r="AA45" s="13"/>
       <c r="AB45" s="13" t="str">
-        <f t="shared" si="2"/>
-        <v>MELO GARCIA PAMELA RUBI</v>
-      </c>
-    </row>
-    <row r="46" spans="1:28" x14ac:dyDescent="0.25">
+        <f>CONCATENATE(C45," ", D45)</f>
+        <v>GARCIA CARDOZO GIOVANA</v>
+      </c>
+    </row>
+    <row r="46" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="71"/>
       <c r="B46" s="13"/>
       <c r="C46" s="11" t="s">
-        <v>749</v>
+        <v>543</v>
       </c>
       <c r="D46" s="11" t="s">
-        <v>355</v>
+        <v>288</v>
       </c>
       <c r="E46" s="24">
-        <v>36457</v>
-      </c>
-      <c r="F46" s="76" t="s">
-        <v>750</v>
+        <v>36848</v>
+      </c>
+      <c r="F46" s="25" t="s">
+        <v>544</v>
       </c>
       <c r="G46" s="13">
         <v>1</v>
@@ -27072,13 +26999,13 @@
         <v>416</v>
       </c>
       <c r="I46" s="24">
-        <v>44695</v>
+        <v>44693</v>
       </c>
       <c r="J46" s="11"/>
       <c r="K46" s="11"/>
       <c r="L46" s="11"/>
       <c r="M46" s="13">
-        <v>917998191</v>
+        <v>923954793</v>
       </c>
       <c r="N46" s="13">
         <v>1</v>
@@ -27087,25 +27014,23 @@
         <v>412</v>
       </c>
       <c r="P46" s="18" t="s">
-        <v>732</v>
+        <v>545</v>
       </c>
       <c r="Q46" s="26" t="s">
-        <v>751</v>
+        <v>546</v>
       </c>
       <c r="R46" s="13" t="s">
-        <v>418</v>
-      </c>
-      <c r="S46" s="13" t="s">
-        <v>408</v>
-      </c>
-      <c r="T46" s="13">
-        <v>1</v>
-      </c>
-      <c r="U46" s="13">
-        <v>2</v>
-      </c>
-      <c r="V46" s="13"/>
-      <c r="W46" s="13"/>
+        <v>407</v>
+      </c>
+      <c r="S46" s="13"/>
+      <c r="T46" s="13"/>
+      <c r="U46" s="13"/>
+      <c r="V46" s="18" t="s">
+        <v>426</v>
+      </c>
+      <c r="W46" s="28" t="s">
+        <v>547</v>
+      </c>
       <c r="X46" s="13"/>
       <c r="Y46" s="13" t="s">
         <v>15</v>
@@ -27114,27 +27039,29 @@
         <v>15</v>
       </c>
       <c r="AA46" s="12" t="s">
-        <v>752</v>
+        <v>548</v>
       </c>
       <c r="AB46" s="13" t="str">
-        <f t="shared" si="2"/>
-        <v>TAQUIRI SOLIS ASHLY DAYAN</v>
-      </c>
-    </row>
-    <row r="47" spans="1:28" x14ac:dyDescent="0.25">
+        <f>CONCATENATE(C46," ", D46)</f>
+        <v>ESPINOZA RUBIO WILLY</v>
+      </c>
+    </row>
+    <row r="47" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="71"/>
-      <c r="B47" s="72"/>
+      <c r="B47" s="72">
+        <v>1</v>
+      </c>
       <c r="C47" s="11" t="s">
-        <v>517</v>
+        <v>569</v>
       </c>
       <c r="D47" s="11" t="s">
-        <v>118</v>
+        <v>570</v>
       </c>
       <c r="E47" s="24">
-        <v>37386</v>
-      </c>
-      <c r="F47" s="76" t="s">
-        <v>518</v>
+        <v>38037</v>
+      </c>
+      <c r="F47" s="25" t="s">
+        <v>571</v>
       </c>
       <c r="G47" s="13">
         <v>1</v>
@@ -27143,13 +27070,13 @@
         <v>416</v>
       </c>
       <c r="I47" s="24">
-        <v>44698</v>
+        <v>44644</v>
       </c>
       <c r="J47" s="11"/>
       <c r="K47" s="11"/>
       <c r="L47" s="11"/>
       <c r="M47" s="13">
-        <v>989544830</v>
+        <v>902477679</v>
       </c>
       <c r="N47" s="13">
         <v>1</v>
@@ -27158,38 +27085,30 @@
         <v>412</v>
       </c>
       <c r="P47" s="18" t="s">
-        <v>519</v>
+        <v>572</v>
       </c>
       <c r="Q47" s="26" t="s">
-        <v>520</v>
+        <v>573</v>
       </c>
       <c r="R47" s="13" t="s">
         <v>418</v>
       </c>
-      <c r="S47" s="13" t="s">
-        <v>408</v>
-      </c>
-      <c r="T47" s="13">
-        <v>1</v>
-      </c>
-      <c r="U47" s="13">
-        <v>1</v>
-      </c>
-      <c r="V47" s="13"/>
-      <c r="W47" s="13"/>
-      <c r="X47" s="13"/>
+      <c r="S47" s="13"/>
+      <c r="T47" s="13"/>
+      <c r="U47" s="13"/>
+      <c r="V47" s="18"/>
+      <c r="W47" s="18"/>
+      <c r="X47" s="18"/>
       <c r="Y47" s="13" t="s">
         <v>15</v>
       </c>
       <c r="Z47" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="AA47" s="12" t="s">
-        <v>521</v>
-      </c>
+      <c r="AA47" s="13"/>
       <c r="AB47" s="13" t="str">
-        <f t="shared" si="2"/>
-        <v>CUYA CHAMORRO BRISA DANA</v>
+        <f>CONCATENATE(C47," ", D47)</f>
+        <v>GUTIERREZ LA ROSA KATLEHEN DANIELA</v>
       </c>
     </row>
     <row r="48" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
@@ -27197,16 +27116,16 @@
         <v>1</v>
       </c>
       <c r="C48" s="11" t="s">
-        <v>317</v>
+        <v>302</v>
       </c>
       <c r="D48" s="11" t="s">
-        <v>318</v>
+        <v>303</v>
       </c>
       <c r="E48" s="24">
-        <v>36472</v>
-      </c>
-      <c r="F48" s="11">
-        <v>78257845</v>
+        <v>37584</v>
+      </c>
+      <c r="F48" s="25" t="s">
+        <v>580</v>
       </c>
       <c r="G48" s="13">
         <v>1</v>
@@ -27215,13 +27134,13 @@
         <v>416</v>
       </c>
       <c r="I48" s="24">
-        <v>44623</v>
+        <v>44669</v>
       </c>
       <c r="J48" s="11"/>
       <c r="K48" s="11"/>
       <c r="L48" s="11"/>
       <c r="M48" s="13">
-        <v>933358406</v>
+        <v>943693740</v>
       </c>
       <c r="N48" s="13">
         <v>1</v>
@@ -27230,25 +27149,23 @@
         <v>412</v>
       </c>
       <c r="P48" s="18" t="s">
-        <v>641</v>
+        <v>581</v>
       </c>
       <c r="Q48" s="26" t="s">
-        <v>642</v>
+        <v>582</v>
       </c>
       <c r="R48" s="13" t="s">
-        <v>418</v>
-      </c>
-      <c r="S48" s="13" t="s">
-        <v>408</v>
-      </c>
-      <c r="T48" s="13">
-        <v>1</v>
-      </c>
-      <c r="U48" s="13">
-        <v>2</v>
-      </c>
-      <c r="V48" s="18"/>
-      <c r="W48" s="18"/>
+        <v>407</v>
+      </c>
+      <c r="S48" s="13"/>
+      <c r="T48" s="13"/>
+      <c r="U48" s="13"/>
+      <c r="V48" s="18" t="s">
+        <v>426</v>
+      </c>
+      <c r="W48" s="28" t="s">
+        <v>583</v>
+      </c>
       <c r="X48" s="18"/>
       <c r="Y48" s="13" t="s">
         <v>15</v>
@@ -27258,8 +27175,8 @@
       </c>
       <c r="AA48" s="13"/>
       <c r="AB48" s="13" t="str">
-        <f t="shared" si="2"/>
-        <v>MURAYARI CUMAPA LUZ CLARITA</v>
+        <f>CONCATENATE(C48," ", D48)</f>
+        <v>HUAMALI VELASQUEZ DEYBI BRAYTON</v>
       </c>
     </row>
     <row r="49" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
@@ -27320,7 +27237,7 @@
       <c r="Z49" s="13"/>
       <c r="AA49" s="13"/>
       <c r="AB49" s="13" t="str">
-        <f t="shared" si="2"/>
+        <f>CONCATENATE(C49," ", D49)</f>
         <v>HUACCHA RAMOS JEANET ROXANA</v>
       </c>
     </row>
@@ -27382,79 +27299,72 @@
       <c r="Z50" s="13"/>
       <c r="AA50" s="13"/>
       <c r="AB50" s="13" t="str">
-        <f t="shared" si="2"/>
+        <f>CONCATENATE(C50," ", D50)</f>
         <v>HUACCHA RAMOS JHORDY GERARDO</v>
       </c>
     </row>
     <row r="51" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="46" t="s">
-        <v>643</v>
-      </c>
-      <c r="B51" s="13">
-        <v>1</v>
-      </c>
+      <c r="B51" s="13"/>
       <c r="C51" s="11" t="s">
-        <v>644</v>
+        <v>150</v>
       </c>
       <c r="D51" s="11" t="s">
-        <v>221</v>
+        <v>151</v>
       </c>
       <c r="E51" s="24">
-        <v>29859</v>
-      </c>
-      <c r="F51" s="25">
-        <v>42403148</v>
+        <v>36312</v>
+      </c>
+      <c r="F51" s="25" t="s">
+        <v>586</v>
       </c>
       <c r="G51" s="13">
         <v>1</v>
       </c>
-      <c r="H51" s="11" t="str">
-        <f>VLOOKUP(G51,AREAS,2)</f>
-        <v>Operaciones</v>
+      <c r="H51" s="11" t="s">
+        <v>416</v>
       </c>
       <c r="I51" s="24">
-        <v>44417</v>
-      </c>
-      <c r="J51" s="24"/>
-      <c r="K51" s="24"/>
-      <c r="L51" s="24"/>
-      <c r="M51" s="7">
-        <v>993255301</v>
+        <v>44677</v>
+      </c>
+      <c r="J51" s="11"/>
+      <c r="K51" s="11"/>
+      <c r="L51" s="11"/>
+      <c r="M51" s="13">
+        <v>991621567</v>
       </c>
       <c r="N51" s="13">
         <v>1</v>
       </c>
-      <c r="O51" s="13" t="str">
-        <f>VLOOKUP([2]Empleados!M49,TURNOS,2)</f>
-        <v>MAÑANA</v>
-      </c>
-      <c r="P51" s="18"/>
-      <c r="Q51" s="18"/>
+      <c r="O51" s="13" t="s">
+        <v>412</v>
+      </c>
+      <c r="P51" s="18" t="s">
+        <v>587</v>
+      </c>
+      <c r="Q51" s="26" t="s">
+        <v>588</v>
+      </c>
       <c r="R51" s="13" t="s">
-        <v>418</v>
-      </c>
-      <c r="S51" s="13" t="s">
-        <v>408</v>
-      </c>
-      <c r="T51" s="13">
-        <v>2</v>
-      </c>
-      <c r="U51" s="13" t="s">
-        <v>645</v>
-      </c>
+        <v>407</v>
+      </c>
+      <c r="S51" s="13"/>
+      <c r="T51" s="13"/>
+      <c r="U51" s="13"/>
       <c r="V51" s="18"/>
-      <c r="W51" s="18"/>
-      <c r="X51" s="18"/>
+      <c r="W51" s="13"/>
+      <c r="X51" s="13"/>
       <c r="Y51" s="13" t="s">
         <v>15</v>
       </c>
       <c r="Z51" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="AA51" s="13"/>
+      <c r="AA51" s="12" t="s">
+        <v>589</v>
+      </c>
       <c r="AB51" s="13" t="str">
-        <f t="shared" si="2"/>
-        <v>NUÑEZ LAREDO ELVA ADELINA</v>
+        <f>CONCATENATE(C51," ", D51)</f>
+        <v>INCHE ALMERCO DAVID RENZO</v>
       </c>
     </row>
     <row r="52" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
@@ -27518,93 +27428,97 @@
       <c r="Z52" s="13"/>
       <c r="AA52" s="13"/>
       <c r="AB52" s="13" t="str">
-        <f t="shared" si="2"/>
+        <f>CONCATENATE(C52," ", D52)</f>
         <v>HUAMAN COSME RICARDO ANDRE</v>
       </c>
     </row>
     <row r="53" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="46" t="s">
-        <v>646</v>
-      </c>
-      <c r="B53" s="13">
-        <v>1</v>
-      </c>
+      <c r="A53" s="71"/>
+      <c r="B53" s="13"/>
       <c r="C53" s="11" t="s">
-        <v>647</v>
+        <v>730</v>
       </c>
       <c r="D53" s="11" t="s">
-        <v>648</v>
+        <v>351</v>
       </c>
       <c r="E53" s="24">
-        <v>33361</v>
-      </c>
-      <c r="F53" s="49" t="s">
-        <v>225</v>
+        <v>29540</v>
+      </c>
+      <c r="F53" s="76" t="s">
+        <v>731</v>
       </c>
       <c r="G53" s="13">
         <v>1</v>
       </c>
-      <c r="H53" s="11" t="str">
-        <f>VLOOKUP(G53,AREAS,2)</f>
-        <v>Operaciones</v>
+      <c r="H53" s="11" t="s">
+        <v>416</v>
       </c>
       <c r="I53" s="24">
-        <v>44397</v>
-      </c>
-      <c r="J53" s="24"/>
-      <c r="K53" s="24"/>
-      <c r="L53" s="24"/>
-      <c r="M53" s="7" t="s">
-        <v>649</v>
+        <v>44695</v>
+      </c>
+      <c r="J53" s="11"/>
+      <c r="K53" s="11"/>
+      <c r="L53" s="11"/>
+      <c r="M53" s="13">
+        <v>939304035</v>
       </c>
       <c r="N53" s="13">
         <v>1</v>
       </c>
-      <c r="O53" s="13" t="str">
-        <f>VLOOKUP([2]Empleados!M50,TURNOS,2)</f>
-        <v>MAÑANA</v>
-      </c>
-      <c r="P53" s="18"/>
-      <c r="Q53" s="18"/>
+      <c r="O53" s="13" t="s">
+        <v>412</v>
+      </c>
+      <c r="P53" s="18" t="s">
+        <v>732</v>
+      </c>
+      <c r="Q53" s="26" t="s">
+        <v>733</v>
+      </c>
       <c r="R53" s="13" t="s">
-        <v>407</v>
+        <v>418</v>
       </c>
       <c r="S53" s="13"/>
       <c r="T53" s="13"/>
       <c r="U53" s="13"/>
-      <c r="V53" s="18"/>
-      <c r="W53" s="18"/>
-      <c r="X53" s="18"/>
+      <c r="V53" s="13" t="s">
+        <v>426</v>
+      </c>
+      <c r="W53" s="28" t="s">
+        <v>734</v>
+      </c>
+      <c r="X53" s="13"/>
       <c r="Y53" s="13" t="s">
         <v>15</v>
       </c>
       <c r="Z53" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="AA53" s="13"/>
+      <c r="AA53" s="12" t="s">
+        <v>735</v>
+      </c>
       <c r="AB53" s="13" t="str">
-        <f t="shared" si="2"/>
-        <v>OLIVO AZOCAR ROGER</v>
+        <f>CONCATENATE(C53," ", D53)</f>
+        <v>SOLIS SIMON ESTHER MARLENE</v>
       </c>
     </row>
     <row r="54" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="46" t="s">
-        <v>652</v>
-      </c>
-      <c r="B54" s="1">
+        <v>599</v>
+      </c>
+      <c r="B54" s="72">
         <v>1</v>
       </c>
       <c r="C54" s="11" t="s">
-        <v>653</v>
+        <v>304</v>
       </c>
       <c r="D54" s="11" t="s">
-        <v>227</v>
+        <v>600</v>
       </c>
       <c r="E54" s="24">
-        <v>35263</v>
+        <v>35366</v>
       </c>
       <c r="F54" s="25">
-        <v>73525961</v>
+        <v>72420619</v>
       </c>
       <c r="G54" s="13">
         <v>1</v>
@@ -27614,19 +27528,19 @@
         <v>Operaciones</v>
       </c>
       <c r="I54" s="24">
-        <v>44348</v>
+        <v>44559</v>
       </c>
       <c r="J54" s="24"/>
       <c r="K54" s="24"/>
       <c r="L54" s="24"/>
-      <c r="M54" s="7">
-        <v>956014658</v>
+      <c r="M54" s="45" t="s">
+        <v>601</v>
       </c>
       <c r="N54" s="13">
         <v>1</v>
       </c>
       <c r="O54" s="13" t="str">
-        <f>VLOOKUP([2]Empleados!M51,TURNOS,2)</f>
+        <f>VLOOKUP([2]Empleados!M42,TURNOS,2)</f>
         <v>MAÑANA</v>
       </c>
       <c r="P54" s="18"/>
@@ -27641,7 +27555,7 @@
         <v>2</v>
       </c>
       <c r="U54" s="13" t="s">
-        <v>654</v>
+        <v>602</v>
       </c>
       <c r="V54" s="18"/>
       <c r="W54" s="18"/>
@@ -27654,39 +27568,41 @@
       </c>
       <c r="AA54" s="13"/>
       <c r="AB54" s="13" t="str">
-        <f t="shared" si="2"/>
-        <v>PAHUACHO COSME CARMEN CATHERINE</v>
-      </c>
-    </row>
-    <row r="55" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A55" s="71"/>
-      <c r="B55" s="13"/>
+        <f>CONCATENATE(C54," ", D54)</f>
+        <v>LOPEZ AQUITUARI JHOYS EBELYN</v>
+      </c>
+    </row>
+    <row r="55" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B55" s="13">
+        <v>1</v>
+      </c>
       <c r="C55" s="11" t="s">
-        <v>342</v>
+        <v>603</v>
       </c>
       <c r="D55" s="11" t="s">
-        <v>346</v>
+        <v>604</v>
       </c>
       <c r="E55" s="24">
-        <v>37850</v>
-      </c>
-      <c r="F55" s="76" t="s">
-        <v>720</v>
+        <v>34791</v>
+      </c>
+      <c r="F55" s="25" t="s">
+        <v>605</v>
       </c>
       <c r="G55" s="13">
         <v>1</v>
       </c>
-      <c r="H55" s="11" t="s">
-        <v>416</v>
+      <c r="H55" s="11" t="str">
+        <f>VLOOKUP(G55,AREAS,2)</f>
+        <v>Operaciones</v>
       </c>
       <c r="I55" s="24">
-        <v>44695</v>
+        <v>44649</v>
       </c>
       <c r="J55" s="11"/>
       <c r="K55" s="11"/>
       <c r="L55" s="11"/>
       <c r="M55" s="13">
-        <v>931693876</v>
+        <v>930658467</v>
       </c>
       <c r="N55" s="13">
         <v>1</v>
@@ -27695,151 +27611,163 @@
         <v>412</v>
       </c>
       <c r="P55" s="18" t="s">
-        <v>721</v>
-      </c>
-      <c r="Q55" s="50" t="s">
-        <v>722</v>
+        <v>528</v>
+      </c>
+      <c r="Q55" s="47" t="s">
+        <v>606</v>
       </c>
       <c r="R55" s="13" t="s">
-        <v>407</v>
+        <v>418</v>
       </c>
       <c r="S55" s="13"/>
       <c r="T55" s="13"/>
       <c r="U55" s="13"/>
-      <c r="V55" s="13" t="s">
+      <c r="V55" s="18"/>
+      <c r="W55" s="18"/>
+      <c r="X55" s="18"/>
+      <c r="Y55" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="Z55" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="AA55" s="13"/>
+      <c r="AB55" s="13" t="str">
+        <f>CONCATENATE(C55," ", D55)</f>
+        <v>LUNA SOCOLA LUCIA GERALDINE</v>
+      </c>
+    </row>
+    <row r="56" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B56" s="13"/>
+      <c r="C56" s="11" t="s">
+        <v>615</v>
+      </c>
+      <c r="D56" s="11" t="s">
+        <v>284</v>
+      </c>
+      <c r="E56" s="24">
+        <v>35139</v>
+      </c>
+      <c r="F56" s="25" t="s">
+        <v>616</v>
+      </c>
+      <c r="G56" s="13">
+        <v>1</v>
+      </c>
+      <c r="H56" s="11" t="s">
+        <v>416</v>
+      </c>
+      <c r="I56" s="24">
+        <v>44695</v>
+      </c>
+      <c r="J56" s="11"/>
+      <c r="K56" s="11"/>
+      <c r="L56" s="11"/>
+      <c r="M56" s="13">
+        <v>912649403</v>
+      </c>
+      <c r="N56" s="13">
+        <v>1</v>
+      </c>
+      <c r="O56" s="13" t="s">
+        <v>412</v>
+      </c>
+      <c r="P56" s="18" t="s">
+        <v>501</v>
+      </c>
+      <c r="Q56" s="26" t="s">
+        <v>617</v>
+      </c>
+      <c r="R56" s="13" t="s">
+        <v>407</v>
+      </c>
+      <c r="S56" s="13" t="s">
+        <v>408</v>
+      </c>
+      <c r="T56" s="13">
+        <v>1</v>
+      </c>
+      <c r="U56" s="13">
+        <v>9</v>
+      </c>
+      <c r="V56" s="13" t="s">
         <v>426</v>
       </c>
-      <c r="W55" s="28" t="s">
-        <v>723</v>
-      </c>
-      <c r="X55" s="13"/>
-      <c r="Y55" s="13"/>
-      <c r="Z55" s="13"/>
-      <c r="AA55" s="12" t="s">
-        <v>724</v>
-      </c>
-      <c r="AB55" s="13" t="str">
-        <f t="shared" si="2"/>
-        <v>SILVA VASQUEZ JEAN EFRAIN</v>
-      </c>
-    </row>
-    <row r="56" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="46" t="s">
-        <v>673</v>
-      </c>
-      <c r="B56" s="13">
-        <v>1</v>
-      </c>
-      <c r="C56" s="11" t="s">
-        <v>674</v>
-      </c>
-      <c r="D56" s="11" t="s">
-        <v>230</v>
-      </c>
-      <c r="E56" s="24">
-        <v>37399</v>
-      </c>
-      <c r="F56" s="25">
-        <v>73908404</v>
-      </c>
-      <c r="G56" s="13">
-        <v>1</v>
-      </c>
-      <c r="H56" s="11" t="str">
-        <f>VLOOKUP(G56,AREAS,2)</f>
-        <v>Operaciones</v>
-      </c>
-      <c r="I56" s="24">
-        <v>44370</v>
-      </c>
-      <c r="J56" s="24"/>
-      <c r="K56" s="24"/>
-      <c r="L56" s="24"/>
-      <c r="M56" s="7">
-        <v>962943227</v>
-      </c>
-      <c r="N56" s="13">
-        <v>1</v>
-      </c>
-      <c r="O56" s="13" t="str">
-        <f>VLOOKUP([2]Empleados!M53,TURNOS,2)</f>
-        <v>MAÑANA</v>
-      </c>
-      <c r="P56" s="18"/>
-      <c r="Q56" s="18"/>
-      <c r="R56" s="13" t="s">
+      <c r="W56" s="28" t="s">
+        <v>618</v>
+      </c>
+      <c r="X56" s="13"/>
+      <c r="Y56" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="Z56" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="AA56" s="12" t="s">
+        <v>619</v>
+      </c>
+      <c r="AB56" s="13" t="str">
+        <f>CONCATENATE(C56," ", D56)</f>
+        <v>MALASQUEZ ZEÑA JORGE LUIS</v>
+      </c>
+    </row>
+    <row r="57" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B57" s="13">
+        <v>1</v>
+      </c>
+      <c r="C57" s="11" t="s">
+        <v>314</v>
+      </c>
+      <c r="D57" s="11" t="s">
+        <v>315</v>
+      </c>
+      <c r="E57" s="24">
+        <v>27659</v>
+      </c>
+      <c r="F57" s="25" t="s">
+        <v>621</v>
+      </c>
+      <c r="G57" s="13">
+        <v>1</v>
+      </c>
+      <c r="H57" s="11" t="s">
+        <v>416</v>
+      </c>
+      <c r="I57" s="24">
+        <v>44671</v>
+      </c>
+      <c r="J57" s="11"/>
+      <c r="K57" s="11"/>
+      <c r="L57" s="11"/>
+      <c r="M57" s="13">
+        <v>902873073</v>
+      </c>
+      <c r="N57" s="13">
+        <v>1</v>
+      </c>
+      <c r="O57" s="13" t="s">
+        <v>412</v>
+      </c>
+      <c r="P57" s="18" t="s">
+        <v>622</v>
+      </c>
+      <c r="Q57" s="26" t="s">
+        <v>623</v>
+      </c>
+      <c r="R57" s="13" t="s">
         <v>418</v>
       </c>
-      <c r="S56" s="13"/>
-      <c r="T56" s="13"/>
-      <c r="U56" s="13"/>
-      <c r="V56" s="18"/>
-      <c r="W56" s="18"/>
-      <c r="X56" s="18"/>
-      <c r="Y56" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="Z56" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="AA56" s="13"/>
-      <c r="AB56" s="13" t="str">
-        <f t="shared" si="2"/>
-        <v>PILLACA RIVERA CANDY VANESSA</v>
-      </c>
-    </row>
-    <row r="57" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="46" t="s">
-        <v>675</v>
-      </c>
-      <c r="B57" s="13">
-        <v>1</v>
-      </c>
-      <c r="C57" s="11" t="s">
-        <v>676</v>
-      </c>
-      <c r="D57" s="11" t="s">
-        <v>236</v>
-      </c>
-      <c r="E57" s="24">
-        <v>35275</v>
-      </c>
-      <c r="F57" s="25">
-        <v>72182243</v>
-      </c>
-      <c r="G57" s="13">
-        <v>1</v>
-      </c>
-      <c r="H57" s="11" t="str">
-        <f>VLOOKUP(G57,AREAS,2)</f>
-        <v>Operaciones</v>
-      </c>
-      <c r="I57" s="24">
-        <v>44519</v>
-      </c>
-      <c r="J57" s="24"/>
-      <c r="K57" s="24"/>
-      <c r="L57" s="24"/>
-      <c r="M57" s="7">
-        <v>978544045</v>
-      </c>
-      <c r="N57" s="13">
-        <v>1</v>
-      </c>
-      <c r="O57" s="13" t="str">
-        <f>VLOOKUP([2]Empleados!M54,TURNOS,2)</f>
-        <v>MAÑANA</v>
-      </c>
-      <c r="P57" s="18"/>
-      <c r="Q57" s="18"/>
-      <c r="R57" s="13" t="s">
-        <v>407</v>
-      </c>
-      <c r="S57" s="13"/>
-      <c r="T57" s="13"/>
-      <c r="U57" s="13"/>
+      <c r="S57" s="13" t="s">
+        <v>408</v>
+      </c>
+      <c r="T57" s="13">
+        <v>1</v>
+      </c>
+      <c r="U57" s="13">
+        <v>25</v>
+      </c>
       <c r="V57" s="18"/>
-      <c r="W57" s="18"/>
+      <c r="W57" s="13"/>
       <c r="X57" s="18"/>
       <c r="Y57" s="13" t="s">
         <v>15</v>
@@ -27849,28 +27777,28 @@
       </c>
       <c r="AA57" s="13"/>
       <c r="AB57" s="13" t="str">
-        <f t="shared" si="2"/>
-        <v>PINEDO GUTIERREZ CHRISTOPHER DAVID</v>
+        <f>CONCATENATE(C57," ", D57)</f>
+        <v>MASSA MONJA CLAUDIA CECILIA</v>
       </c>
     </row>
     <row r="58" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="46" t="s">
-        <v>677</v>
+        <v>627</v>
       </c>
       <c r="B58" s="13">
         <v>1</v>
       </c>
       <c r="C58" s="11" t="s">
-        <v>678</v>
+        <v>628</v>
       </c>
       <c r="D58" s="11" t="s">
-        <v>239</v>
+        <v>215</v>
       </c>
       <c r="E58" s="24">
-        <v>32299</v>
+        <v>35678</v>
       </c>
       <c r="F58" s="25">
-        <v>45264150</v>
+        <v>75325472</v>
       </c>
       <c r="G58" s="13">
         <v>1</v>
@@ -27880,19 +27808,19 @@
         <v>Operaciones</v>
       </c>
       <c r="I58" s="24">
-        <v>44348</v>
+        <v>44476</v>
       </c>
       <c r="J58" s="24"/>
       <c r="K58" s="24"/>
       <c r="L58" s="24"/>
-      <c r="M58" s="7">
-        <v>971649601</v>
+      <c r="M58" s="13">
+        <v>929332633</v>
       </c>
       <c r="N58" s="13">
         <v>1</v>
       </c>
       <c r="O58" s="13" t="str">
-        <f>VLOOKUP([2]Empleados!M55,TURNOS,2)</f>
+        <f>VLOOKUP([2]Empleados!M45,TURNOS,2)</f>
         <v>MAÑANA</v>
       </c>
       <c r="P58" s="18"/>
@@ -27900,15 +27828,9 @@
       <c r="R58" s="13" t="s">
         <v>418</v>
       </c>
-      <c r="S58" s="13" t="s">
-        <v>408</v>
-      </c>
-      <c r="T58" s="13">
-        <v>1</v>
-      </c>
-      <c r="U58" s="13">
-        <v>12</v>
-      </c>
+      <c r="S58" s="13"/>
+      <c r="T58" s="13"/>
+      <c r="U58" s="13"/>
       <c r="V58" s="18"/>
       <c r="W58" s="18"/>
       <c r="X58" s="18"/>
@@ -27920,8 +27842,8 @@
       </c>
       <c r="AA58" s="13"/>
       <c r="AB58" s="13" t="str">
-        <f t="shared" si="2"/>
-        <v>PUICON JAVIER MARIA CRUZ</v>
+        <f>CONCATENATE(C58," ", D58)</f>
+        <v>MELO GARCIA PAMELA RUBI</v>
       </c>
     </row>
     <row r="59" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
@@ -27992,42 +27914,39 @@
       <c r="Z59" s="13"/>
       <c r="AA59" s="13"/>
       <c r="AB59" s="13" t="str">
-        <f t="shared" si="2"/>
+        <f>CONCATENATE(C59," ", D59)</f>
         <v>MALASQUEZ BERNALES DIANA ISABEL</v>
       </c>
     </row>
-    <row r="60" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="71"/>
-      <c r="B60" s="13">
-        <v>1</v>
-      </c>
+      <c r="B60" s="13"/>
       <c r="C60" s="11" t="s">
-        <v>490</v>
+        <v>749</v>
       </c>
       <c r="D60" s="11" t="s">
-        <v>491</v>
+        <v>355</v>
       </c>
       <c r="E60" s="24">
-        <v>37518</v>
+        <v>36457</v>
       </c>
       <c r="F60" s="76" t="s">
-        <v>492</v>
+        <v>750</v>
       </c>
       <c r="G60" s="13">
         <v>1</v>
       </c>
-      <c r="H60" s="11" t="str">
-        <f>VLOOKUP(G60,AREAS,2)</f>
-        <v>Operaciones</v>
+      <c r="H60" s="11" t="s">
+        <v>416</v>
       </c>
       <c r="I60" s="24">
-        <v>44649</v>
+        <v>44695</v>
       </c>
       <c r="J60" s="11"/>
       <c r="K60" s="11"/>
       <c r="L60" s="11"/>
       <c r="M60" s="13">
-        <v>947350799</v>
+        <v>917998191</v>
       </c>
       <c r="N60" s="13">
         <v>1</v>
@@ -28036,113 +27955,126 @@
         <v>412</v>
       </c>
       <c r="P60" s="18" t="s">
-        <v>493</v>
+        <v>732</v>
       </c>
       <c r="Q60" s="26" t="s">
-        <v>494</v>
+        <v>751</v>
       </c>
       <c r="R60" s="13" t="s">
-        <v>407</v>
-      </c>
-      <c r="S60" s="13"/>
-      <c r="T60" s="13"/>
-      <c r="U60" s="13"/>
-      <c r="V60" s="18"/>
-      <c r="W60" s="18"/>
-      <c r="X60" s="18"/>
+        <v>418</v>
+      </c>
+      <c r="S60" s="13" t="s">
+        <v>408</v>
+      </c>
+      <c r="T60" s="13">
+        <v>1</v>
+      </c>
+      <c r="U60" s="13">
+        <v>2</v>
+      </c>
+      <c r="V60" s="13"/>
+      <c r="W60" s="13"/>
+      <c r="X60" s="13"/>
       <c r="Y60" s="13" t="s">
         <v>15</v>
       </c>
       <c r="Z60" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="AA60" s="13"/>
+      <c r="AA60" s="12" t="s">
+        <v>752</v>
+      </c>
       <c r="AB60" s="13" t="str">
-        <f t="shared" si="2"/>
-        <v>CANALES CAJA ANDERSON HONORIO ANGEL</v>
-      </c>
-    </row>
-    <row r="61" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A61" s="71" t="s">
-        <v>512</v>
-      </c>
-      <c r="B61" s="13">
-        <v>1</v>
-      </c>
+        <f>CONCATENATE(C60," ", D60)</f>
+        <v>TAQUIRI SOLIS ASHLY DAYAN</v>
+      </c>
+    </row>
+    <row r="61" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="71"/>
+      <c r="B61" s="13"/>
       <c r="C61" s="11" t="s">
-        <v>513</v>
+        <v>517</v>
       </c>
       <c r="D61" s="11" t="s">
-        <v>514</v>
+        <v>118</v>
       </c>
       <c r="E61" s="24">
-        <v>27634</v>
-      </c>
-      <c r="F61" s="77" t="s">
-        <v>104</v>
+        <v>37386</v>
+      </c>
+      <c r="F61" s="76" t="s">
+        <v>518</v>
       </c>
       <c r="G61" s="13">
         <v>1</v>
       </c>
-      <c r="H61" s="11" t="str">
-        <f>VLOOKUP(G61,AREAS,2)</f>
-        <v>Operaciones</v>
+      <c r="H61" s="11" t="s">
+        <v>416</v>
       </c>
       <c r="I61" s="24">
-        <v>44531</v>
-      </c>
-      <c r="J61" s="24"/>
-      <c r="K61" s="24"/>
-      <c r="L61" s="24"/>
+        <v>44698</v>
+      </c>
+      <c r="J61" s="11"/>
+      <c r="K61" s="11"/>
+      <c r="L61" s="11"/>
       <c r="M61" s="13">
-        <v>982552116</v>
+        <v>989544830</v>
       </c>
       <c r="N61" s="13">
         <v>1</v>
       </c>
-      <c r="O61" s="13" t="str">
-        <f>VLOOKUP([2]Empleados!M20,TURNOS,2)</f>
-        <v>MAÑANA</v>
-      </c>
-      <c r="P61" s="18"/>
-      <c r="Q61" s="18"/>
+      <c r="O61" s="13" t="s">
+        <v>412</v>
+      </c>
+      <c r="P61" s="18" t="s">
+        <v>519</v>
+      </c>
+      <c r="Q61" s="26" t="s">
+        <v>520</v>
+      </c>
       <c r="R61" s="13" t="s">
         <v>418</v>
       </c>
-      <c r="S61" s="13"/>
-      <c r="T61" s="13"/>
-      <c r="U61" s="13"/>
-      <c r="V61" s="18"/>
-      <c r="W61" s="18"/>
-      <c r="X61" s="18"/>
+      <c r="S61" s="13" t="s">
+        <v>408</v>
+      </c>
+      <c r="T61" s="13">
+        <v>1</v>
+      </c>
+      <c r="U61" s="13">
+        <v>1</v>
+      </c>
+      <c r="V61" s="13"/>
+      <c r="W61" s="13"/>
+      <c r="X61" s="13"/>
       <c r="Y61" s="13" t="s">
         <v>15</v>
       </c>
       <c r="Z61" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="AA61" s="13"/>
+      <c r="AA61" s="12" t="s">
+        <v>521</v>
+      </c>
       <c r="AB61" s="13" t="str">
-        <f t="shared" si="2"/>
-        <v>COLMENARES IPANAQUE MARIA NERY</v>
-      </c>
-    </row>
-    <row r="62" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A62" s="71"/>
+        <f>CONCATENATE(C61," ", D61)</f>
+        <v>CUYA CHAMORRO BRISA DANA</v>
+      </c>
+    </row>
+    <row r="62" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="B62" s="13">
         <v>1</v>
       </c>
       <c r="C62" s="11" t="s">
-        <v>549</v>
+        <v>317</v>
       </c>
       <c r="D62" s="11" t="s">
-        <v>279</v>
+        <v>318</v>
       </c>
       <c r="E62" s="24">
-        <v>36427</v>
-      </c>
-      <c r="F62" s="76" t="s">
-        <v>550</v>
+        <v>36472</v>
+      </c>
+      <c r="F62" s="11">
+        <v>78257845</v>
       </c>
       <c r="G62" s="13">
         <v>1</v>
@@ -28151,13 +28083,13 @@
         <v>416</v>
       </c>
       <c r="I62" s="24">
-        <v>44667</v>
+        <v>44623</v>
       </c>
       <c r="J62" s="11"/>
       <c r="K62" s="11"/>
       <c r="L62" s="11"/>
       <c r="M62" s="13">
-        <v>957116691</v>
+        <v>933358406</v>
       </c>
       <c r="N62" s="13">
         <v>1</v>
@@ -28166,19 +28098,25 @@
         <v>412</v>
       </c>
       <c r="P62" s="18" t="s">
-        <v>551</v>
+        <v>641</v>
       </c>
       <c r="Q62" s="26" t="s">
-        <v>552</v>
+        <v>642</v>
       </c>
       <c r="R62" s="13" t="s">
-        <v>407</v>
-      </c>
-      <c r="S62" s="13"/>
-      <c r="T62" s="13"/>
-      <c r="U62" s="13"/>
+        <v>418</v>
+      </c>
+      <c r="S62" s="13" t="s">
+        <v>408</v>
+      </c>
+      <c r="T62" s="13">
+        <v>1</v>
+      </c>
+      <c r="U62" s="13">
+        <v>2</v>
+      </c>
       <c r="V62" s="18"/>
-      <c r="W62" s="13"/>
+      <c r="W62" s="18"/>
       <c r="X62" s="18"/>
       <c r="Y62" s="13" t="s">
         <v>15</v>
@@ -28188,90 +28126,99 @@
       </c>
       <c r="AA62" s="13"/>
       <c r="AB62" s="13" t="str">
-        <f t="shared" si="2"/>
-        <v>ESPINOZA SANCHEZ JHOEL CRISTHIAN</v>
+        <f>CONCATENATE(C62," ", D62)</f>
+        <v>MURAYARI CUMAPA LUZ CLARITA</v>
       </c>
     </row>
     <row r="63" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B63" s="48"/>
+      <c r="A63" s="46" t="s">
+        <v>643</v>
+      </c>
+      <c r="B63" s="48">
+        <v>1</v>
+      </c>
       <c r="C63" s="11" t="s">
-        <v>160</v>
+        <v>644</v>
       </c>
       <c r="D63" s="11" t="s">
-        <v>161</v>
+        <v>221</v>
       </c>
       <c r="E63" s="24">
-        <v>36311</v>
-      </c>
-      <c r="F63" s="25" t="s">
-        <v>679</v>
+        <v>29859</v>
+      </c>
+      <c r="F63" s="25">
+        <v>42403148</v>
       </c>
       <c r="G63" s="13">
         <v>1</v>
       </c>
-      <c r="H63" s="11" t="s">
-        <v>416</v>
+      <c r="H63" s="11" t="str">
+        <f>VLOOKUP(G63,AREAS,2)</f>
+        <v>Operaciones</v>
       </c>
       <c r="I63" s="24">
-        <v>44677</v>
-      </c>
-      <c r="J63" s="11"/>
-      <c r="K63" s="11"/>
-      <c r="L63" s="11"/>
-      <c r="M63" s="13">
-        <v>949564243</v>
+        <v>44417</v>
+      </c>
+      <c r="J63" s="24"/>
+      <c r="K63" s="24"/>
+      <c r="L63" s="24"/>
+      <c r="M63" s="7">
+        <v>993255301</v>
       </c>
       <c r="N63" s="13">
         <v>1</v>
       </c>
-      <c r="O63" s="13" t="s">
-        <v>412</v>
-      </c>
-      <c r="P63" s="18" t="s">
-        <v>680</v>
-      </c>
-      <c r="Q63" s="26" t="s">
-        <v>681</v>
-      </c>
+      <c r="O63" s="13" t="str">
+        <f>VLOOKUP([2]Empleados!M49,TURNOS,2)</f>
+        <v>MAÑANA</v>
+      </c>
+      <c r="P63" s="18"/>
+      <c r="Q63" s="18"/>
       <c r="R63" s="13" t="s">
-        <v>407</v>
-      </c>
-      <c r="S63" s="13"/>
-      <c r="T63" s="13"/>
-      <c r="U63" s="13"/>
+        <v>418</v>
+      </c>
+      <c r="S63" s="13" t="s">
+        <v>408</v>
+      </c>
+      <c r="T63" s="13">
+        <v>2</v>
+      </c>
+      <c r="U63" s="13" t="s">
+        <v>645</v>
+      </c>
       <c r="V63" s="18"/>
-      <c r="W63" s="13"/>
-      <c r="X63" s="13"/>
+      <c r="W63" s="18"/>
+      <c r="X63" s="18"/>
       <c r="Y63" s="13" t="s">
         <v>15</v>
       </c>
       <c r="Z63" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="AA63" s="12" t="s">
-        <v>682</v>
-      </c>
+      <c r="AA63" s="13"/>
       <c r="AB63" s="13" t="str">
-        <f t="shared" si="2"/>
-        <v>PULLO GONZALES DANNY</v>
-      </c>
-    </row>
-    <row r="64" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A64" s="71"/>
+        <f>CONCATENATE(C63," ", D63)</f>
+        <v>NUÑEZ LAREDO ELVA ADELINA</v>
+      </c>
+    </row>
+    <row r="64" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="46" t="s">
+        <v>646</v>
+      </c>
       <c r="B64" s="48">
         <v>1</v>
       </c>
       <c r="C64" s="11" t="s">
-        <v>759</v>
+        <v>647</v>
       </c>
       <c r="D64" s="11" t="s">
-        <v>760</v>
+        <v>648</v>
       </c>
       <c r="E64" s="24">
-        <v>37021</v>
-      </c>
-      <c r="F64" s="76" t="s">
-        <v>761</v>
+        <v>33361</v>
+      </c>
+      <c r="F64" s="49" t="s">
+        <v>225</v>
       </c>
       <c r="G64" s="13">
         <v>1</v>
@@ -28281,38 +28228,29 @@
         <v>Operaciones</v>
       </c>
       <c r="I64" s="24">
-        <v>44649</v>
-      </c>
-      <c r="J64" s="11"/>
-      <c r="K64" s="11"/>
-      <c r="L64" s="11"/>
-      <c r="M64" s="13">
-        <v>946044429</v>
+        <v>44397</v>
+      </c>
+      <c r="J64" s="24"/>
+      <c r="K64" s="24"/>
+      <c r="L64" s="24"/>
+      <c r="M64" s="7" t="s">
+        <v>649</v>
       </c>
       <c r="N64" s="13">
         <v>1</v>
       </c>
-      <c r="O64" s="13" t="s">
-        <v>412</v>
-      </c>
-      <c r="P64" s="18" t="s">
-        <v>762</v>
-      </c>
-      <c r="Q64" s="26" t="s">
-        <v>763</v>
-      </c>
+      <c r="O64" s="13" t="str">
+        <f>VLOOKUP([2]Empleados!M50,TURNOS,2)</f>
+        <v>MAÑANA</v>
+      </c>
+      <c r="P64" s="18"/>
+      <c r="Q64" s="18"/>
       <c r="R64" s="13" t="s">
-        <v>418</v>
-      </c>
-      <c r="S64" s="13" t="s">
-        <v>408</v>
-      </c>
-      <c r="T64" s="13">
-        <v>1</v>
-      </c>
-      <c r="U64" s="13">
-        <v>1</v>
-      </c>
+        <v>407</v>
+      </c>
+      <c r="S64" s="13"/>
+      <c r="T64" s="13"/>
+      <c r="U64" s="13"/>
       <c r="V64" s="18"/>
       <c r="W64" s="18"/>
       <c r="X64" s="18"/>
@@ -28324,28 +28262,28 @@
       </c>
       <c r="AA64" s="13"/>
       <c r="AB64" s="13" t="str">
-        <f t="shared" si="2"/>
-        <v>TRUJILLO MAITA VALESKA ALEJANDRA</v>
+        <f>CONCATENATE(C64," ", D64)</f>
+        <v>OLIVO AZOCAR ROGER</v>
       </c>
     </row>
     <row r="65" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" s="46" t="s">
-        <v>689</v>
+        <v>652</v>
       </c>
       <c r="B65" s="48">
         <v>1</v>
       </c>
       <c r="C65" s="11" t="s">
-        <v>690</v>
+        <v>653</v>
       </c>
       <c r="D65" s="11" t="s">
-        <v>691</v>
+        <v>227</v>
       </c>
       <c r="E65" s="24">
-        <v>36342</v>
+        <v>35263</v>
       </c>
       <c r="F65" s="25">
-        <v>77426095</v>
+        <v>73525961</v>
       </c>
       <c r="G65" s="13">
         <v>1</v>
@@ -28355,19 +28293,19 @@
         <v>Operaciones</v>
       </c>
       <c r="I65" s="24">
-        <v>44386</v>
+        <v>44348</v>
       </c>
       <c r="J65" s="24"/>
       <c r="K65" s="24"/>
       <c r="L65" s="24"/>
       <c r="M65" s="7">
-        <v>965379316</v>
+        <v>956014658</v>
       </c>
       <c r="N65" s="13">
         <v>1</v>
       </c>
       <c r="O65" s="13" t="str">
-        <f>VLOOKUP([2]Empleados!M57,TURNOS,2)</f>
+        <f>VLOOKUP([2]Empleados!M51,TURNOS,2)</f>
         <v>MAÑANA</v>
       </c>
       <c r="P65" s="18"/>
@@ -28379,10 +28317,10 @@
         <v>408</v>
       </c>
       <c r="T65" s="13">
-        <v>1</v>
-      </c>
-      <c r="U65" s="13">
-        <v>4</v>
+        <v>2</v>
+      </c>
+      <c r="U65" s="13" t="s">
+        <v>654</v>
       </c>
       <c r="V65" s="18"/>
       <c r="W65" s="18"/>
@@ -28395,25 +28333,24 @@
       </c>
       <c r="AA65" s="13"/>
       <c r="AB65" s="13" t="str">
-        <f t="shared" si="2"/>
-        <v>QUISPE MENESES ROXXETT</v>
-      </c>
-    </row>
-    <row r="66" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="B66" s="48">
-        <v>1</v>
-      </c>
+        <f>CONCATENATE(C65," ", D65)</f>
+        <v>PAHUACHO COSME CARMEN CATHERINE</v>
+      </c>
+    </row>
+    <row r="66" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="71"/>
+      <c r="B66" s="48"/>
       <c r="C66" s="11" t="s">
-        <v>95</v>
+        <v>342</v>
       </c>
       <c r="D66" s="11" t="s">
-        <v>97</v>
+        <v>346</v>
       </c>
       <c r="E66" s="24">
-        <v>36995</v>
+        <v>37850</v>
       </c>
       <c r="F66" s="76" t="s">
-        <v>795</v>
+        <v>720</v>
       </c>
       <c r="G66" s="13">
         <v>1</v>
@@ -28422,13 +28359,13 @@
         <v>416</v>
       </c>
       <c r="I66" s="24">
-        <v>44659</v>
+        <v>44695</v>
       </c>
       <c r="J66" s="11"/>
       <c r="K66" s="11"/>
       <c r="L66" s="11"/>
       <c r="M66" s="13">
-        <v>969901448</v>
+        <v>931693876</v>
       </c>
       <c r="N66" s="13">
         <v>1</v>
@@ -28437,30 +28374,36 @@
         <v>412</v>
       </c>
       <c r="P66" s="18" t="s">
-        <v>793</v>
-      </c>
-      <c r="Q66" s="26" t="s">
-        <v>796</v>
+        <v>721</v>
+      </c>
+      <c r="Q66" s="50" t="s">
+        <v>722</v>
       </c>
       <c r="R66" s="13" t="s">
-        <v>418</v>
+        <v>407</v>
       </c>
       <c r="S66" s="13"/>
       <c r="T66" s="13"/>
       <c r="U66" s="13"/>
-      <c r="V66" s="18"/>
-      <c r="W66" s="13"/>
-      <c r="X66" s="18"/>
+      <c r="V66" s="13" t="s">
+        <v>426</v>
+      </c>
+      <c r="W66" s="28" t="s">
+        <v>723</v>
+      </c>
+      <c r="X66" s="13"/>
       <c r="Y66" s="13" t="s">
         <v>15</v>
       </c>
       <c r="Z66" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="AA66" s="13"/>
+      <c r="AA66" s="12" t="s">
+        <v>724</v>
+      </c>
       <c r="AB66" s="13" t="str">
-        <f t="shared" si="2"/>
-        <v>ZARPAN SILVA ROSARIO DEL PILAR</v>
+        <f>CONCATENATE(C66," ", D66)</f>
+        <v>SILVA VASQUEZ JEAN EFRAIN</v>
       </c>
     </row>
     <row r="67" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
@@ -28528,7 +28471,7 @@
       <c r="Z67" s="13"/>
       <c r="AA67" s="13"/>
       <c r="AB67" s="73" t="str">
-        <f t="shared" si="2"/>
+        <f>CONCATENATE(C67," ", D67)</f>
         <v>CANTA SHUAN SONIA</v>
       </c>
     </row>
@@ -28593,53 +28536,54 @@
       <c r="Z68" s="13"/>
       <c r="AA68" s="13"/>
       <c r="AB68" s="13" t="str">
-        <f t="shared" si="2"/>
+        <f>CONCATENATE(C68," ", D68)</f>
         <v>MEZA MANCO JHONELL MARTIN</v>
       </c>
     </row>
     <row r="69" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B69" s="1">
+      <c r="A69" s="46" t="s">
+        <v>673</v>
+      </c>
+      <c r="B69" s="72">
         <v>1</v>
       </c>
       <c r="C69" s="11" t="s">
-        <v>333</v>
+        <v>674</v>
       </c>
       <c r="D69" s="11" t="s">
-        <v>334</v>
+        <v>230</v>
       </c>
       <c r="E69" s="24">
-        <v>36377</v>
-      </c>
-      <c r="F69" s="25" t="s">
-        <v>692</v>
+        <v>37399</v>
+      </c>
+      <c r="F69" s="25">
+        <v>73908404</v>
       </c>
       <c r="G69" s="13">
         <v>1</v>
       </c>
-      <c r="H69" s="11" t="s">
-        <v>416</v>
+      <c r="H69" s="11" t="str">
+        <f>VLOOKUP(G69,AREAS,2)</f>
+        <v>Operaciones</v>
       </c>
       <c r="I69" s="24">
-        <v>44659</v>
-      </c>
-      <c r="J69" s="11"/>
-      <c r="K69" s="11"/>
-      <c r="L69" s="11"/>
-      <c r="M69" s="13">
-        <v>991072040</v>
+        <v>44370</v>
+      </c>
+      <c r="J69" s="24"/>
+      <c r="K69" s="24"/>
+      <c r="L69" s="24"/>
+      <c r="M69" s="7">
+        <v>962943227</v>
       </c>
       <c r="N69" s="13">
         <v>1</v>
       </c>
-      <c r="O69" s="13" t="s">
-        <v>412</v>
-      </c>
-      <c r="P69" s="18" t="s">
-        <v>566</v>
-      </c>
-      <c r="Q69" s="26" t="s">
-        <v>693</v>
-      </c>
+      <c r="O69" s="13" t="str">
+        <f>VLOOKUP([2]Empleados!M53,TURNOS,2)</f>
+        <v>MAÑANA</v>
+      </c>
+      <c r="P69" s="18"/>
+      <c r="Q69" s="18"/>
       <c r="R69" s="13" t="s">
         <v>418</v>
       </c>
@@ -28647,7 +28591,7 @@
       <c r="T69" s="13"/>
       <c r="U69" s="13"/>
       <c r="V69" s="18"/>
-      <c r="W69" s="13"/>
+      <c r="W69" s="18"/>
       <c r="X69" s="18"/>
       <c r="Y69" s="13" t="s">
         <v>15</v>
@@ -28657,28 +28601,28 @@
       </c>
       <c r="AA69" s="13"/>
       <c r="AB69" s="13" t="str">
-        <f t="shared" si="2"/>
-        <v>RAMIREZ HUAMANI FIORELLA STHEFANI</v>
+        <f>CONCATENATE(C69," ", D69)</f>
+        <v>PILLACA RIVERA CANDY VANESSA</v>
       </c>
     </row>
     <row r="70" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" s="46" t="s">
-        <v>701</v>
+        <v>675</v>
       </c>
       <c r="B70" s="48">
         <v>1</v>
       </c>
       <c r="C70" s="11" t="s">
-        <v>702</v>
+        <v>676</v>
       </c>
       <c r="D70" s="11" t="s">
-        <v>252</v>
+        <v>236</v>
       </c>
       <c r="E70" s="24">
-        <v>31182</v>
+        <v>35275</v>
       </c>
       <c r="F70" s="25">
-        <v>43030843</v>
+        <v>72182243</v>
       </c>
       <c r="G70" s="13">
         <v>1</v>
@@ -28688,35 +28632,29 @@
         <v>Operaciones</v>
       </c>
       <c r="I70" s="24">
-        <v>44456</v>
+        <v>44519</v>
       </c>
       <c r="J70" s="24"/>
       <c r="K70" s="24"/>
       <c r="L70" s="24"/>
       <c r="M70" s="7">
-        <v>977646993</v>
+        <v>978544045</v>
       </c>
       <c r="N70" s="13">
         <v>1</v>
       </c>
       <c r="O70" s="13" t="str">
-        <f>VLOOKUP([2]Empleados!M62,TURNOS,2)</f>
+        <f>VLOOKUP([2]Empleados!M54,TURNOS,2)</f>
         <v>MAÑANA</v>
       </c>
       <c r="P70" s="18"/>
       <c r="Q70" s="18"/>
       <c r="R70" s="13" t="s">
-        <v>418</v>
-      </c>
-      <c r="S70" s="13" t="s">
-        <v>408</v>
-      </c>
-      <c r="T70" s="13">
-        <v>2</v>
-      </c>
-      <c r="U70" s="13" t="s">
-        <v>703</v>
-      </c>
+        <v>407</v>
+      </c>
+      <c r="S70" s="13"/>
+      <c r="T70" s="13"/>
+      <c r="U70" s="13"/>
       <c r="V70" s="18"/>
       <c r="W70" s="18"/>
       <c r="X70" s="18"/>
@@ -28728,28 +28666,28 @@
       </c>
       <c r="AA70" s="13"/>
       <c r="AB70" s="13" t="str">
-        <f t="shared" si="2"/>
-        <v>RUIZ MACEDO SUSANY MARIA</v>
+        <f>CONCATENATE(C70," ", D70)</f>
+        <v>PINEDO GUTIERREZ CHRISTOPHER DAVID</v>
       </c>
     </row>
     <row r="71" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" s="46" t="s">
-        <v>704</v>
+        <v>677</v>
       </c>
       <c r="B71" s="48">
         <v>1</v>
       </c>
       <c r="C71" s="11" t="s">
-        <v>705</v>
+        <v>678</v>
       </c>
       <c r="D71" s="11" t="s">
-        <v>254</v>
+        <v>239</v>
       </c>
       <c r="E71" s="24">
-        <v>30573</v>
+        <v>32299</v>
       </c>
       <c r="F71" s="25">
-        <v>41996696</v>
+        <v>45264150</v>
       </c>
       <c r="G71" s="13">
         <v>1</v>
@@ -28765,13 +28703,13 @@
       <c r="K71" s="24"/>
       <c r="L71" s="24"/>
       <c r="M71" s="7">
-        <v>997095623</v>
+        <v>971649601</v>
       </c>
       <c r="N71" s="13">
         <v>1</v>
       </c>
       <c r="O71" s="13" t="str">
-        <f>VLOOKUP([2]Empleados!M64,TURNOS,2)</f>
+        <f>VLOOKUP([2]Empleados!M55,TURNOS,2)</f>
         <v>MAÑANA</v>
       </c>
       <c r="P71" s="18"/>
@@ -28783,10 +28721,10 @@
         <v>408</v>
       </c>
       <c r="T71" s="13">
-        <v>2</v>
-      </c>
-      <c r="U71" s="13" t="s">
-        <v>706</v>
+        <v>1</v>
+      </c>
+      <c r="U71" s="13">
+        <v>12</v>
       </c>
       <c r="V71" s="18"/>
       <c r="W71" s="18"/>
@@ -28799,39 +28737,42 @@
       </c>
       <c r="AA71" s="13"/>
       <c r="AB71" s="13" t="str">
-        <f t="shared" si="2"/>
-        <v>SANCHEZ CABRERA MERCEDES</v>
+        <f>CONCATENATE(C71," ", D71)</f>
+        <v>PUICON JAVIER MARIA CRUZ</v>
       </c>
     </row>
     <row r="72" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" s="71"/>
-      <c r="B72" s="48"/>
-      <c r="C72" s="27" t="s">
-        <v>39</v>
+      <c r="B72" s="48">
+        <v>1</v>
+      </c>
+      <c r="C72" s="11" t="s">
+        <v>490</v>
       </c>
       <c r="D72" s="11" t="s">
-        <v>40</v>
+        <v>491</v>
       </c>
       <c r="E72" s="24">
-        <v>34144</v>
-      </c>
-      <c r="F72" s="25" t="s">
-        <v>41</v>
+        <v>37518</v>
+      </c>
+      <c r="F72" s="76" t="s">
+        <v>492</v>
       </c>
       <c r="G72" s="13">
         <v>1</v>
       </c>
-      <c r="H72" s="11" t="s">
-        <v>416</v>
+      <c r="H72" s="11" t="str">
+        <f>VLOOKUP(G72,AREAS,2)</f>
+        <v>Operaciones</v>
       </c>
       <c r="I72" s="24">
-        <v>44707</v>
+        <v>44649</v>
       </c>
       <c r="J72" s="11"/>
       <c r="K72" s="11"/>
       <c r="L72" s="11"/>
       <c r="M72" s="13">
-        <v>927949335</v>
+        <v>947350799</v>
       </c>
       <c r="N72" s="13">
         <v>1</v>
@@ -28840,82 +28781,76 @@
         <v>412</v>
       </c>
       <c r="P72" s="18" t="s">
-        <v>423</v>
+        <v>493</v>
       </c>
       <c r="Q72" s="26" t="s">
-        <v>424</v>
+        <v>494</v>
       </c>
       <c r="R72" s="13" t="s">
-        <v>418</v>
-      </c>
-      <c r="S72" s="13" t="s">
-        <v>408</v>
-      </c>
-      <c r="T72" s="13">
-        <v>2</v>
-      </c>
-      <c r="U72" s="13" t="s">
-        <v>425</v>
-      </c>
-      <c r="V72" s="13" t="s">
-        <v>426</v>
-      </c>
-      <c r="W72" s="28" t="s">
-        <v>427</v>
-      </c>
-      <c r="X72" s="13"/>
-      <c r="Y72" s="13"/>
-      <c r="Z72" s="13"/>
+        <v>407</v>
+      </c>
+      <c r="S72" s="13"/>
+      <c r="T72" s="13"/>
+      <c r="U72" s="13"/>
+      <c r="V72" s="18"/>
+      <c r="W72" s="18"/>
+      <c r="X72" s="18"/>
+      <c r="Y72" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="Z72" s="13" t="s">
+        <v>15</v>
+      </c>
       <c r="AA72" s="13"/>
       <c r="AB72" s="13" t="str">
-        <f t="shared" si="2"/>
-        <v>AQUITUARI PEREZ KELLY</v>
-      </c>
-    </row>
-    <row r="73" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A73" s="71"/>
+        <f>CONCATENATE(C72," ", D72)</f>
+        <v>CANALES CAJA ANDERSON HONORIO ANGEL</v>
+      </c>
+    </row>
+    <row r="73" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="71" t="s">
+        <v>512</v>
+      </c>
       <c r="B73" s="72">
         <v>1</v>
       </c>
       <c r="C73" s="11" t="s">
-        <v>68</v>
+        <v>513</v>
       </c>
       <c r="D73" s="11" t="s">
-        <v>69</v>
+        <v>514</v>
       </c>
       <c r="E73" s="24">
-        <v>38074</v>
-      </c>
-      <c r="F73" s="76" t="s">
-        <v>456</v>
+        <v>27634</v>
+      </c>
+      <c r="F73" s="77" t="s">
+        <v>104</v>
       </c>
       <c r="G73" s="13">
         <v>1</v>
       </c>
-      <c r="H73" s="11" t="s">
-        <v>416</v>
+      <c r="H73" s="11" t="str">
+        <f>VLOOKUP(G73,AREAS,2)</f>
+        <v>Operaciones</v>
       </c>
       <c r="I73" s="24">
-        <v>44660</v>
-      </c>
-      <c r="J73" s="11"/>
-      <c r="K73" s="11"/>
-      <c r="L73" s="11"/>
+        <v>44531</v>
+      </c>
+      <c r="J73" s="24"/>
+      <c r="K73" s="24"/>
+      <c r="L73" s="24"/>
       <c r="M73" s="13">
-        <v>973294810</v>
+        <v>982552116</v>
       </c>
       <c r="N73" s="13">
         <v>1</v>
       </c>
-      <c r="O73" s="13" t="s">
-        <v>412</v>
-      </c>
-      <c r="P73" s="18" t="s">
-        <v>457</v>
-      </c>
-      <c r="Q73" s="26" t="s">
-        <v>458</v>
-      </c>
+      <c r="O73" s="13" t="str">
+        <f>VLOOKUP([2]Empleados!M20,TURNOS,2)</f>
+        <v>MAÑANA</v>
+      </c>
+      <c r="P73" s="18"/>
+      <c r="Q73" s="18"/>
       <c r="R73" s="13" t="s">
         <v>418</v>
       </c>
@@ -28923,7 +28858,7 @@
       <c r="T73" s="13"/>
       <c r="U73" s="13"/>
       <c r="V73" s="18"/>
-      <c r="W73" s="13"/>
+      <c r="W73" s="18"/>
       <c r="X73" s="18"/>
       <c r="Y73" s="13" t="s">
         <v>15</v>
@@ -28933,8 +28868,8 @@
       </c>
       <c r="AA73" s="13"/>
       <c r="AB73" s="13" t="str">
-        <f t="shared" si="2"/>
-        <v>BARTOLO SANTOS EVELYN ROSALYNDA</v>
+        <f>CONCATENATE(C73," ", D73)</f>
+        <v>COLMENARES IPANAQUE MARIA NERY</v>
       </c>
     </row>
     <row r="74" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
@@ -28997,24 +28932,26 @@
       <c r="Z74" s="13"/>
       <c r="AA74" s="13"/>
       <c r="AB74" s="13" t="str">
-        <f t="shared" ref="AB74:AB105" si="3">CONCATENATE(C74," ", D74)</f>
+        <f>CONCATENATE(C74," ", D74)</f>
         <v>PALACIOS MANCO MARIA ANDREA</v>
       </c>
     </row>
     <row r="75" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" s="71"/>
-      <c r="B75" s="48"/>
-      <c r="C75" s="27" t="s">
-        <v>53</v>
+      <c r="B75" s="48">
+        <v>1</v>
+      </c>
+      <c r="C75" s="11" t="s">
+        <v>549</v>
       </c>
       <c r="D75" s="11" t="s">
-        <v>54</v>
+        <v>279</v>
       </c>
       <c r="E75" s="24">
-        <v>37823</v>
-      </c>
-      <c r="F75" s="25" t="s">
-        <v>55</v>
+        <v>36427</v>
+      </c>
+      <c r="F75" s="76" t="s">
+        <v>550</v>
       </c>
       <c r="G75" s="13">
         <v>1</v>
@@ -29023,13 +28960,13 @@
         <v>416</v>
       </c>
       <c r="I75" s="24">
-        <v>44707</v>
+        <v>44667</v>
       </c>
       <c r="J75" s="11"/>
       <c r="K75" s="11"/>
       <c r="L75" s="11"/>
       <c r="M75" s="13">
-        <v>933645125</v>
+        <v>957116691</v>
       </c>
       <c r="N75" s="13">
         <v>1</v>
@@ -29038,10 +28975,10 @@
         <v>412</v>
       </c>
       <c r="P75" s="18" t="s">
-        <v>442</v>
+        <v>551</v>
       </c>
       <c r="Q75" s="26" t="s">
-        <v>443</v>
+        <v>552</v>
       </c>
       <c r="R75" s="13" t="s">
         <v>407</v>
@@ -29049,80 +28986,83 @@
       <c r="S75" s="13"/>
       <c r="T75" s="13"/>
       <c r="U75" s="13"/>
-      <c r="V75" s="13"/>
+      <c r="V75" s="18"/>
       <c r="W75" s="13"/>
-      <c r="X75" s="13"/>
-      <c r="Y75" s="13"/>
-      <c r="Z75" s="13"/>
+      <c r="X75" s="18"/>
+      <c r="Y75" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="Z75" s="13" t="s">
+        <v>15</v>
+      </c>
       <c r="AA75" s="13"/>
       <c r="AB75" s="13" t="str">
-        <f t="shared" si="3"/>
-        <v>AVALOS VEGA YHEIK HENRY</v>
+        <f>CONCATENATE(C75," ", D75)</f>
+        <v>ESPINOZA SANCHEZ JHOEL CRISTHIAN</v>
       </c>
     </row>
     <row r="76" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="71" t="s">
-        <v>449</v>
-      </c>
-      <c r="B76" s="48">
-        <v>1</v>
-      </c>
-      <c r="C76" s="29" t="s">
-        <v>61</v>
-      </c>
-      <c r="D76" s="29" t="s">
-        <v>450</v>
+      <c r="B76" s="48"/>
+      <c r="C76" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="D76" s="11" t="s">
+        <v>161</v>
       </c>
       <c r="E76" s="24">
-        <v>31772</v>
-      </c>
-      <c r="F76" s="25">
-        <v>44007676</v>
+        <v>36311</v>
+      </c>
+      <c r="F76" s="25" t="s">
+        <v>679</v>
       </c>
       <c r="G76" s="13">
         <v>1</v>
       </c>
-      <c r="H76" s="11" t="str">
-        <f>VLOOKUP(G76,AREAS,2)</f>
-        <v>Operaciones</v>
+      <c r="H76" s="11" t="s">
+        <v>416</v>
       </c>
       <c r="I76" s="24">
-        <v>44424</v>
-      </c>
-      <c r="J76" s="24"/>
-      <c r="K76" s="24"/>
-      <c r="L76" s="24"/>
-      <c r="M76" s="7">
-        <v>962629800</v>
+        <v>44677</v>
+      </c>
+      <c r="J76" s="11"/>
+      <c r="K76" s="11"/>
+      <c r="L76" s="11"/>
+      <c r="M76" s="13">
+        <v>949564243</v>
       </c>
       <c r="N76" s="13">
         <v>1</v>
       </c>
-      <c r="O76" s="13" t="str">
-        <f>VLOOKUP([2]Empleados!M7,TURNOS,2)</f>
-        <v>MAÑANA</v>
-      </c>
-      <c r="P76" s="18"/>
-      <c r="Q76" s="18"/>
+      <c r="O76" s="13" t="s">
+        <v>412</v>
+      </c>
+      <c r="P76" s="18" t="s">
+        <v>680</v>
+      </c>
+      <c r="Q76" s="26" t="s">
+        <v>681</v>
+      </c>
       <c r="R76" s="13" t="s">
-        <v>418</v>
+        <v>407</v>
       </c>
       <c r="S76" s="13"/>
       <c r="T76" s="13"/>
       <c r="U76" s="13"/>
       <c r="V76" s="18"/>
-      <c r="W76" s="18"/>
-      <c r="X76" s="18"/>
+      <c r="W76" s="13"/>
+      <c r="X76" s="13"/>
       <c r="Y76" s="13" t="s">
         <v>15</v>
       </c>
       <c r="Z76" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="AA76" s="13"/>
+      <c r="AA76" s="12" t="s">
+        <v>682</v>
+      </c>
       <c r="AB76" s="13" t="str">
-        <f t="shared" si="3"/>
-        <v>BALCAZAR CORI ANGELICA MARIA</v>
+        <f>CONCATENATE(C76," ", D76)</f>
+        <v>PULLO GONZALES DANNY</v>
       </c>
     </row>
     <row r="77" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
@@ -29130,17 +29070,17 @@
       <c r="B77" s="48">
         <v>1</v>
       </c>
-      <c r="C77" s="29" t="s">
-        <v>451</v>
-      </c>
-      <c r="D77" s="29" t="s">
-        <v>452</v>
+      <c r="C77" s="11" t="s">
+        <v>759</v>
+      </c>
+      <c r="D77" s="11" t="s">
+        <v>760</v>
       </c>
       <c r="E77" s="24">
-        <v>34872</v>
-      </c>
-      <c r="F77" s="25" t="s">
-        <v>453</v>
+        <v>37021</v>
+      </c>
+      <c r="F77" s="76" t="s">
+        <v>761</v>
       </c>
       <c r="G77" s="13">
         <v>1</v>
@@ -29156,7 +29096,7 @@
       <c r="K77" s="11"/>
       <c r="L77" s="11"/>
       <c r="M77" s="13">
-        <v>997851952</v>
+        <v>946044429</v>
       </c>
       <c r="N77" s="13">
         <v>1</v>
@@ -29165,17 +29105,23 @@
         <v>412</v>
       </c>
       <c r="P77" s="18" t="s">
-        <v>454</v>
+        <v>762</v>
       </c>
       <c r="Q77" s="26" t="s">
-        <v>455</v>
+        <v>763</v>
       </c>
       <c r="R77" s="13" t="s">
         <v>418</v>
       </c>
-      <c r="S77" s="13"/>
-      <c r="T77" s="13"/>
-      <c r="U77" s="13"/>
+      <c r="S77" s="13" t="s">
+        <v>408</v>
+      </c>
+      <c r="T77" s="13">
+        <v>1</v>
+      </c>
+      <c r="U77" s="13">
+        <v>1</v>
+      </c>
       <c r="V77" s="18"/>
       <c r="W77" s="18"/>
       <c r="X77" s="18"/>
@@ -29187,52 +29133,54 @@
       </c>
       <c r="AA77" s="13"/>
       <c r="AB77" s="13" t="str">
-        <f t="shared" si="3"/>
-        <v>BANCES CHAPOÑAN YANINA IBONNE</v>
+        <f>CONCATENATE(C77," ", D77)</f>
+        <v>TRUJILLO MAITA VALESKA ALEJANDRA</v>
       </c>
     </row>
     <row r="78" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="71"/>
-      <c r="B78" s="48"/>
-      <c r="C78" s="29" t="s">
-        <v>470</v>
-      </c>
-      <c r="D78" s="29" t="s">
-        <v>71</v>
+      <c r="A78" s="46" t="s">
+        <v>689</v>
+      </c>
+      <c r="B78" s="48">
+        <v>1</v>
+      </c>
+      <c r="C78" s="11" t="s">
+        <v>690</v>
+      </c>
+      <c r="D78" s="11" t="s">
+        <v>691</v>
       </c>
       <c r="E78" s="24">
-        <v>30737</v>
-      </c>
-      <c r="F78" s="25" t="s">
-        <v>471</v>
+        <v>36342</v>
+      </c>
+      <c r="F78" s="25">
+        <v>77426095</v>
       </c>
       <c r="G78" s="13">
         <v>1</v>
       </c>
-      <c r="H78" s="11" t="s">
-        <v>416</v>
+      <c r="H78" s="11" t="str">
+        <f>VLOOKUP(G78,AREAS,2)</f>
+        <v>Operaciones</v>
       </c>
       <c r="I78" s="24">
-        <v>44696</v>
-      </c>
-      <c r="J78" s="11"/>
-      <c r="K78" s="11"/>
-      <c r="L78" s="11"/>
-      <c r="M78" s="13">
-        <v>903555634</v>
+        <v>44386</v>
+      </c>
+      <c r="J78" s="24"/>
+      <c r="K78" s="24"/>
+      <c r="L78" s="24"/>
+      <c r="M78" s="7">
+        <v>965379316</v>
       </c>
       <c r="N78" s="13">
         <v>1</v>
       </c>
-      <c r="O78" s="13" t="s">
-        <v>412</v>
-      </c>
-      <c r="P78" s="18" t="s">
-        <v>472</v>
-      </c>
-      <c r="Q78" s="26" t="s">
-        <v>473</v>
-      </c>
+      <c r="O78" s="13" t="str">
+        <f>VLOOKUP([2]Empleados!M57,TURNOS,2)</f>
+        <v>MAÑANA</v>
+      </c>
+      <c r="P78" s="18"/>
+      <c r="Q78" s="18"/>
       <c r="R78" s="13" t="s">
         <v>418</v>
       </c>
@@ -29240,48 +29188,41 @@
         <v>408</v>
       </c>
       <c r="T78" s="13">
-        <v>2</v>
-      </c>
-      <c r="U78" s="13" t="s">
-        <v>474</v>
-      </c>
-      <c r="V78" s="13" t="s">
-        <v>426</v>
-      </c>
-      <c r="W78" s="28" t="s">
-        <v>475</v>
-      </c>
-      <c r="X78" s="13"/>
+        <v>1</v>
+      </c>
+      <c r="U78" s="13">
+        <v>4</v>
+      </c>
+      <c r="V78" s="18"/>
+      <c r="W78" s="18"/>
+      <c r="X78" s="18"/>
       <c r="Y78" s="13" t="s">
         <v>15</v>
       </c>
       <c r="Z78" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="AA78" s="12" t="s">
-        <v>476</v>
-      </c>
+      <c r="AA78" s="13"/>
       <c r="AB78" s="13" t="str">
-        <f t="shared" si="3"/>
-        <v>CAJAS CARDENAS KELLY GRIS</v>
-      </c>
-    </row>
-    <row r="79" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A79" s="71"/>
+        <f>CONCATENATE(C78," ", D78)</f>
+        <v>QUISPE MENESES ROXXETT</v>
+      </c>
+    </row>
+    <row r="79" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="B79" s="48">
         <v>1</v>
       </c>
       <c r="C79" s="11" t="s">
-        <v>459</v>
+        <v>95</v>
       </c>
       <c r="D79" s="11" t="s">
-        <v>460</v>
+        <v>97</v>
       </c>
       <c r="E79" s="24">
-        <v>36733</v>
+        <v>36995</v>
       </c>
       <c r="F79" s="76" t="s">
-        <v>461</v>
+        <v>795</v>
       </c>
       <c r="G79" s="13">
         <v>1</v>
@@ -29290,13 +29231,13 @@
         <v>416</v>
       </c>
       <c r="I79" s="24">
-        <v>44634</v>
+        <v>44659</v>
       </c>
       <c r="J79" s="11"/>
       <c r="K79" s="11"/>
       <c r="L79" s="11"/>
       <c r="M79" s="13">
-        <v>950778845</v>
+        <v>969901448</v>
       </c>
       <c r="N79" s="13">
         <v>1</v>
@@ -29305,19 +29246,19 @@
         <v>412</v>
       </c>
       <c r="P79" s="18" t="s">
-        <v>462</v>
+        <v>793</v>
       </c>
       <c r="Q79" s="26" t="s">
-        <v>463</v>
+        <v>796</v>
       </c>
       <c r="R79" s="13" t="s">
-        <v>407</v>
+        <v>418</v>
       </c>
       <c r="S79" s="13"/>
       <c r="T79" s="13"/>
       <c r="U79" s="13"/>
       <c r="V79" s="18"/>
-      <c r="W79" s="18"/>
+      <c r="W79" s="13"/>
       <c r="X79" s="18"/>
       <c r="Y79" s="13" t="s">
         <v>15</v>
@@ -29327,55 +29268,52 @@
       </c>
       <c r="AA79" s="13"/>
       <c r="AB79" s="13" t="str">
-        <f t="shared" si="3"/>
-        <v>BERNALES CASTRO JORDY JAMPIER</v>
+        <f>CONCATENATE(C79," ", D79)</f>
+        <v>ZARPAN SILVA ROSARIO DEL PILAR</v>
       </c>
     </row>
     <row r="80" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="71" t="s">
-        <v>488</v>
-      </c>
-      <c r="B80" s="72">
-        <v>1</v>
-      </c>
-      <c r="C80" s="29" t="s">
-        <v>75</v>
-      </c>
-      <c r="D80" s="29" t="s">
-        <v>76</v>
+      <c r="B80" s="1">
+        <v>1</v>
+      </c>
+      <c r="C80" s="11" t="s">
+        <v>333</v>
+      </c>
+      <c r="D80" s="11" t="s">
+        <v>334</v>
       </c>
       <c r="E80" s="24">
-        <v>34222</v>
-      </c>
-      <c r="F80" s="11">
-        <v>47941239</v>
+        <v>36377</v>
+      </c>
+      <c r="F80" s="25" t="s">
+        <v>692</v>
       </c>
       <c r="G80" s="13">
         <v>1</v>
       </c>
-      <c r="H80" s="11" t="str">
-        <f>VLOOKUP(G80,AREAS,2)</f>
-        <v>Operaciones</v>
+      <c r="H80" s="11" t="s">
+        <v>416</v>
       </c>
       <c r="I80" s="24">
-        <v>44498</v>
-      </c>
-      <c r="J80" s="24"/>
-      <c r="K80" s="24"/>
-      <c r="L80" s="24"/>
-      <c r="M80" s="7">
-        <v>989541443</v>
+        <v>44659</v>
+      </c>
+      <c r="J80" s="11"/>
+      <c r="K80" s="11"/>
+      <c r="L80" s="11"/>
+      <c r="M80" s="13">
+        <v>991072040</v>
       </c>
       <c r="N80" s="13">
         <v>1</v>
       </c>
-      <c r="O80" s="13" t="str">
-        <f>VLOOKUP([2]Empleados!M13,TURNOS,2)</f>
-        <v>MAÑANA</v>
-      </c>
-      <c r="P80" s="18"/>
+      <c r="O80" s="13" t="s">
+        <v>412</v>
+      </c>
+      <c r="P80" s="18" t="s">
+        <v>566</v>
+      </c>
       <c r="Q80" s="26" t="s">
-        <v>489</v>
+        <v>693</v>
       </c>
       <c r="R80" s="13" t="s">
         <v>418</v>
@@ -29384,7 +29322,7 @@
       <c r="T80" s="13"/>
       <c r="U80" s="13"/>
       <c r="V80" s="18"/>
-      <c r="W80" s="18"/>
+      <c r="W80" s="13"/>
       <c r="X80" s="18"/>
       <c r="Y80" s="13" t="s">
         <v>15</v>
@@ -29394,28 +29332,28 @@
       </c>
       <c r="AA80" s="13"/>
       <c r="AB80" s="13" t="str">
-        <f t="shared" si="3"/>
-        <v>CAMPOS VILLALTA LOURDES ISABEL</v>
+        <f>CONCATENATE(C80," ", D80)</f>
+        <v>RAMIREZ HUAMANI FIORELLA STHEFANI</v>
       </c>
     </row>
     <row r="81" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" s="46" t="s">
-        <v>736</v>
-      </c>
-      <c r="B81" s="1">
+        <v>701</v>
+      </c>
+      <c r="B81" s="72">
         <v>1</v>
       </c>
       <c r="C81" s="11" t="s">
-        <v>737</v>
+        <v>702</v>
       </c>
       <c r="D81" s="11" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="E81" s="24">
-        <v>35602</v>
+        <v>31182</v>
       </c>
       <c r="F81" s="25">
-        <v>77462803</v>
+        <v>43030843</v>
       </c>
       <c r="G81" s="13">
         <v>1</v>
@@ -29425,19 +29363,19 @@
         <v>Operaciones</v>
       </c>
       <c r="I81" s="24">
-        <v>44523</v>
+        <v>44456</v>
       </c>
       <c r="J81" s="24"/>
       <c r="K81" s="24"/>
       <c r="L81" s="24"/>
       <c r="M81" s="7">
-        <v>920801489</v>
+        <v>977646993</v>
       </c>
       <c r="N81" s="13">
         <v>1</v>
       </c>
       <c r="O81" s="13" t="str">
-        <f>VLOOKUP([2]Empleados!M71,TURNOS,2)</f>
+        <f>VLOOKUP([2]Empleados!M62,TURNOS,2)</f>
         <v>MAÑANA</v>
       </c>
       <c r="P81" s="18"/>
@@ -29445,9 +29383,15 @@
       <c r="R81" s="13" t="s">
         <v>418</v>
       </c>
-      <c r="S81" s="13"/>
-      <c r="T81" s="13"/>
-      <c r="U81" s="13"/>
+      <c r="S81" s="13" t="s">
+        <v>408</v>
+      </c>
+      <c r="T81" s="13">
+        <v>2</v>
+      </c>
+      <c r="U81" s="13" t="s">
+        <v>703</v>
+      </c>
       <c r="V81" s="18"/>
       <c r="W81" s="18"/>
       <c r="X81" s="18"/>
@@ -29459,28 +29403,28 @@
       </c>
       <c r="AA81" s="13"/>
       <c r="AB81" s="13" t="str">
-        <f t="shared" si="3"/>
-        <v>SUEL CAYLLAHUA LISET</v>
+        <f>CONCATENATE(C81," ", D81)</f>
+        <v>RUIZ MACEDO SUSANY MARIA</v>
       </c>
     </row>
     <row r="82" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" s="46" t="s">
-        <v>738</v>
-      </c>
-      <c r="B82" s="1">
+        <v>704</v>
+      </c>
+      <c r="B82" s="72">
         <v>1</v>
       </c>
       <c r="C82" s="11" t="s">
-        <v>739</v>
+        <v>705</v>
       </c>
       <c r="D82" s="11" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
       <c r="E82" s="24">
-        <v>33817</v>
+        <v>30573</v>
       </c>
       <c r="F82" s="25">
-        <v>71329572</v>
+        <v>41996696</v>
       </c>
       <c r="G82" s="13">
         <v>1</v>
@@ -29490,19 +29434,19 @@
         <v>Operaciones</v>
       </c>
       <c r="I82" s="24">
-        <v>44482</v>
+        <v>44348</v>
       </c>
       <c r="J82" s="24"/>
       <c r="K82" s="24"/>
       <c r="L82" s="24"/>
       <c r="M82" s="7">
-        <v>965966240</v>
+        <v>997095623</v>
       </c>
       <c r="N82" s="13">
         <v>1</v>
       </c>
       <c r="O82" s="13" t="str">
-        <f>VLOOKUP([2]Empleados!M72,TURNOS,2)</f>
+        <f>VLOOKUP([2]Empleados!M64,TURNOS,2)</f>
         <v>MAÑANA</v>
       </c>
       <c r="P82" s="18"/>
@@ -29517,7 +29461,7 @@
         <v>2</v>
       </c>
       <c r="U82" s="13" t="s">
-        <v>740</v>
+        <v>706</v>
       </c>
       <c r="V82" s="18"/>
       <c r="W82" s="18"/>
@@ -29530,24 +29474,26 @@
       </c>
       <c r="AA82" s="13"/>
       <c r="AB82" s="13" t="str">
-        <f t="shared" si="3"/>
-        <v>SULLON GARCIA KATHERINE ELIZABETH</v>
+        <f>CONCATENATE(C82," ", D82)</f>
+        <v>SANCHEZ CABRERA MERCEDES</v>
       </c>
     </row>
     <row r="83" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" s="71"/>
-      <c r="B83" s="72"/>
-      <c r="C83" s="27" t="s">
-        <v>145</v>
+      <c r="B83" s="72">
+        <v>1</v>
+      </c>
+      <c r="C83" s="11" t="s">
+        <v>68</v>
       </c>
       <c r="D83" s="11" t="s">
-        <v>146</v>
+        <v>69</v>
       </c>
       <c r="E83" s="24">
-        <v>34176</v>
-      </c>
-      <c r="F83" s="25" t="s">
-        <v>147</v>
+        <v>38074</v>
+      </c>
+      <c r="F83" s="76" t="s">
+        <v>456</v>
       </c>
       <c r="G83" s="13">
         <v>1</v>
@@ -29556,13 +29502,13 @@
         <v>416</v>
       </c>
       <c r="I83" s="24">
-        <v>44708</v>
+        <v>44660</v>
       </c>
       <c r="J83" s="11"/>
       <c r="K83" s="11"/>
       <c r="L83" s="11"/>
       <c r="M83" s="13">
-        <v>995649370</v>
+        <v>973294810</v>
       </c>
       <c r="N83" s="13">
         <v>1</v>
@@ -29571,10 +29517,10 @@
         <v>412</v>
       </c>
       <c r="P83" s="18" t="s">
-        <v>522</v>
+        <v>457</v>
       </c>
       <c r="Q83" s="26" t="s">
-        <v>523</v>
+        <v>458</v>
       </c>
       <c r="R83" s="13" t="s">
         <v>418</v>
@@ -29582,39 +29528,39 @@
       <c r="S83" s="13"/>
       <c r="T83" s="13"/>
       <c r="U83" s="13"/>
-      <c r="V83" s="13" t="s">
-        <v>426</v>
-      </c>
-      <c r="W83" s="28" t="s">
-        <v>524</v>
-      </c>
-      <c r="X83" s="13"/>
-      <c r="Y83" s="13"/>
-      <c r="Z83" s="13"/>
+      <c r="V83" s="18"/>
+      <c r="W83" s="13"/>
+      <c r="X83" s="18"/>
+      <c r="Y83" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="Z83" s="13" t="s">
+        <v>15</v>
+      </c>
       <c r="AA83" s="13"/>
       <c r="AB83" s="13" t="str">
-        <f t="shared" si="3"/>
-        <v>DIAZ CASTILLO EVELYN ROSALI</v>
+        <f>CONCATENATE(C83," ", D83)</f>
+        <v>BARTOLO SANTOS EVELYN ROSALYNDA</v>
       </c>
     </row>
     <row r="84" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="46" t="s">
-        <v>553</v>
+      <c r="A84" s="71" t="s">
+        <v>449</v>
       </c>
       <c r="B84" s="72">
         <v>1</v>
       </c>
       <c r="C84" s="29" t="s">
-        <v>186</v>
+        <v>61</v>
       </c>
       <c r="D84" s="29" t="s">
-        <v>187</v>
+        <v>450</v>
       </c>
       <c r="E84" s="24">
-        <v>31088</v>
+        <v>31772</v>
       </c>
       <c r="F84" s="25">
-        <v>42912817</v>
+        <v>44007676</v>
       </c>
       <c r="G84" s="13">
         <v>1</v>
@@ -29624,19 +29570,19 @@
         <v>Operaciones</v>
       </c>
       <c r="I84" s="24">
-        <v>44348</v>
+        <v>44424</v>
       </c>
       <c r="J84" s="24"/>
       <c r="K84" s="24"/>
       <c r="L84" s="24"/>
       <c r="M84" s="7">
-        <v>937216320</v>
+        <v>962629800</v>
       </c>
       <c r="N84" s="13">
         <v>1</v>
       </c>
       <c r="O84" s="13" t="str">
-        <f>VLOOKUP([2]Empleados!M27,TURNOS,2)</f>
+        <f>VLOOKUP([2]Empleados!M7,TURNOS,2)</f>
         <v>MAÑANA</v>
       </c>
       <c r="P84" s="18"/>
@@ -29644,15 +29590,9 @@
       <c r="R84" s="13" t="s">
         <v>418</v>
       </c>
-      <c r="S84" s="13" t="s">
-        <v>408</v>
-      </c>
-      <c r="T84" s="13">
-        <v>2</v>
-      </c>
-      <c r="U84" s="13" t="s">
-        <v>554</v>
-      </c>
+      <c r="S84" s="13"/>
+      <c r="T84" s="13"/>
+      <c r="U84" s="13"/>
       <c r="V84" s="18"/>
       <c r="W84" s="18"/>
       <c r="X84" s="18"/>
@@ -29664,28 +29604,26 @@
       </c>
       <c r="AA84" s="13"/>
       <c r="AB84" s="13" t="str">
-        <f t="shared" si="3"/>
-        <v>FLORES LOPEZ DIANA</v>
+        <f>CONCATENATE(C84," ", D84)</f>
+        <v>BALCAZAR CORI ANGELICA MARIA</v>
       </c>
     </row>
     <row r="85" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="46" t="s">
-        <v>613</v>
-      </c>
+      <c r="A85" s="71"/>
       <c r="B85" s="72">
         <v>1</v>
       </c>
       <c r="C85" s="29" t="s">
-        <v>614</v>
+        <v>451</v>
       </c>
       <c r="D85" s="29" t="s">
-        <v>212</v>
+        <v>452</v>
       </c>
       <c r="E85" s="24">
-        <v>33554</v>
-      </c>
-      <c r="F85" s="25">
-        <v>47401534</v>
+        <v>34872</v>
+      </c>
+      <c r="F85" s="25" t="s">
+        <v>453</v>
       </c>
       <c r="G85" s="13">
         <v>1</v>
@@ -29695,33 +29633,32 @@
         <v>Operaciones</v>
       </c>
       <c r="I85" s="24">
-        <v>44356</v>
-      </c>
-      <c r="J85" s="24"/>
-      <c r="K85" s="24"/>
-      <c r="L85" s="24"/>
-      <c r="M85" s="7">
-        <v>916321115</v>
+        <v>44649</v>
+      </c>
+      <c r="J85" s="11"/>
+      <c r="K85" s="11"/>
+      <c r="L85" s="11"/>
+      <c r="M85" s="13">
+        <v>997851952</v>
       </c>
       <c r="N85" s="13">
         <v>1</v>
       </c>
-      <c r="O85" s="13" t="str">
-        <f>VLOOKUP([2]Empleados!M44,TURNOS,2)</f>
-        <v>MAÑANA</v>
-      </c>
-      <c r="P85" s="18"/>
-      <c r="Q85" s="18"/>
+      <c r="O85" s="13" t="s">
+        <v>412</v>
+      </c>
+      <c r="P85" s="18" t="s">
+        <v>454</v>
+      </c>
+      <c r="Q85" s="26" t="s">
+        <v>455</v>
+      </c>
       <c r="R85" s="13" t="s">
         <v>418</v>
       </c>
       <c r="S85" s="13"/>
-      <c r="T85" s="13">
-        <v>1</v>
-      </c>
-      <c r="U85" s="13">
-        <v>15</v>
-      </c>
+      <c r="T85" s="13"/>
+      <c r="U85" s="13"/>
       <c r="V85" s="18"/>
       <c r="W85" s="18"/>
       <c r="X85" s="18"/>
@@ -29733,23 +29670,24 @@
       </c>
       <c r="AA85" s="13"/>
       <c r="AB85" s="13" t="str">
-        <f t="shared" si="3"/>
-        <v>MALASQUEZ CHUMPITAZ MILAGROS</v>
+        <f>CONCATENATE(C85," ", D85)</f>
+        <v>BANCES CHAPOÑAN YANINA IBONNE</v>
       </c>
     </row>
     <row r="86" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="71"/>
       <c r="B86" s="72"/>
-      <c r="C86" s="27" t="s">
-        <v>311</v>
-      </c>
-      <c r="D86" s="11" t="s">
-        <v>312</v>
+      <c r="C86" s="29" t="s">
+        <v>470</v>
+      </c>
+      <c r="D86" s="29" t="s">
+        <v>71</v>
       </c>
       <c r="E86" s="24">
-        <v>37517</v>
+        <v>30737</v>
       </c>
       <c r="F86" s="25" t="s">
-        <v>313</v>
+        <v>471</v>
       </c>
       <c r="G86" s="13">
         <v>1</v>
@@ -29758,13 +29696,13 @@
         <v>416</v>
       </c>
       <c r="I86" s="24">
-        <v>44706</v>
+        <v>44696</v>
       </c>
       <c r="J86" s="11"/>
       <c r="K86" s="11"/>
       <c r="L86" s="11"/>
       <c r="M86" s="13">
-        <v>950473606</v>
+        <v>903555634</v>
       </c>
       <c r="N86" s="13">
         <v>1</v>
@@ -29773,24 +29711,42 @@
         <v>412</v>
       </c>
       <c r="P86" s="18" t="s">
-        <v>620</v>
-      </c>
-      <c r="Q86" s="38"/>
+        <v>472</v>
+      </c>
+      <c r="Q86" s="26" t="s">
+        <v>473</v>
+      </c>
       <c r="R86" s="13" t="s">
         <v>418</v>
       </c>
-      <c r="S86" s="13"/>
-      <c r="T86" s="13"/>
-      <c r="U86" s="13"/>
-      <c r="V86" s="13"/>
-      <c r="W86" s="13"/>
+      <c r="S86" s="13" t="s">
+        <v>408</v>
+      </c>
+      <c r="T86" s="13">
+        <v>2</v>
+      </c>
+      <c r="U86" s="13" t="s">
+        <v>474</v>
+      </c>
+      <c r="V86" s="13" t="s">
+        <v>426</v>
+      </c>
+      <c r="W86" s="28" t="s">
+        <v>475</v>
+      </c>
       <c r="X86" s="13"/>
-      <c r="Y86" s="13"/>
-      <c r="Z86" s="13"/>
-      <c r="AA86" s="13"/>
+      <c r="Y86" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="Z86" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="AA86" s="12" t="s">
+        <v>476</v>
+      </c>
       <c r="AB86" s="13" t="str">
-        <f t="shared" si="3"/>
-        <v>MANCO FERNANDEZ ROSA MILAGROS</v>
+        <f>CONCATENATE(C86," ", D86)</f>
+        <v>CAJAS CARDENAS KELLY GRIS</v>
       </c>
     </row>
     <row r="87" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
@@ -29860,67 +29816,60 @@
       <c r="Z87" s="13"/>
       <c r="AA87" s="13"/>
       <c r="AB87" s="13" t="str">
-        <f t="shared" si="3"/>
+        <f>CONCATENATE(C87," ", D87)</f>
         <v>RAMOS CAMPOS JULIA CARMEN</v>
       </c>
     </row>
     <row r="88" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="71"/>
       <c r="B88" s="72">
         <v>1</v>
       </c>
-      <c r="C88" s="29" t="s">
-        <v>314</v>
-      </c>
-      <c r="D88" s="29" t="s">
-        <v>316</v>
+      <c r="C88" s="11" t="s">
+        <v>459</v>
+      </c>
+      <c r="D88" s="11" t="s">
+        <v>460</v>
       </c>
       <c r="E88" s="24">
-        <v>26854</v>
-      </c>
-      <c r="F88" s="25">
-        <v>15427651</v>
+        <v>36733</v>
+      </c>
+      <c r="F88" s="76" t="s">
+        <v>461</v>
       </c>
       <c r="G88" s="13">
         <v>1</v>
       </c>
-      <c r="H88" s="11" t="str">
-        <f>VLOOKUP(G88,AREAS,2)</f>
-        <v>Operaciones</v>
+      <c r="H88" s="11" t="s">
+        <v>416</v>
       </c>
       <c r="I88" s="24">
-        <v>44608</v>
+        <v>44634</v>
       </c>
       <c r="J88" s="11"/>
       <c r="K88" s="11"/>
       <c r="L88" s="11"/>
       <c r="M88" s="13">
-        <v>951420392</v>
+        <v>950778845</v>
       </c>
       <c r="N88" s="13">
         <v>1</v>
       </c>
-      <c r="O88" s="13" t="str">
-        <f>VLOOKUP([2]Empleados!M93,TURNOS,2)</f>
-        <v>MAÑANA</v>
+      <c r="O88" s="13" t="s">
+        <v>412</v>
       </c>
       <c r="P88" s="18" t="s">
-        <v>624</v>
+        <v>462</v>
       </c>
       <c r="Q88" s="26" t="s">
-        <v>625</v>
+        <v>463</v>
       </c>
       <c r="R88" s="13" t="s">
-        <v>418</v>
-      </c>
-      <c r="S88" s="13" t="s">
-        <v>408</v>
-      </c>
-      <c r="T88" s="13">
-        <v>2</v>
-      </c>
-      <c r="U88" s="13" t="s">
-        <v>626</v>
-      </c>
+        <v>407</v>
+      </c>
+      <c r="S88" s="13"/>
+      <c r="T88" s="13"/>
+      <c r="U88" s="13"/>
       <c r="V88" s="18"/>
       <c r="W88" s="18"/>
       <c r="X88" s="18"/>
@@ -29932,55 +29881,58 @@
       </c>
       <c r="AA88" s="13"/>
       <c r="AB88" s="13" t="str">
-        <f t="shared" si="3"/>
-        <v>MASSA MONJA VERONICA VIVIEN</v>
-      </c>
-    </row>
-    <row r="89" spans="1:28" x14ac:dyDescent="0.25">
+        <f>CONCATENATE(C88," ", D88)</f>
+        <v>BERNALES CASTRO JORDY JAMPIER</v>
+      </c>
+    </row>
+    <row r="89" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="71" t="s">
+        <v>488</v>
+      </c>
       <c r="B89" s="72">
         <v>1</v>
       </c>
-      <c r="C89" s="11" t="s">
-        <v>663</v>
-      </c>
-      <c r="D89" s="11" t="s">
-        <v>325</v>
+      <c r="C89" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="D89" s="29" t="s">
+        <v>76</v>
       </c>
       <c r="E89" s="24">
-        <v>35161</v>
-      </c>
-      <c r="F89" s="76" t="s">
-        <v>326</v>
+        <v>34222</v>
+      </c>
+      <c r="F89" s="11">
+        <v>47941239</v>
       </c>
       <c r="G89" s="13">
         <v>1</v>
       </c>
-      <c r="H89" s="11" t="s">
-        <v>416</v>
+      <c r="H89" s="11" t="str">
+        <f>VLOOKUP(G89,AREAS,2)</f>
+        <v>Operaciones</v>
       </c>
       <c r="I89" s="24">
-        <v>44624</v>
-      </c>
-      <c r="J89" s="11"/>
-      <c r="K89" s="11"/>
-      <c r="L89" s="11"/>
-      <c r="M89" s="13">
-        <v>954311228</v>
+        <v>44498</v>
+      </c>
+      <c r="J89" s="24"/>
+      <c r="K89" s="24"/>
+      <c r="L89" s="24"/>
+      <c r="M89" s="7">
+        <v>989541443</v>
       </c>
       <c r="N89" s="13">
         <v>1</v>
       </c>
-      <c r="O89" s="13" t="s">
-        <v>412</v>
-      </c>
-      <c r="P89" s="18" t="s">
-        <v>664</v>
-      </c>
+      <c r="O89" s="13" t="str">
+        <f>VLOOKUP([2]Empleados!M13,TURNOS,2)</f>
+        <v>MAÑANA</v>
+      </c>
+      <c r="P89" s="18"/>
       <c r="Q89" s="26" t="s">
-        <v>665</v>
+        <v>489</v>
       </c>
       <c r="R89" s="13" t="s">
-        <v>407</v>
+        <v>418</v>
       </c>
       <c r="S89" s="13"/>
       <c r="T89" s="13"/>
@@ -29996,28 +29948,28 @@
       </c>
       <c r="AA89" s="13"/>
       <c r="AB89" s="13" t="str">
-        <f t="shared" si="3"/>
-        <v>PEREZ CAYCHO DAVID ISRAEL</v>
+        <f>CONCATENATE(C89," ", D89)</f>
+        <v>CAMPOS VILLALTA LOURDES ISABEL</v>
       </c>
     </row>
     <row r="90" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" s="46" t="s">
-        <v>756</v>
+        <v>736</v>
       </c>
       <c r="B90" s="1">
         <v>1</v>
       </c>
       <c r="C90" s="11" t="s">
-        <v>757</v>
+        <v>737</v>
       </c>
       <c r="D90" s="11" t="s">
-        <v>758</v>
+        <v>261</v>
       </c>
       <c r="E90" s="24">
-        <v>35425</v>
+        <v>35602</v>
       </c>
       <c r="F90" s="25">
-        <v>73501156</v>
+        <v>77462803</v>
       </c>
       <c r="G90" s="13">
         <v>1</v>
@@ -30027,19 +29979,19 @@
         <v>Operaciones</v>
       </c>
       <c r="I90" s="24">
-        <v>44498</v>
+        <v>44523</v>
       </c>
       <c r="J90" s="24"/>
       <c r="K90" s="24"/>
       <c r="L90" s="24"/>
       <c r="M90" s="7">
-        <v>933761672</v>
+        <v>920801489</v>
       </c>
       <c r="N90" s="13">
         <v>1</v>
       </c>
       <c r="O90" s="13" t="str">
-        <f>VLOOKUP([2]Empleados!M75,TURNOS,2)</f>
+        <f>VLOOKUP([2]Empleados!M71,TURNOS,2)</f>
         <v>MAÑANA</v>
       </c>
       <c r="P90" s="18"/>
@@ -30061,25 +30013,28 @@
       </c>
       <c r="AA90" s="13"/>
       <c r="AB90" s="13" t="str">
-        <f t="shared" si="3"/>
-        <v>TORRES MORALES MERY LANDIS</v>
+        <f>CONCATENATE(C90," ", D90)</f>
+        <v>SUEL CAYLLAHUA LISET</v>
       </c>
     </row>
     <row r="91" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B91" s="72">
-        <v>1</v>
-      </c>
-      <c r="C91" s="29" t="s">
-        <v>650</v>
-      </c>
-      <c r="D91" s="29" t="s">
-        <v>651</v>
+      <c r="A91" s="46" t="s">
+        <v>738</v>
+      </c>
+      <c r="B91" s="1">
+        <v>1</v>
+      </c>
+      <c r="C91" s="11" t="s">
+        <v>739</v>
+      </c>
+      <c r="D91" s="11" t="s">
+        <v>264</v>
       </c>
       <c r="E91" s="24">
-        <v>37260</v>
+        <v>33817</v>
       </c>
       <c r="F91" s="25">
-        <v>76412113</v>
+        <v>71329572</v>
       </c>
       <c r="G91" s="13">
         <v>1</v>
@@ -30089,19 +30044,19 @@
         <v>Operaciones</v>
       </c>
       <c r="I91" s="24">
-        <v>44348</v>
-      </c>
-      <c r="J91" s="11"/>
-      <c r="K91" s="11"/>
-      <c r="L91" s="11"/>
-      <c r="M91" s="13">
-        <v>978440193</v>
+        <v>44482</v>
+      </c>
+      <c r="J91" s="24"/>
+      <c r="K91" s="24"/>
+      <c r="L91" s="24"/>
+      <c r="M91" s="7">
+        <v>965966240</v>
       </c>
       <c r="N91" s="13">
         <v>1</v>
       </c>
       <c r="O91" s="13" t="str">
-        <f>VLOOKUP([2]Empleados!M91,TURNOS,2)</f>
+        <f>VLOOKUP([2]Empleados!M72,TURNOS,2)</f>
         <v>MAÑANA</v>
       </c>
       <c r="P91" s="18"/>
@@ -30109,9 +30064,15 @@
       <c r="R91" s="13" t="s">
         <v>418</v>
       </c>
-      <c r="S91" s="13"/>
-      <c r="T91" s="13"/>
-      <c r="U91" s="13"/>
+      <c r="S91" s="13" t="s">
+        <v>408</v>
+      </c>
+      <c r="T91" s="13">
+        <v>2</v>
+      </c>
+      <c r="U91" s="13" t="s">
+        <v>740</v>
+      </c>
       <c r="V91" s="18"/>
       <c r="W91" s="18"/>
       <c r="X91" s="18"/>
@@ -30123,61 +30084,68 @@
       </c>
       <c r="AA91" s="13"/>
       <c r="AB91" s="13" t="str">
-        <f t="shared" si="3"/>
-        <v>PADILLA RAMIREZ IVY ARACELY</v>
+        <f>CONCATENATE(C91," ", D91)</f>
+        <v>SULLON GARCIA KATHERINE ELIZABETH</v>
       </c>
     </row>
     <row r="92" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="46" t="s">
+        <v>553</v>
+      </c>
       <c r="B92" s="72">
         <v>1</v>
       </c>
       <c r="C92" s="29" t="s">
-        <v>322</v>
+        <v>186</v>
       </c>
       <c r="D92" s="29" t="s">
-        <v>323</v>
+        <v>187</v>
       </c>
       <c r="E92" s="24">
-        <v>35872</v>
-      </c>
-      <c r="F92" s="25" t="s">
-        <v>660</v>
+        <v>31088</v>
+      </c>
+      <c r="F92" s="25">
+        <v>42912817</v>
       </c>
       <c r="G92" s="13">
         <v>1</v>
       </c>
-      <c r="H92" s="11" t="s">
-        <v>416</v>
+      <c r="H92" s="11" t="str">
+        <f>VLOOKUP(G92,AREAS,2)</f>
+        <v>Operaciones</v>
       </c>
       <c r="I92" s="24">
-        <v>44659</v>
-      </c>
-      <c r="J92" s="11"/>
-      <c r="K92" s="11"/>
-      <c r="L92" s="11"/>
-      <c r="M92" s="13">
-        <v>973502797</v>
+        <v>44348</v>
+      </c>
+      <c r="J92" s="24"/>
+      <c r="K92" s="24"/>
+      <c r="L92" s="24"/>
+      <c r="M92" s="7">
+        <v>937216320</v>
       </c>
       <c r="N92" s="13">
         <v>1</v>
       </c>
-      <c r="O92" s="13" t="s">
-        <v>412</v>
-      </c>
-      <c r="P92" s="18" t="s">
-        <v>661</v>
-      </c>
-      <c r="Q92" s="26" t="s">
-        <v>662</v>
-      </c>
+      <c r="O92" s="13" t="str">
+        <f>VLOOKUP([2]Empleados!M27,TURNOS,2)</f>
+        <v>MAÑANA</v>
+      </c>
+      <c r="P92" s="18"/>
+      <c r="Q92" s="18"/>
       <c r="R92" s="13" t="s">
         <v>418</v>
       </c>
-      <c r="S92" s="13"/>
-      <c r="T92" s="13"/>
-      <c r="U92" s="13"/>
+      <c r="S92" s="13" t="s">
+        <v>408</v>
+      </c>
+      <c r="T92" s="13">
+        <v>2</v>
+      </c>
+      <c r="U92" s="13" t="s">
+        <v>554</v>
+      </c>
       <c r="V92" s="18"/>
-      <c r="W92" s="13"/>
+      <c r="W92" s="18"/>
       <c r="X92" s="18"/>
       <c r="Y92" s="13" t="s">
         <v>15</v>
@@ -30187,66 +30155,77 @@
       </c>
       <c r="AA92" s="13"/>
       <c r="AB92" s="13" t="str">
-        <f t="shared" si="3"/>
-        <v>PAUCAR MAYTA BEATRIZ SALUSTRIA</v>
+        <f>CONCATENATE(C92," ", D92)</f>
+        <v>FLORES LOPEZ DIANA</v>
       </c>
     </row>
     <row r="93" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B93" s="72"/>
-      <c r="C93" s="27" t="s">
-        <v>327</v>
-      </c>
-      <c r="D93" s="11" t="s">
-        <v>328</v>
+      <c r="A93" s="46" t="s">
+        <v>613</v>
+      </c>
+      <c r="B93" s="72">
+        <v>1</v>
+      </c>
+      <c r="C93" s="29" t="s">
+        <v>614</v>
+      </c>
+      <c r="D93" s="29" t="s">
+        <v>212</v>
       </c>
       <c r="E93" s="24">
-        <v>38119</v>
-      </c>
-      <c r="F93" s="25" t="s">
-        <v>329</v>
+        <v>33554</v>
+      </c>
+      <c r="F93" s="25">
+        <v>47401534</v>
       </c>
       <c r="G93" s="13">
         <v>1</v>
       </c>
-      <c r="H93" s="11" t="s">
-        <v>416</v>
+      <c r="H93" s="11" t="str">
+        <f>VLOOKUP(G93,AREAS,2)</f>
+        <v>Operaciones</v>
       </c>
       <c r="I93" s="24">
-        <v>44706</v>
-      </c>
-      <c r="J93" s="11"/>
-      <c r="K93" s="11"/>
-      <c r="L93" s="11"/>
-      <c r="M93" s="13">
-        <v>951068840</v>
+        <v>44356</v>
+      </c>
+      <c r="J93" s="24"/>
+      <c r="K93" s="24"/>
+      <c r="L93" s="24"/>
+      <c r="M93" s="7">
+        <v>916321115</v>
       </c>
       <c r="N93" s="13">
         <v>1</v>
       </c>
-      <c r="O93" s="13" t="s">
-        <v>412</v>
-      </c>
-      <c r="P93" s="18" t="s">
-        <v>666</v>
-      </c>
-      <c r="Q93" s="26" t="s">
-        <v>667</v>
-      </c>
+      <c r="O93" s="13" t="str">
+        <f>VLOOKUP([2]Empleados!M44,TURNOS,2)</f>
+        <v>MAÑANA</v>
+      </c>
+      <c r="P93" s="18"/>
+      <c r="Q93" s="18"/>
       <c r="R93" s="13" t="s">
-        <v>407</v>
+        <v>418</v>
       </c>
       <c r="S93" s="13"/>
-      <c r="T93" s="13"/>
-      <c r="U93" s="13"/>
-      <c r="V93" s="13"/>
-      <c r="W93" s="13"/>
-      <c r="X93" s="13"/>
-      <c r="Y93" s="13"/>
-      <c r="Z93" s="13"/>
+      <c r="T93" s="13">
+        <v>1</v>
+      </c>
+      <c r="U93" s="13">
+        <v>15</v>
+      </c>
+      <c r="V93" s="18"/>
+      <c r="W93" s="18"/>
+      <c r="X93" s="18"/>
+      <c r="Y93" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="Z93" s="13" t="s">
+        <v>15</v>
+      </c>
       <c r="AA93" s="13"/>
       <c r="AB93" s="13" t="str">
-        <f t="shared" si="3"/>
-        <v>PEREZ CORDOVA BOOZ OBED</v>
+        <f>CONCATENATE(C93," ", D93)</f>
+        <v>MALASQUEZ CHUMPITAZ MILAGROS</v>
       </c>
     </row>
     <row r="94" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
@@ -30314,86 +30293,97 @@
       <c r="Z94" s="13"/>
       <c r="AA94" s="13"/>
       <c r="AB94" s="73" t="str">
-        <f t="shared" si="3"/>
+        <f>CONCATENATE(C94," ", D94)</f>
         <v>GABRIEL CAMPOS ANA</v>
       </c>
     </row>
     <row r="95" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B95" s="72"/>
+      <c r="B95" s="72">
+        <v>1</v>
+      </c>
       <c r="C95" s="29" t="s">
-        <v>668</v>
+        <v>314</v>
       </c>
       <c r="D95" s="29" t="s">
-        <v>299</v>
+        <v>316</v>
       </c>
       <c r="E95" s="24">
-        <v>36441</v>
-      </c>
-      <c r="F95" s="25" t="s">
-        <v>669</v>
+        <v>26854</v>
+      </c>
+      <c r="F95" s="25">
+        <v>15427651</v>
       </c>
       <c r="G95" s="13">
         <v>1</v>
       </c>
-      <c r="H95" s="11" t="s">
-        <v>416</v>
+      <c r="H95" s="11" t="str">
+        <f>VLOOKUP(G95,AREAS,2)</f>
+        <v>Operaciones</v>
       </c>
       <c r="I95" s="24">
-        <v>44693</v>
+        <v>44608</v>
       </c>
       <c r="J95" s="11"/>
       <c r="K95" s="11"/>
       <c r="L95" s="11"/>
       <c r="M95" s="13">
-        <v>989632139</v>
+        <v>951420392</v>
       </c>
       <c r="N95" s="13">
         <v>1</v>
       </c>
-      <c r="O95" s="13" t="s">
-        <v>412</v>
+      <c r="O95" s="13" t="str">
+        <f>VLOOKUP([2]Empleados!M93,TURNOS,2)</f>
+        <v>MAÑANA</v>
       </c>
       <c r="P95" s="18" t="s">
-        <v>670</v>
+        <v>624</v>
       </c>
       <c r="Q95" s="26" t="s">
-        <v>671</v>
+        <v>625</v>
       </c>
       <c r="R95" s="13" t="s">
-        <v>407</v>
-      </c>
-      <c r="S95" s="13"/>
-      <c r="T95" s="13"/>
-      <c r="U95" s="13"/>
+        <v>418</v>
+      </c>
+      <c r="S95" s="13" t="s">
+        <v>408</v>
+      </c>
+      <c r="T95" s="13">
+        <v>2</v>
+      </c>
+      <c r="U95" s="13" t="s">
+        <v>626</v>
+      </c>
       <c r="V95" s="18"/>
-      <c r="W95" s="13"/>
-      <c r="X95" s="13"/>
+      <c r="W95" s="18"/>
+      <c r="X95" s="18"/>
       <c r="Y95" s="13" t="s">
         <v>15</v>
       </c>
       <c r="Z95" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="AA95" s="12" t="s">
-        <v>672</v>
-      </c>
+      <c r="AA95" s="13"/>
       <c r="AB95" s="13" t="str">
-        <f t="shared" si="3"/>
-        <v>PFENING NAHUATUPE POOL GABRIEL</v>
+        <f>CONCATENATE(C95," ", D95)</f>
+        <v>MASSA MONJA VERONICA VIVIEN</v>
       </c>
     </row>
     <row r="96" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
-      <c r="C96" s="27" t="s">
-        <v>330</v>
+      <c r="B96" s="72">
+        <v>1</v>
+      </c>
+      <c r="C96" s="11" t="s">
+        <v>663</v>
       </c>
       <c r="D96" s="11" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="E96" s="24">
-        <v>32499</v>
-      </c>
-      <c r="F96" s="25" t="s">
-        <v>332</v>
+        <v>35161</v>
+      </c>
+      <c r="F96" s="76" t="s">
+        <v>326</v>
       </c>
       <c r="G96" s="13">
         <v>1</v>
@@ -30402,13 +30392,13 @@
         <v>416</v>
       </c>
       <c r="I96" s="24">
-        <v>44706</v>
+        <v>44624</v>
       </c>
       <c r="J96" s="11"/>
       <c r="K96" s="11"/>
       <c r="L96" s="11"/>
       <c r="M96" s="13">
-        <v>960465297</v>
+        <v>954311228</v>
       </c>
       <c r="N96" s="13">
         <v>1</v>
@@ -30417,32 +30407,30 @@
         <v>412</v>
       </c>
       <c r="P96" s="18" t="s">
-        <v>683</v>
+        <v>664</v>
       </c>
       <c r="Q96" s="26" t="s">
-        <v>684</v>
+        <v>665</v>
       </c>
       <c r="R96" s="13" t="s">
-        <v>418</v>
-      </c>
-      <c r="S96" s="13" t="s">
-        <v>408</v>
-      </c>
-      <c r="T96" s="13">
-        <v>3</v>
-      </c>
-      <c r="U96" s="10" t="s">
-        <v>685</v>
-      </c>
-      <c r="V96" s="13"/>
-      <c r="W96" s="13"/>
-      <c r="X96" s="13"/>
-      <c r="Y96" s="13"/>
-      <c r="Z96" s="13"/>
+        <v>407</v>
+      </c>
+      <c r="S96" s="13"/>
+      <c r="T96" s="13"/>
+      <c r="U96" s="13"/>
+      <c r="V96" s="18"/>
+      <c r="W96" s="18"/>
+      <c r="X96" s="18"/>
+      <c r="Y96" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="Z96" s="13" t="s">
+        <v>15</v>
+      </c>
       <c r="AA96" s="13"/>
       <c r="AB96" s="13" t="str">
-        <f t="shared" si="3"/>
-        <v>QUIROZ VARGAS KARINA ELIZABETH</v>
+        <f>CONCATENATE(C96," ", D96)</f>
+        <v>PEREZ CAYCHO DAVID ISRAEL</v>
       </c>
     </row>
     <row r="97" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
@@ -30468,7 +30456,7 @@
         <v>1</v>
       </c>
       <c r="H97" s="11" t="str">
-        <f t="shared" ref="H97:H102" si="4">VLOOKUP(G97,AREAS,2)</f>
+        <f>VLOOKUP(G97,AREAS,2)</f>
         <v>Operaciones</v>
       </c>
       <c r="I97" s="24">
@@ -30510,52 +30498,54 @@
       <c r="Z97" s="13"/>
       <c r="AA97" s="13"/>
       <c r="AB97" s="73" t="str">
-        <f t="shared" si="3"/>
+        <f>CONCATENATE(C97," ", D97)</f>
         <v>GOMEZ RUFINO EDER GRACIEL</v>
       </c>
     </row>
-    <row r="98" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="46" t="s">
+        <v>756</v>
+      </c>
       <c r="B98" s="1">
         <v>1</v>
       </c>
       <c r="C98" s="11" t="s">
-        <v>741</v>
+        <v>757</v>
       </c>
       <c r="D98" s="11" t="s">
-        <v>742</v>
+        <v>758</v>
       </c>
       <c r="E98" s="24">
-        <v>37897</v>
-      </c>
-      <c r="F98" s="76" t="s">
-        <v>743</v>
+        <v>35425</v>
+      </c>
+      <c r="F98" s="25">
+        <v>73501156</v>
       </c>
       <c r="G98" s="13">
         <v>1</v>
       </c>
       <c r="H98" s="11" t="str">
-        <f t="shared" si="4"/>
+        <f>VLOOKUP(G98,AREAS,2)</f>
         <v>Operaciones</v>
       </c>
       <c r="I98" s="24">
-        <v>44649</v>
-      </c>
-      <c r="J98" s="11"/>
-      <c r="K98" s="11"/>
-      <c r="L98" s="11"/>
-      <c r="M98" s="13">
-        <v>961344344</v>
+        <v>44498</v>
+      </c>
+      <c r="J98" s="24"/>
+      <c r="K98" s="24"/>
+      <c r="L98" s="24"/>
+      <c r="M98" s="7">
+        <v>933761672</v>
       </c>
       <c r="N98" s="13">
         <v>1</v>
       </c>
-      <c r="O98" s="13" t="s">
-        <v>412</v>
+      <c r="O98" s="13" t="str">
+        <f>VLOOKUP([2]Empleados!M75,TURNOS,2)</f>
+        <v>MAÑANA</v>
       </c>
       <c r="P98" s="18"/>
-      <c r="Q98" s="26" t="s">
-        <v>744</v>
-      </c>
+      <c r="Q98" s="18"/>
       <c r="R98" s="13" t="s">
         <v>418</v>
       </c>
@@ -30573,56 +30563,53 @@
       </c>
       <c r="AA98" s="13"/>
       <c r="AB98" s="13" t="str">
-        <f t="shared" si="3"/>
-        <v>TAIPE CONTRERAS NOELIA MELISSA</v>
+        <f>CONCATENATE(C98," ", D98)</f>
+        <v>TORRES MORALES MERY LANDIS</v>
       </c>
     </row>
     <row r="99" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="46" t="s">
-        <v>764</v>
-      </c>
-      <c r="B99" s="1">
-        <v>1</v>
-      </c>
-      <c r="C99" s="11" t="s">
-        <v>765</v>
-      </c>
-      <c r="D99" s="11" t="s">
-        <v>273</v>
+      <c r="B99" s="72">
+        <v>1</v>
+      </c>
+      <c r="C99" s="29" t="s">
+        <v>650</v>
+      </c>
+      <c r="D99" s="29" t="s">
+        <v>651</v>
       </c>
       <c r="E99" s="24">
-        <v>37547</v>
+        <v>37260</v>
       </c>
       <c r="F99" s="25">
-        <v>75678518</v>
+        <v>76412113</v>
       </c>
       <c r="G99" s="13">
         <v>1</v>
       </c>
       <c r="H99" s="11" t="str">
-        <f t="shared" si="4"/>
+        <f>VLOOKUP(G99,AREAS,2)</f>
         <v>Operaciones</v>
       </c>
       <c r="I99" s="24">
-        <v>44523</v>
-      </c>
-      <c r="J99" s="24"/>
-      <c r="K99" s="24"/>
-      <c r="L99" s="24"/>
-      <c r="M99" s="7">
-        <v>961786089</v>
+        <v>44348</v>
+      </c>
+      <c r="J99" s="11"/>
+      <c r="K99" s="11"/>
+      <c r="L99" s="11"/>
+      <c r="M99" s="13">
+        <v>978440193</v>
       </c>
       <c r="N99" s="13">
         <v>1</v>
       </c>
       <c r="O99" s="13" t="str">
-        <f>VLOOKUP([2]Empleados!M78,TURNOS,2)</f>
+        <f>VLOOKUP([2]Empleados!M91,TURNOS,2)</f>
         <v>MAÑANA</v>
       </c>
       <c r="P99" s="18"/>
       <c r="Q99" s="18"/>
       <c r="R99" s="13" t="s">
-        <v>407</v>
+        <v>418</v>
       </c>
       <c r="S99" s="13"/>
       <c r="T99" s="13"/>
@@ -30638,8 +30625,8 @@
       </c>
       <c r="AA99" s="13"/>
       <c r="AB99" s="13" t="str">
-        <f t="shared" si="3"/>
-        <v>UCHASARA CHOLAN ANGEL ISRAEL</v>
+        <f>CONCATENATE(C99," ", D99)</f>
+        <v>PADILLA RAMIREZ IVY ARACELY</v>
       </c>
     </row>
     <row r="100" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
@@ -30665,7 +30652,7 @@
         <v>1</v>
       </c>
       <c r="H100" s="11" t="str">
-        <f t="shared" si="4"/>
+        <f>VLOOKUP(G100,AREAS,2)</f>
         <v>Operaciones</v>
       </c>
       <c r="I100" s="24">
@@ -30701,7 +30688,7 @@
       <c r="Z100" s="13"/>
       <c r="AA100" s="13"/>
       <c r="AB100" s="73" t="str">
-        <f t="shared" si="3"/>
+        <f>CONCATENATE(C100," ", D100)</f>
         <v>JAVIER RESURRECCION BLANCA</v>
       </c>
     </row>
@@ -30728,7 +30715,7 @@
         <v>1</v>
       </c>
       <c r="H101" s="11" t="str">
-        <f t="shared" si="4"/>
+        <f>VLOOKUP(G101,AREAS,2)</f>
         <v>Operaciones</v>
       </c>
       <c r="I101" s="24">
@@ -30770,55 +30757,52 @@
       <c r="Z101" s="13"/>
       <c r="AA101" s="13"/>
       <c r="AB101" s="73" t="str">
-        <f t="shared" si="3"/>
+        <f>CONCATENATE(C101," ", D101)</f>
         <v>LITANO ROSAS IRMA</v>
       </c>
     </row>
     <row r="102" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="46" t="s">
-        <v>686</v>
-      </c>
-      <c r="B102" s="1">
+      <c r="B102" s="72">
         <v>1</v>
       </c>
       <c r="C102" s="29" t="s">
-        <v>687</v>
+        <v>322</v>
       </c>
       <c r="D102" s="29" t="s">
-        <v>242</v>
+        <v>323</v>
       </c>
       <c r="E102" s="24">
-        <v>34860</v>
-      </c>
-      <c r="F102" s="25">
-        <v>74581122</v>
+        <v>35872</v>
+      </c>
+      <c r="F102" s="25" t="s">
+        <v>660</v>
       </c>
       <c r="G102" s="13">
         <v>1</v>
       </c>
-      <c r="H102" s="11" t="str">
-        <f t="shared" si="4"/>
-        <v>Operaciones</v>
+      <c r="H102" s="11" t="s">
+        <v>416</v>
       </c>
       <c r="I102" s="24">
-        <v>44456</v>
-      </c>
-      <c r="J102" s="24"/>
-      <c r="K102" s="24"/>
-      <c r="L102" s="24"/>
-      <c r="M102" s="7">
-        <v>965448709</v>
+        <v>44659</v>
+      </c>
+      <c r="J102" s="11"/>
+      <c r="K102" s="11"/>
+      <c r="L102" s="11"/>
+      <c r="M102" s="13">
+        <v>973502797</v>
       </c>
       <c r="N102" s="13">
         <v>1</v>
       </c>
-      <c r="O102" s="13" t="str">
-        <f>VLOOKUP([2]Empleados!M56,TURNOS,2)</f>
-        <v>MAÑANA</v>
-      </c>
-      <c r="P102" s="18"/>
+      <c r="O102" s="13" t="s">
+        <v>412</v>
+      </c>
+      <c r="P102" s="18" t="s">
+        <v>661</v>
+      </c>
       <c r="Q102" s="26" t="s">
-        <v>688</v>
+        <v>662</v>
       </c>
       <c r="R102" s="13" t="s">
         <v>418</v>
@@ -30827,7 +30811,7 @@
       <c r="T102" s="13"/>
       <c r="U102" s="13"/>
       <c r="V102" s="18"/>
-      <c r="W102" s="18"/>
+      <c r="W102" s="13"/>
       <c r="X102" s="18"/>
       <c r="Y102" s="13" t="s">
         <v>15</v>
@@ -30837,22 +30821,23 @@
       </c>
       <c r="AA102" s="13"/>
       <c r="AB102" s="13" t="str">
-        <f t="shared" si="3"/>
-        <v>QUISPE FLORES SONIA EDITA</v>
+        <f>CONCATENATE(C102," ", D102)</f>
+        <v>PAUCAR MAYTA BEATRIZ SALUSTRIA</v>
       </c>
     </row>
     <row r="103" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
-      <c r="C103" s="27" t="s">
-        <v>336</v>
-      </c>
-      <c r="D103" s="11" t="s">
-        <v>337</v>
+      <c r="B103" s="72"/>
+      <c r="C103" s="29" t="s">
+        <v>668</v>
+      </c>
+      <c r="D103" s="29" t="s">
+        <v>299</v>
       </c>
       <c r="E103" s="24">
-        <v>37848</v>
+        <v>36441</v>
       </c>
       <c r="F103" s="25" t="s">
-        <v>338</v>
+        <v>669</v>
       </c>
       <c r="G103" s="13">
         <v>1</v>
@@ -30861,13 +30846,13 @@
         <v>416</v>
       </c>
       <c r="I103" s="24">
-        <v>44706</v>
+        <v>44693</v>
       </c>
       <c r="J103" s="11"/>
       <c r="K103" s="11"/>
       <c r="L103" s="11"/>
       <c r="M103" s="13">
-        <v>994944393</v>
+        <v>989632139</v>
       </c>
       <c r="N103" s="13">
         <v>1</v>
@@ -30876,59 +30861,65 @@
         <v>412</v>
       </c>
       <c r="P103" s="18" t="s">
-        <v>699</v>
+        <v>670</v>
       </c>
       <c r="Q103" s="26" t="s">
-        <v>700</v>
+        <v>671</v>
       </c>
       <c r="R103" s="13" t="s">
-        <v>418</v>
+        <v>407</v>
       </c>
       <c r="S103" s="13"/>
       <c r="T103" s="13"/>
       <c r="U103" s="13"/>
-      <c r="V103" s="13"/>
+      <c r="V103" s="18"/>
       <c r="W103" s="13"/>
       <c r="X103" s="13"/>
-      <c r="Y103" s="13"/>
-      <c r="Z103" s="13"/>
-      <c r="AA103" s="13"/>
+      <c r="Y103" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="Z103" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="AA103" s="12" t="s">
+        <v>672</v>
+      </c>
       <c r="AB103" s="13" t="str">
-        <f t="shared" si="3"/>
-        <v>RAMOS HUAMANI ADRIANA PAOLA</v>
+        <f>CONCATENATE(C103," ", D103)</f>
+        <v>PFENING NAHUATUPE POOL GABRIEL</v>
       </c>
     </row>
     <row r="104" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="71"/>
-      <c r="B104" s="72">
+      <c r="B104" s="1">
         <v>1</v>
       </c>
       <c r="C104" s="11" t="s">
-        <v>360</v>
+        <v>741</v>
       </c>
       <c r="D104" s="11" t="s">
-        <v>361</v>
+        <v>742</v>
       </c>
       <c r="E104" s="24">
-        <v>31951</v>
-      </c>
-      <c r="F104" s="25" t="s">
-        <v>773</v>
+        <v>37897</v>
+      </c>
+      <c r="F104" s="76" t="s">
+        <v>743</v>
       </c>
       <c r="G104" s="13">
         <v>1</v>
       </c>
-      <c r="H104" s="11" t="s">
-        <v>416</v>
+      <c r="H104" s="11" t="str">
+        <f>VLOOKUP(G104,AREAS,2)</f>
+        <v>Operaciones</v>
       </c>
       <c r="I104" s="24">
-        <v>44669</v>
+        <v>44649</v>
       </c>
       <c r="J104" s="11"/>
       <c r="K104" s="11"/>
       <c r="L104" s="11"/>
       <c r="M104" s="13">
-        <v>933036664</v>
+        <v>961344344</v>
       </c>
       <c r="N104" s="13">
         <v>1</v>
@@ -30936,26 +30927,18 @@
       <c r="O104" s="13" t="s">
         <v>412</v>
       </c>
-      <c r="P104" s="18" t="s">
-        <v>774</v>
-      </c>
-      <c r="Q104" s="47" t="s">
-        <v>775</v>
+      <c r="P104" s="18"/>
+      <c r="Q104" s="26" t="s">
+        <v>744</v>
       </c>
       <c r="R104" s="13" t="s">
-        <v>407</v>
-      </c>
-      <c r="S104" s="13" t="s">
-        <v>408</v>
-      </c>
-      <c r="T104" s="13">
-        <v>1</v>
-      </c>
-      <c r="U104" s="13">
-        <v>12</v>
-      </c>
+        <v>418</v>
+      </c>
+      <c r="S104" s="13"/>
+      <c r="T104" s="13"/>
+      <c r="U104" s="13"/>
       <c r="V104" s="18"/>
-      <c r="W104" s="13"/>
+      <c r="W104" s="18"/>
       <c r="X104" s="18"/>
       <c r="Y104" s="13" t="s">
         <v>15</v>
@@ -30965,28 +30948,28 @@
       </c>
       <c r="AA104" s="13"/>
       <c r="AB104" s="13" t="str">
-        <f t="shared" si="3"/>
-        <v>VALERIO CASTRO JAIRO ANDERSON</v>
+        <f>CONCATENATE(C104," ", D104)</f>
+        <v>TAIPE CONTRERAS NOELIA MELISSA</v>
       </c>
     </row>
     <row r="105" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" s="46" t="s">
-        <v>707</v>
+        <v>764</v>
       </c>
       <c r="B105" s="1">
         <v>1</v>
       </c>
-      <c r="C105" s="29" t="s">
-        <v>708</v>
-      </c>
-      <c r="D105" s="29" t="s">
-        <v>257</v>
+      <c r="C105" s="11" t="s">
+        <v>765</v>
+      </c>
+      <c r="D105" s="11" t="s">
+        <v>273</v>
       </c>
       <c r="E105" s="24">
-        <v>34996</v>
+        <v>37547</v>
       </c>
       <c r="F105" s="25">
-        <v>48941880</v>
+        <v>75678518</v>
       </c>
       <c r="G105" s="13">
         <v>1</v>
@@ -31002,31 +30985,23 @@
       <c r="K105" s="24"/>
       <c r="L105" s="24"/>
       <c r="M105" s="7">
-        <v>972151843</v>
+        <v>961786089</v>
       </c>
       <c r="N105" s="13">
         <v>1</v>
       </c>
       <c r="O105" s="13" t="str">
-        <f>VLOOKUP([2]Empleados!M65,TURNOS,2)</f>
+        <f>VLOOKUP([2]Empleados!M78,TURNOS,2)</f>
         <v>MAÑANA</v>
       </c>
       <c r="P105" s="18"/>
-      <c r="Q105" s="26" t="s">
-        <v>709</v>
-      </c>
+      <c r="Q105" s="18"/>
       <c r="R105" s="13" t="s">
-        <v>418</v>
-      </c>
-      <c r="S105" s="13" t="s">
-        <v>408</v>
-      </c>
-      <c r="T105" s="13">
-        <v>2</v>
-      </c>
-      <c r="U105" s="13" t="s">
-        <v>710</v>
-      </c>
+        <v>407</v>
+      </c>
+      <c r="S105" s="13"/>
+      <c r="T105" s="13"/>
+      <c r="U105" s="13"/>
       <c r="V105" s="18"/>
       <c r="W105" s="18"/>
       <c r="X105" s="18"/>
@@ -31038,26 +31013,28 @@
       </c>
       <c r="AA105" s="13"/>
       <c r="AB105" s="13" t="str">
-        <f t="shared" si="3"/>
-        <v>SANCHEZ RAMOS LUCY MAGDALENA</v>
+        <f>CONCATENATE(C105," ", D105)</f>
+        <v>UCHASARA CHOLAN ANGEL ISRAEL</v>
       </c>
     </row>
     <row r="106" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="71"/>
-      <c r="B106" s="72">
-        <v>1</v>
-      </c>
-      <c r="C106" s="31" t="s">
-        <v>365</v>
-      </c>
-      <c r="D106" s="31" t="s">
-        <v>366</v>
+      <c r="A106" s="46" t="s">
+        <v>686</v>
+      </c>
+      <c r="B106" s="1">
+        <v>1</v>
+      </c>
+      <c r="C106" s="83" t="s">
+        <v>687</v>
+      </c>
+      <c r="D106" s="83" t="s">
+        <v>242</v>
       </c>
       <c r="E106" s="32">
-        <v>36840</v>
+        <v>34860</v>
       </c>
       <c r="F106" s="33">
-        <v>77154249</v>
+        <v>74581122</v>
       </c>
       <c r="G106" s="34">
         <v>1</v>
@@ -31067,29 +31044,27 @@
         <v>Operaciones</v>
       </c>
       <c r="I106" s="32">
-        <v>44580</v>
-      </c>
-      <c r="J106" s="31"/>
-      <c r="K106" s="31"/>
-      <c r="L106" s="31"/>
-      <c r="M106" s="34">
-        <v>914026850</v>
+        <v>44456</v>
+      </c>
+      <c r="J106" s="32"/>
+      <c r="K106" s="32"/>
+      <c r="L106" s="32"/>
+      <c r="M106" s="51">
+        <v>965448709</v>
       </c>
       <c r="N106" s="34">
         <v>1</v>
       </c>
       <c r="O106" s="34" t="str">
-        <f>VLOOKUP([2]Empleados!M94,TURNOS,2)</f>
+        <f>VLOOKUP([2]Empleados!M56,TURNOS,2)</f>
         <v>MAÑANA</v>
       </c>
-      <c r="P106" s="35" t="s">
-        <v>776</v>
-      </c>
+      <c r="P106" s="35"/>
       <c r="Q106" s="36" t="s">
-        <v>777</v>
+        <v>688</v>
       </c>
       <c r="R106" s="34" t="s">
-        <v>407</v>
+        <v>418</v>
       </c>
       <c r="S106" s="34"/>
       <c r="T106" s="34"/>
@@ -31105,8 +31080,8 @@
       </c>
       <c r="AA106" s="34"/>
       <c r="AB106" s="13" t="str">
-        <f t="shared" ref="AB106:AB117" si="5">CONCATENATE(C106," ", D106)</f>
-        <v>VEGA GONZALES CHRISTIAN MOISES</v>
+        <f>CONCATENATE(C106," ", D106)</f>
+        <v>QUISPE FLORES SONIA EDITA</v>
       </c>
     </row>
     <row r="107" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
@@ -31170,24 +31145,26 @@
       <c r="Z107" s="13"/>
       <c r="AA107" s="13"/>
       <c r="AB107" s="13" t="str">
-        <f t="shared" si="5"/>
+        <f>CONCATENATE(C107," ", D107)</f>
         <v>UCHASARA CHOLAN ANGGIE MAYUMI</v>
       </c>
     </row>
     <row r="108" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" s="11"/>
-      <c r="B108" s="13"/>
-      <c r="C108" s="27" t="s">
-        <v>339</v>
+      <c r="B108" s="13">
+        <v>1</v>
+      </c>
+      <c r="C108" s="11" t="s">
+        <v>360</v>
       </c>
       <c r="D108" s="11" t="s">
-        <v>716</v>
+        <v>361</v>
       </c>
       <c r="E108" s="24">
-        <v>32661</v>
-      </c>
-      <c r="F108" s="49" t="s">
-        <v>341</v>
+        <v>31951</v>
+      </c>
+      <c r="F108" s="25" t="s">
+        <v>773</v>
       </c>
       <c r="G108" s="13">
         <v>1</v>
@@ -31196,13 +31173,13 @@
         <v>416</v>
       </c>
       <c r="I108" s="24">
-        <v>44707</v>
+        <v>44669</v>
       </c>
       <c r="J108" s="11"/>
       <c r="K108" s="11"/>
       <c r="L108" s="11"/>
       <c r="M108" s="13">
-        <v>983112056</v>
+        <v>933036664</v>
       </c>
       <c r="N108" s="13">
         <v>1</v>
@@ -31211,91 +31188,109 @@
         <v>412</v>
       </c>
       <c r="P108" s="18" t="s">
-        <v>717</v>
-      </c>
-      <c r="Q108" s="26" t="s">
-        <v>718</v>
+        <v>774</v>
+      </c>
+      <c r="Q108" s="47" t="s">
+        <v>775</v>
       </c>
       <c r="R108" s="13" t="s">
-        <v>418</v>
+        <v>407</v>
       </c>
       <c r="S108" s="13" t="s">
         <v>408</v>
       </c>
       <c r="T108" s="13">
-        <v>2</v>
-      </c>
-      <c r="U108" s="13" t="s">
-        <v>719</v>
-      </c>
-      <c r="V108" s="13"/>
+        <v>1</v>
+      </c>
+      <c r="U108" s="13">
+        <v>12</v>
+      </c>
+      <c r="V108" s="18"/>
       <c r="W108" s="13"/>
-      <c r="X108" s="13"/>
-      <c r="Y108" s="13"/>
-      <c r="Z108" s="13"/>
+      <c r="X108" s="18"/>
+      <c r="Y108" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="Z108" s="13" t="s">
+        <v>15</v>
+      </c>
       <c r="AA108" s="13"/>
       <c r="AB108" s="13" t="str">
-        <f t="shared" si="5"/>
-        <v>SILVA GARCIA DAYALIS YURUVI</v>
+        <f>CONCATENATE(C108," ", D108)</f>
+        <v>VALERIO CASTRO JAIRO ANDERSON</v>
       </c>
     </row>
     <row r="109" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="11"/>
-      <c r="B109" s="13"/>
-      <c r="C109" s="27" t="s">
-        <v>342</v>
-      </c>
-      <c r="D109" s="11" t="s">
-        <v>343</v>
+      <c r="A109" s="11" t="s">
+        <v>707</v>
+      </c>
+      <c r="B109" s="13">
+        <v>1</v>
+      </c>
+      <c r="C109" s="29" t="s">
+        <v>708</v>
+      </c>
+      <c r="D109" s="29" t="s">
+        <v>257</v>
       </c>
       <c r="E109" s="24">
-        <v>36554</v>
-      </c>
-      <c r="F109" s="25" t="s">
-        <v>344</v>
+        <v>34996</v>
+      </c>
+      <c r="F109" s="25">
+        <v>48941880</v>
       </c>
       <c r="G109" s="13">
         <v>1</v>
       </c>
-      <c r="H109" s="11" t="s">
-        <v>416</v>
+      <c r="H109" s="11" t="str">
+        <f>VLOOKUP(G109,AREAS,2)</f>
+        <v>Operaciones</v>
       </c>
       <c r="I109" s="24">
-        <v>44706</v>
-      </c>
-      <c r="J109" s="11"/>
-      <c r="K109" s="11"/>
-      <c r="L109" s="11"/>
-      <c r="M109" s="13">
-        <v>925362534</v>
+        <v>44523</v>
+      </c>
+      <c r="J109" s="24"/>
+      <c r="K109" s="24"/>
+      <c r="L109" s="24"/>
+      <c r="M109" s="7">
+        <v>972151843</v>
       </c>
       <c r="N109" s="13">
         <v>1</v>
       </c>
-      <c r="O109" s="13" t="s">
-        <v>412</v>
-      </c>
-      <c r="P109" s="18" t="s">
-        <v>725</v>
-      </c>
+      <c r="O109" s="13" t="str">
+        <f>VLOOKUP([2]Empleados!M65,TURNOS,2)</f>
+        <v>MAÑANA</v>
+      </c>
+      <c r="P109" s="18"/>
       <c r="Q109" s="26" t="s">
-        <v>726</v>
+        <v>709</v>
       </c>
       <c r="R109" s="13" t="s">
-        <v>407</v>
-      </c>
-      <c r="S109" s="13"/>
-      <c r="T109" s="13"/>
-      <c r="U109" s="13"/>
-      <c r="V109" s="13"/>
-      <c r="W109" s="13"/>
-      <c r="X109" s="13"/>
-      <c r="Y109" s="13"/>
-      <c r="Z109" s="13"/>
+        <v>418</v>
+      </c>
+      <c r="S109" s="13" t="s">
+        <v>408</v>
+      </c>
+      <c r="T109" s="13">
+        <v>2</v>
+      </c>
+      <c r="U109" s="13" t="s">
+        <v>710</v>
+      </c>
+      <c r="V109" s="18"/>
+      <c r="W109" s="18"/>
+      <c r="X109" s="18"/>
+      <c r="Y109" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="Z109" s="13" t="s">
+        <v>15</v>
+      </c>
       <c r="AA109" s="13"/>
       <c r="AB109" s="13" t="str">
-        <f t="shared" si="5"/>
-        <v>SILVA VASQUEZ PEDRO SABINA</v>
+        <f>CONCATENATE(C109," ", D109)</f>
+        <v>SANCHEZ RAMOS LUCY MAGDALENA</v>
       </c>
     </row>
     <row r="110" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
@@ -31304,16 +31299,16 @@
         <v>1</v>
       </c>
       <c r="C110" s="11" t="s">
-        <v>786</v>
+        <v>365</v>
       </c>
       <c r="D110" s="11" t="s">
-        <v>787</v>
+        <v>366</v>
       </c>
       <c r="E110" s="24">
-        <v>36737</v>
-      </c>
-      <c r="F110" s="25" t="s">
-        <v>788</v>
+        <v>36840</v>
+      </c>
+      <c r="F110" s="25">
+        <v>77154249</v>
       </c>
       <c r="G110" s="13">
         <v>1</v>
@@ -31323,28 +31318,29 @@
         <v>Operaciones</v>
       </c>
       <c r="I110" s="24">
-        <v>44649</v>
+        <v>44580</v>
       </c>
       <c r="J110" s="11"/>
       <c r="K110" s="11"/>
       <c r="L110" s="11"/>
       <c r="M110" s="13">
-        <v>978748085</v>
+        <v>914026850</v>
       </c>
       <c r="N110" s="13">
         <v>1</v>
       </c>
-      <c r="O110" s="13" t="s">
-        <v>412</v>
+      <c r="O110" s="13" t="str">
+        <f>VLOOKUP([2]Empleados!M94,TURNOS,2)</f>
+        <v>MAÑANA</v>
       </c>
       <c r="P110" s="18" t="s">
-        <v>789</v>
+        <v>776</v>
       </c>
       <c r="Q110" s="26" t="s">
-        <v>790</v>
+        <v>777</v>
       </c>
       <c r="R110" s="13" t="s">
-        <v>418</v>
+        <v>407</v>
       </c>
       <c r="S110" s="13"/>
       <c r="T110" s="13"/>
@@ -31360,8 +31356,8 @@
       </c>
       <c r="AA110" s="13"/>
       <c r="AB110" s="13" t="str">
-        <f t="shared" si="5"/>
-        <v>ZAPATA FLORES DIANA CAROLINA</v>
+        <f>CONCATENATE(C110," ", D110)</f>
+        <v>VEGA GONZALES CHRISTIAN MOISES</v>
       </c>
     </row>
     <row r="111" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
@@ -31431,39 +31427,42 @@
       <c r="Z111" s="13"/>
       <c r="AA111" s="13"/>
       <c r="AB111" s="73" t="str">
-        <f t="shared" si="5"/>
+        <f>CONCATENATE(C111," ", D111)</f>
         <v>URBINA GARCIA KAROL GABRIELA</v>
       </c>
     </row>
     <row r="112" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" s="11"/>
-      <c r="B112" s="13"/>
-      <c r="C112" s="27" t="s">
-        <v>347</v>
+      <c r="B112" s="13">
+        <v>1</v>
+      </c>
+      <c r="C112" s="11" t="s">
+        <v>786</v>
       </c>
       <c r="D112" s="11" t="s">
-        <v>348</v>
+        <v>787</v>
       </c>
       <c r="E112" s="24">
-        <v>37102</v>
+        <v>36737</v>
       </c>
       <c r="F112" s="25" t="s">
-        <v>349</v>
+        <v>788</v>
       </c>
       <c r="G112" s="13">
         <v>1</v>
       </c>
-      <c r="H112" s="11" t="s">
-        <v>416</v>
+      <c r="H112" s="11" t="str">
+        <f>VLOOKUP(G112,AREAS,2)</f>
+        <v>Operaciones</v>
       </c>
       <c r="I112" s="24">
-        <v>44706</v>
+        <v>44649</v>
       </c>
       <c r="J112" s="11"/>
       <c r="K112" s="11"/>
       <c r="L112" s="11"/>
       <c r="M112" s="13">
-        <v>929290822</v>
+        <v>978748085</v>
       </c>
       <c r="N112" s="13">
         <v>1</v>
@@ -31472,10 +31471,10 @@
         <v>412</v>
       </c>
       <c r="P112" s="18" t="s">
-        <v>727</v>
+        <v>789</v>
       </c>
       <c r="Q112" s="26" t="s">
-        <v>728</v>
+        <v>790</v>
       </c>
       <c r="R112" s="13" t="s">
         <v>418</v>
@@ -31483,19 +31482,19 @@
       <c r="S112" s="13"/>
       <c r="T112" s="13"/>
       <c r="U112" s="13"/>
-      <c r="V112" s="13" t="s">
-        <v>426</v>
-      </c>
-      <c r="W112" s="28" t="s">
-        <v>729</v>
-      </c>
-      <c r="X112" s="13"/>
-      <c r="Y112" s="13"/>
-      <c r="Z112" s="13"/>
+      <c r="V112" s="18"/>
+      <c r="W112" s="18"/>
+      <c r="X112" s="18"/>
+      <c r="Y112" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="Z112" s="13" t="s">
+        <v>15</v>
+      </c>
       <c r="AA112" s="13"/>
       <c r="AB112" s="13" t="str">
-        <f t="shared" si="5"/>
-        <v>SOLIS DURAND JESSICA MARISOL</v>
+        <f>CONCATENATE(C112," ", D112)</f>
+        <v>ZAPATA FLORES DIANA CAROLINA</v>
       </c>
     </row>
     <row r="113" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
@@ -31565,7 +31564,7 @@
       <c r="Z113" s="13"/>
       <c r="AA113" s="13"/>
       <c r="AB113" s="73" t="str">
-        <f t="shared" si="5"/>
+        <f>CONCATENATE(C113," ", D113)</f>
         <v>VITOR BARRIENTOS MAYDA GLORIA</v>
       </c>
     </row>
@@ -31636,7 +31635,7 @@
       </c>
       <c r="AA114" s="13"/>
       <c r="AB114" s="13" t="str">
-        <f t="shared" si="5"/>
+        <f>CONCATENATE(C114," ", D114)</f>
         <v>TITO AGUILAR MIRIAN VANESA</v>
       </c>
     </row>
@@ -31701,7 +31700,7 @@
       </c>
       <c r="AA115" s="13"/>
       <c r="AB115" s="13" t="str">
-        <f t="shared" si="5"/>
+        <f>CONCATENATE(C115," ", D115)</f>
         <v>VILLAZANA CASTILLON LUIZ ALBERTO</v>
       </c>
     </row>
@@ -31765,7 +31764,7 @@
       </c>
       <c r="AA116" s="13"/>
       <c r="AB116" s="13" t="str">
-        <f t="shared" si="5"/>
+        <f>CONCATENATE(C116," ", D116)</f>
         <v>ZARPAN SILVA CLAUDIA LIZETH</v>
       </c>
     </row>
@@ -31829,100 +31828,100 @@
       </c>
       <c r="AA117" s="13"/>
       <c r="AB117" s="13" t="str">
-        <f t="shared" si="5"/>
+        <f>CONCATENATE(C117," ", D117)</f>
         <v>ZUNIGA MARTINEZ HARUMI KATIUSKA</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:AB117" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="5">
-      <colorFilter dxfId="0"/>
+    <filterColumn colId="11">
+      <filters blank="1"/>
     </filterColumn>
-    <filterColumn colId="11">
+    <filterColumn colId="25">
       <filters blank="1"/>
     </filterColumn>
     <filterColumn colId="27">
       <colorFilter dxfId="1"/>
     </filterColumn>
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A10:AB117">
-      <sortCondition sortBy="cellColor" ref="C1:C117" dxfId="2"/>
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AB117">
+      <sortCondition sortBy="cellColor" ref="C1:C117" dxfId="0"/>
     </sortState>
   </autoFilter>
   <dataConsolidate/>
   <hyperlinks>
     <hyperlink ref="Q30" r:id="rId1" xr:uid="{B33C25C1-9171-408D-A11B-A69D5F527BD3}"/>
-    <hyperlink ref="Q106" r:id="rId2" xr:uid="{D2516B55-8D7B-4CEF-8AE4-6D6C3ABF218C}"/>
-    <hyperlink ref="Q21" r:id="rId3" xr:uid="{724E1DBF-7776-4451-ABC1-145D6F0BEB36}"/>
-    <hyperlink ref="Q35" r:id="rId4" xr:uid="{332AAD10-33AA-4CBB-AA9B-4FCB08D1D141}"/>
-    <hyperlink ref="Q88" r:id="rId5" xr:uid="{1BF5A35E-B7E0-4272-96D7-96A7452A5990}"/>
-    <hyperlink ref="Q105" r:id="rId6" xr:uid="{5A9A9CEC-87DC-4DB1-8FEC-341F22DBD325}"/>
-    <hyperlink ref="Q48" r:id="rId7" xr:uid="{A5B2E9BB-6CD9-48A9-B31A-F54606B7AF1D}"/>
-    <hyperlink ref="Q89" r:id="rId8" xr:uid="{899B3B9F-EDAA-4064-BA3D-55461BBB4942}"/>
-    <hyperlink ref="Q79" r:id="rId9" xr:uid="{87FFD8D6-6E65-478E-8FC2-6438C15BCBD5}"/>
+    <hyperlink ref="Q110" r:id="rId2" xr:uid="{D2516B55-8D7B-4CEF-8AE4-6D6C3ABF218C}"/>
+    <hyperlink ref="Q33" r:id="rId3" xr:uid="{724E1DBF-7776-4451-ABC1-145D6F0BEB36}"/>
+    <hyperlink ref="Q45" r:id="rId4" xr:uid="{332AAD10-33AA-4CBB-AA9B-4FCB08D1D141}"/>
+    <hyperlink ref="Q95" r:id="rId5" xr:uid="{1BF5A35E-B7E0-4272-96D7-96A7452A5990}"/>
+    <hyperlink ref="Q109" r:id="rId6" xr:uid="{5A9A9CEC-87DC-4DB1-8FEC-341F22DBD325}"/>
+    <hyperlink ref="Q62" r:id="rId7" xr:uid="{A5B2E9BB-6CD9-48A9-B31A-F54606B7AF1D}"/>
+    <hyperlink ref="Q96" r:id="rId8" xr:uid="{899B3B9F-EDAA-4064-BA3D-55461BBB4942}"/>
+    <hyperlink ref="Q88" r:id="rId9" xr:uid="{87FFD8D6-6E65-478E-8FC2-6438C15BCBD5}"/>
     <hyperlink ref="Q74" r:id="rId10" xr:uid="{8402F05C-861F-4E69-927D-54E6107072A3}"/>
-    <hyperlink ref="Q37" r:id="rId11" xr:uid="{A9041592-3E46-4086-B0C7-E3C547474885}"/>
-    <hyperlink ref="Q9" r:id="rId12" xr:uid="{3410AF65-B5AE-4DF1-82CB-78B13E43BC21}"/>
+    <hyperlink ref="Q47" r:id="rId11" xr:uid="{A9041592-3E46-4086-B0C7-E3C547474885}"/>
+    <hyperlink ref="Q20" r:id="rId12" xr:uid="{3410AF65-B5AE-4DF1-82CB-78B13E43BC21}"/>
     <hyperlink ref="Q107" r:id="rId13" xr:uid="{F24A44E1-F3EE-4CCB-BF08-D56B99944F4A}"/>
-    <hyperlink ref="Q60" r:id="rId14" xr:uid="{8177CED7-D64B-48D3-A404-C462B290B449}"/>
-    <hyperlink ref="Q42" r:id="rId15" xr:uid="{1CA96BAC-E853-4D87-AD46-3E9D4FDFC3CF}"/>
-    <hyperlink ref="Q110" r:id="rId16" xr:uid="{E665029E-CA8A-4CE6-9419-1FFEE6F0FD7A}"/>
-    <hyperlink ref="Q64" r:id="rId17" xr:uid="{41EB9DBC-82B9-417A-8CEE-A1986EF62A5A}"/>
-    <hyperlink ref="Q25" r:id="rId18" xr:uid="{574293D1-A378-48CF-BD38-54C97D21EDC0}"/>
-    <hyperlink ref="Q77" r:id="rId19" xr:uid="{2AF3B6B8-C481-4A13-BCB6-742FAA1CCD75}"/>
-    <hyperlink ref="Q98" r:id="rId20" xr:uid="{9811AC61-937F-4762-ABCD-35642BFAD8A2}"/>
-    <hyperlink ref="Q7" r:id="rId21" xr:uid="{1DCC8984-A066-4C4B-9ABE-110245DF758E}"/>
-    <hyperlink ref="Q3" r:id="rId22" xr:uid="{22896A05-E862-4024-B6FE-D9258F00C9FD}"/>
+    <hyperlink ref="Q72" r:id="rId14" xr:uid="{8177CED7-D64B-48D3-A404-C462B290B449}"/>
+    <hyperlink ref="Q55" r:id="rId15" xr:uid="{1CA96BAC-E853-4D87-AD46-3E9D4FDFC3CF}"/>
+    <hyperlink ref="Q112" r:id="rId16" xr:uid="{E665029E-CA8A-4CE6-9419-1FFEE6F0FD7A}"/>
+    <hyperlink ref="Q77" r:id="rId17" xr:uid="{41EB9DBC-82B9-417A-8CEE-A1986EF62A5A}"/>
+    <hyperlink ref="Q37" r:id="rId18" xr:uid="{574293D1-A378-48CF-BD38-54C97D21EDC0}"/>
+    <hyperlink ref="Q85" r:id="rId19" xr:uid="{2AF3B6B8-C481-4A13-BCB6-742FAA1CCD75}"/>
+    <hyperlink ref="Q104" r:id="rId20" xr:uid="{9811AC61-937F-4762-ABCD-35642BFAD8A2}"/>
+    <hyperlink ref="Q18" r:id="rId21" xr:uid="{1DCC8984-A066-4C4B-9ABE-110245DF758E}"/>
+    <hyperlink ref="Q13" r:id="rId22" xr:uid="{22896A05-E862-4024-B6FE-D9258F00C9FD}"/>
     <hyperlink ref="Q111" r:id="rId23" xr:uid="{413D6B5F-B2A7-4A0D-8CEE-0F2CE4CF97C1}"/>
-    <hyperlink ref="Q102" r:id="rId24" xr:uid="{67ED14CC-0F5B-446C-82B5-53178603F866}"/>
-    <hyperlink ref="Q80" r:id="rId25" xr:uid="{D69DD61F-6DC1-4AE1-812F-62FF2D879924}"/>
+    <hyperlink ref="Q106" r:id="rId24" xr:uid="{67ED14CC-0F5B-446C-82B5-53178603F866}"/>
+    <hyperlink ref="Q89" r:id="rId25" xr:uid="{D69DD61F-6DC1-4AE1-812F-62FF2D879924}"/>
     <hyperlink ref="Q113" r:id="rId26" xr:uid="{8BA8EA95-BE8E-4784-B62F-892BBC920CBE}"/>
-    <hyperlink ref="Q23" r:id="rId27" xr:uid="{E5FD8967-E8BE-48FA-A9BB-9E484B03F1A9}"/>
-    <hyperlink ref="Q66" r:id="rId28" xr:uid="{EBA1802A-5FFF-4CB6-997E-B41D40D8CC6B}"/>
+    <hyperlink ref="Q35" r:id="rId27" xr:uid="{E5FD8967-E8BE-48FA-A9BB-9E484B03F1A9}"/>
+    <hyperlink ref="Q79" r:id="rId28" xr:uid="{EBA1802A-5FFF-4CB6-997E-B41D40D8CC6B}"/>
     <hyperlink ref="Q116" r:id="rId29" xr:uid="{30836801-E764-4181-A047-10805E122F6A}"/>
-    <hyperlink ref="Q69" r:id="rId30" xr:uid="{F7EC26E8-8F9F-4FFA-9EBE-F8DE824C6E44}"/>
-    <hyperlink ref="Q92" r:id="rId31" xr:uid="{9DC85EBE-1290-4717-81A7-B97CFAD94744}"/>
-    <hyperlink ref="Q73" r:id="rId32" xr:uid="{7B7FA163-98A2-4EA6-BC26-22477000675B}"/>
+    <hyperlink ref="Q80" r:id="rId30" xr:uid="{F7EC26E8-8F9F-4FFA-9EBE-F8DE824C6E44}"/>
+    <hyperlink ref="Q102" r:id="rId31" xr:uid="{9DC85EBE-1290-4717-81A7-B97CFAD94744}"/>
+    <hyperlink ref="Q83" r:id="rId32" xr:uid="{7B7FA163-98A2-4EA6-BC26-22477000675B}"/>
     <hyperlink ref="Q117" r:id="rId33" xr:uid="{55379BEF-8CF0-4FBE-AB76-024CA7B1992B}"/>
-    <hyperlink ref="Q62" r:id="rId34" xr:uid="{819D8D2C-125B-4841-B0CE-72A7C113FAE2}"/>
-    <hyperlink ref="Q104" r:id="rId35" xr:uid="{C3F839C0-9A9D-4FF1-AAF2-4036E8F782AC}"/>
-    <hyperlink ref="Q38" r:id="rId36" xr:uid="{328181C4-27C0-468E-B5E5-2AAF45E5A5F1}"/>
-    <hyperlink ref="Q8" r:id="rId37" xr:uid="{DE455A1B-9EC4-4CCA-9794-87873714BEBE}"/>
-    <hyperlink ref="Q44" r:id="rId38" xr:uid="{7F3E9F0C-962E-4EFA-BCBF-7197477E083E}"/>
-    <hyperlink ref="Q24" r:id="rId39" xr:uid="{A97BEAA4-DAA6-41D4-BF64-755EF8ADBB24}"/>
+    <hyperlink ref="Q75" r:id="rId34" xr:uid="{819D8D2C-125B-4841-B0CE-72A7C113FAE2}"/>
+    <hyperlink ref="Q108" r:id="rId35" xr:uid="{C3F839C0-9A9D-4FF1-AAF2-4036E8F782AC}"/>
+    <hyperlink ref="Q48" r:id="rId36" xr:uid="{328181C4-27C0-468E-B5E5-2AAF45E5A5F1}"/>
+    <hyperlink ref="Q19" r:id="rId37" xr:uid="{DE455A1B-9EC4-4CCA-9794-87873714BEBE}"/>
+    <hyperlink ref="Q57" r:id="rId38" xr:uid="{7F3E9F0C-962E-4EFA-BCBF-7197477E083E}"/>
+    <hyperlink ref="Q36" r:id="rId39" xr:uid="{A97BEAA4-DAA6-41D4-BF64-755EF8ADBB24}"/>
     <hyperlink ref="Q87" r:id="rId40" xr:uid="{8A2EDFD9-1896-462A-BA86-FB374F3A2B53}"/>
     <hyperlink ref="Q49" r:id="rId41" xr:uid="{21DEB8FB-0A9C-46FE-A318-70CE9CF295CD}"/>
-    <hyperlink ref="Q32" r:id="rId42" xr:uid="{08AA59C6-129C-4A77-B9F0-965BCA4BE4C5}"/>
-    <hyperlink ref="Q63" r:id="rId43" xr:uid="{8F32CF97-FE78-4465-BF95-5DB64DCB1370}"/>
-    <hyperlink ref="Q39" r:id="rId44" xr:uid="{7B1C8CA8-9D1F-4D0B-8BB8-523A6F6C12BC}"/>
-    <hyperlink ref="Q12" r:id="rId45" xr:uid="{CA6C154A-F001-4123-A697-000645F79433}"/>
-    <hyperlink ref="Q10" r:id="rId46" xr:uid="{D50B3E3F-0AFC-47AF-AEB7-C922A3E20B8D}"/>
-    <hyperlink ref="Q16" r:id="rId47" xr:uid="{2A114654-6261-49B5-BFB6-CD183E5B807C}"/>
-    <hyperlink ref="Q14" r:id="rId48" xr:uid="{FAF40914-BF73-441F-A0E3-320B3CDEF2D7}"/>
-    <hyperlink ref="Q22" r:id="rId49" xr:uid="{29AF189C-F6B8-4140-8123-75F9800356A0}"/>
+    <hyperlink ref="Q42" r:id="rId42" xr:uid="{08AA59C6-129C-4A77-B9F0-965BCA4BE4C5}"/>
+    <hyperlink ref="Q76" r:id="rId43" xr:uid="{8F32CF97-FE78-4465-BF95-5DB64DCB1370}"/>
+    <hyperlink ref="Q51" r:id="rId44" xr:uid="{7B1C8CA8-9D1F-4D0B-8BB8-523A6F6C12BC}"/>
+    <hyperlink ref="Q23" r:id="rId45" xr:uid="{CA6C154A-F001-4123-A697-000645F79433}"/>
+    <hyperlink ref="Q21" r:id="rId46" xr:uid="{D50B3E3F-0AFC-47AF-AEB7-C922A3E20B8D}"/>
+    <hyperlink ref="Q27" r:id="rId47" xr:uid="{2A114654-6261-49B5-BFB6-CD183E5B807C}"/>
+    <hyperlink ref="Q25" r:id="rId48" xr:uid="{FAF40914-BF73-441F-A0E3-320B3CDEF2D7}"/>
+    <hyperlink ref="Q34" r:id="rId49" xr:uid="{29AF189C-F6B8-4140-8123-75F9800356A0}"/>
     <hyperlink ref="Q17" r:id="rId50" xr:uid="{7555DFC1-E834-4D79-9291-8B0A9883737D}"/>
-    <hyperlink ref="Q31" r:id="rId51" xr:uid="{C02D9CDB-A820-43BD-A2C2-9CD36B628395}"/>
-    <hyperlink ref="Q11" r:id="rId52" xr:uid="{3108E4FF-1157-443D-9703-019FBE142558}"/>
-    <hyperlink ref="Q33" r:id="rId53" xr:uid="{3B62D278-4764-4AF7-814F-3F17C3C4A28F}"/>
-    <hyperlink ref="Q36" r:id="rId54" xr:uid="{656117FE-9C8B-4A48-B5B5-086BCBDD1E57}"/>
+    <hyperlink ref="Q41" r:id="rId51" xr:uid="{C02D9CDB-A820-43BD-A2C2-9CD36B628395}"/>
+    <hyperlink ref="Q22" r:id="rId52" xr:uid="{3108E4FF-1157-443D-9703-019FBE142558}"/>
+    <hyperlink ref="Q43" r:id="rId53" xr:uid="{3B62D278-4764-4AF7-814F-3F17C3C4A28F}"/>
+    <hyperlink ref="Q46" r:id="rId54" xr:uid="{656117FE-9C8B-4A48-B5B5-086BCBDD1E57}"/>
     <hyperlink ref="Q50" r:id="rId55" xr:uid="{6CE5F67E-1AD5-481A-9FC5-0D9B0604D13F}"/>
-    <hyperlink ref="Q95" r:id="rId56" xr:uid="{0C58A8F3-D127-4070-9990-820867FE1FC6}"/>
-    <hyperlink ref="Q40" r:id="rId57" xr:uid="{21F3833C-BFEE-486D-92DC-9EF36BDE7727}"/>
-    <hyperlink ref="Q43" r:id="rId58" xr:uid="{03D6D2CC-13CA-466B-B11B-B032AAD90D0B}"/>
+    <hyperlink ref="Q103" r:id="rId56" xr:uid="{0C58A8F3-D127-4070-9990-820867FE1FC6}"/>
+    <hyperlink ref="Q53" r:id="rId57" xr:uid="{21F3833C-BFEE-486D-92DC-9EF36BDE7727}"/>
+    <hyperlink ref="Q56" r:id="rId58" xr:uid="{03D6D2CC-13CA-466B-B11B-B032AAD90D0B}"/>
     <hyperlink ref="Q59" r:id="rId59" xr:uid="{0BE63715-C09B-40D9-8285-C499C1D8E061}"/>
-    <hyperlink ref="Q46" r:id="rId60" xr:uid="{0661332D-AAF1-4417-884C-171961CCE524}"/>
-    <hyperlink ref="Q19" r:id="rId61" xr:uid="{436A3985-CB75-458E-97DC-F234547B53D5}"/>
-    <hyperlink ref="Q55" r:id="rId62" xr:uid="{1E6BB8F6-2977-434F-9D69-58D39207B21F}"/>
-    <hyperlink ref="Q47" r:id="rId63" xr:uid="{8FED3114-1E9F-4009-8793-49B432B82A72}"/>
-    <hyperlink ref="Q78" r:id="rId64" xr:uid="{C924E054-238E-49AF-B0A9-6848E1019DFC}"/>
-    <hyperlink ref="Q112" r:id="rId65" xr:uid="{A563E90D-CC99-495F-A016-4F5583894D3D}"/>
-    <hyperlink ref="Q109" r:id="rId66" xr:uid="{F03B2750-EB53-4A31-8750-69D6286CE5B6}"/>
-    <hyperlink ref="Q93" r:id="rId67" xr:uid="{30E1F0D4-5223-4E1B-84B3-7A7375DB1330}"/>
-    <hyperlink ref="Q103" r:id="rId68" xr:uid="{A22BE914-49A7-41A8-8A74-7112D3C1495F}"/>
-    <hyperlink ref="Q96" r:id="rId69" xr:uid="{A0D3EF91-7D5F-4E77-AC9E-ABC093EB950E}"/>
-    <hyperlink ref="Q72" r:id="rId70" xr:uid="{64AF90F0-3478-4987-A788-F82B2A1A0AD7}"/>
-    <hyperlink ref="Q75" r:id="rId71" xr:uid="{7ADDBF3E-A48E-4ABA-A320-891FD5B1FC1F}"/>
-    <hyperlink ref="Q108" r:id="rId72" xr:uid="{FF61D40A-11DA-4355-A375-99CD410BC468}"/>
-    <hyperlink ref="Q83" r:id="rId73" xr:uid="{3E19DB74-8A32-4CD6-9A1F-AC60903B6ED5}"/>
+    <hyperlink ref="Q60" r:id="rId60" xr:uid="{0661332D-AAF1-4417-884C-171961CCE524}"/>
+    <hyperlink ref="Q31" r:id="rId61" xr:uid="{436A3985-CB75-458E-97DC-F234547B53D5}"/>
+    <hyperlink ref="Q66" r:id="rId62" xr:uid="{1E6BB8F6-2977-434F-9D69-58D39207B21F}"/>
+    <hyperlink ref="Q61" r:id="rId63" xr:uid="{8FED3114-1E9F-4009-8793-49B432B82A72}"/>
+    <hyperlink ref="Q86" r:id="rId64" xr:uid="{C924E054-238E-49AF-B0A9-6848E1019DFC}"/>
+    <hyperlink ref="Q11" r:id="rId65" xr:uid="{A563E90D-CC99-495F-A016-4F5583894D3D}"/>
+    <hyperlink ref="Q10" r:id="rId66" xr:uid="{F03B2750-EB53-4A31-8750-69D6286CE5B6}"/>
+    <hyperlink ref="Q6" r:id="rId67" xr:uid="{30E1F0D4-5223-4E1B-84B3-7A7375DB1330}"/>
+    <hyperlink ref="Q8" r:id="rId68" xr:uid="{A22BE914-49A7-41A8-8A74-7112D3C1495F}"/>
+    <hyperlink ref="Q7" r:id="rId69" xr:uid="{A0D3EF91-7D5F-4E77-AC9E-ABC093EB950E}"/>
+    <hyperlink ref="Q2" r:id="rId70" xr:uid="{64AF90F0-3478-4987-A788-F82B2A1A0AD7}"/>
+    <hyperlink ref="Q3" r:id="rId71" xr:uid="{7ADDBF3E-A48E-4ABA-A320-891FD5B1FC1F}"/>
+    <hyperlink ref="Q9" r:id="rId72" xr:uid="{FF61D40A-11DA-4355-A375-99CD410BC468}"/>
+    <hyperlink ref="Q4" r:id="rId73" xr:uid="{3E19DB74-8A32-4CD6-9A1F-AC60903B6ED5}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId74"/>

--- a/2-PERSONAL/----PENDIENTES/PENDIENTES 09-06-22.xlsx
+++ b/2-PERSONAL/----PENDIENTES/PENDIENTES 09-06-22.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AKM\2-PERSONAL\----PENDIENTES\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC3C2E13-96EE-4AE7-A728-8927FA6CE87E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F512404E-8563-4595-89C4-7A1207B19622}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="2" activeTab="4" xr2:uid="{E80D2E49-80EA-4EBC-AFF4-7850061B15D2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="2" activeTab="2" xr2:uid="{E80D2E49-80EA-4EBC-AFF4-7850061B15D2}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja3" sheetId="3" r:id="rId1"/>
@@ -2919,9 +2919,6 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2931,6 +2928,9 @@
     <xf numFmtId="49" fontId="0" fillId="10" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -2939,17 +2939,17 @@
   <dxfs count="4">
     <dxf>
       <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFB4C6E7"/>
-          <bgColor rgb="FF000000"/>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB4C6E7"/>
+          <bgColor rgb="FF000000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3004,7 +3004,7 @@
       <sheetName val="MODELO3"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="0"/>
       <sheetData sheetId="1">
         <row r="1">
           <cell r="A1" t="str">
@@ -3268,15 +3268,27 @@
             <v>0.29166666666666669</v>
           </cell>
         </row>
+        <row r="4">
+          <cell r="A4"/>
+          <cell r="B4"/>
+          <cell r="C4"/>
+          <cell r="D4"/>
+          <cell r="E4"/>
+          <cell r="F4"/>
+        </row>
+        <row r="5">
+          <cell r="A5"/>
+          <cell r="B5"/>
+        </row>
       </sheetData>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6" refreshError="1"/>
-      <sheetData sheetId="7" refreshError="1"/>
-      <sheetData sheetId="8" refreshError="1"/>
-      <sheetData sheetId="9" refreshError="1"/>
-      <sheetData sheetId="10" refreshError="1"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -10027,8 +10039,8 @@
   </sheetPr>
   <dimension ref="A1:L205"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="O172" sqref="O172"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H183" sqref="H183"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23921,7 +23933,7 @@
   <sheetPr codeName="Hoja2" filterMode="1"/>
   <dimension ref="A1:AB117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F123" sqref="F123"/>
     </sheetView>
   </sheetViews>
@@ -24101,7 +24113,7 @@
       <c r="Z2" s="13"/>
       <c r="AA2" s="13"/>
       <c r="AB2" s="13" t="str">
-        <f>CONCATENATE(C2," ", D2)</f>
+        <f t="shared" ref="AB2:AB33" si="0">CONCATENATE(C2," ", D2)</f>
         <v>AQUITUARI PEREZ KELLY</v>
       </c>
     </row>
@@ -24160,7 +24172,7 @@
       <c r="Z3" s="13"/>
       <c r="AA3" s="13"/>
       <c r="AB3" s="13" t="str">
-        <f>CONCATENATE(C3," ", D3)</f>
+        <f t="shared" si="0"/>
         <v>AVALOS VEGA YHEIK HENRY</v>
       </c>
     </row>
@@ -24223,7 +24235,7 @@
       <c r="Z4" s="13"/>
       <c r="AA4" s="13"/>
       <c r="AB4" s="13" t="str">
-        <f>CONCATENATE(C4," ", D4)</f>
+        <f t="shared" si="0"/>
         <v>DIAZ CASTILLO EVELYN ROSALI</v>
       </c>
     </row>
@@ -24280,7 +24292,7 @@
       <c r="Z5" s="13"/>
       <c r="AA5" s="13"/>
       <c r="AB5" s="13" t="str">
-        <f>CONCATENATE(C5," ", D5)</f>
+        <f t="shared" si="0"/>
         <v>MANCO FERNANDEZ ROSA MILAGROS</v>
       </c>
     </row>
@@ -24339,7 +24351,7 @@
       <c r="Z6" s="13"/>
       <c r="AA6" s="13"/>
       <c r="AB6" s="13" t="str">
-        <f>CONCATENATE(C6," ", D6)</f>
+        <f t="shared" si="0"/>
         <v>PEREZ CORDOVA BOOZ OBED</v>
       </c>
     </row>
@@ -24404,7 +24416,7 @@
       <c r="Z7" s="13"/>
       <c r="AA7" s="13"/>
       <c r="AB7" s="13" t="str">
-        <f>CONCATENATE(C7," ", D7)</f>
+        <f t="shared" si="0"/>
         <v>QUIROZ VARGAS KARINA ELIZABETH</v>
       </c>
     </row>
@@ -24463,7 +24475,7 @@
       <c r="Z8" s="13"/>
       <c r="AA8" s="13"/>
       <c r="AB8" s="13" t="str">
-        <f>CONCATENATE(C8," ", D8)</f>
+        <f t="shared" si="0"/>
         <v>RAMOS HUAMANI ADRIANA PAOLA</v>
       </c>
     </row>
@@ -24528,7 +24540,7 @@
       <c r="Z9" s="13"/>
       <c r="AA9" s="13"/>
       <c r="AB9" s="13" t="str">
-        <f>CONCATENATE(C9," ", D9)</f>
+        <f t="shared" si="0"/>
         <v>SILVA GARCIA DAYALIS YURUVI</v>
       </c>
     </row>
@@ -24587,7 +24599,7 @@
       <c r="Z10" s="13"/>
       <c r="AA10" s="13"/>
       <c r="AB10" s="13" t="str">
-        <f>CONCATENATE(C10," ", D10)</f>
+        <f t="shared" si="0"/>
         <v>SILVA VASQUEZ PEDRO SABINA</v>
       </c>
     </row>
@@ -24650,7 +24662,7 @@
       <c r="Z11" s="13"/>
       <c r="AA11" s="13"/>
       <c r="AB11" s="13" t="str">
-        <f>CONCATENATE(C11," ", D11)</f>
+        <f t="shared" si="0"/>
         <v>SOLIS DURAND JESSICA MARISOL</v>
       </c>
     </row>
@@ -24723,7 +24735,7 @@
         <v>410</v>
       </c>
       <c r="AB12" s="13" t="str">
-        <f>CONCATENATE(C12," ", D12)</f>
+        <f t="shared" si="0"/>
         <v>ALIAGA MARIN JOSE RULY</v>
       </c>
     </row>
@@ -24789,7 +24801,7 @@
       </c>
       <c r="AA13" s="13"/>
       <c r="AB13" s="13" t="str">
-        <f>CONCATENATE(C13," ", D13)</f>
+        <f t="shared" si="0"/>
         <v>ALVARADO CORNEJO ADRIAN LEANDRO</v>
       </c>
     </row>
@@ -24856,7 +24868,7 @@
         <v>419</v>
       </c>
       <c r="AB14" s="13" t="str">
-        <f>CONCATENATE(C14," ", D14)</f>
+        <f t="shared" si="0"/>
         <v>ANTONIETTE FRANCIA MARIA MILAGROS</v>
       </c>
     </row>
@@ -24927,7 +24939,7 @@
       </c>
       <c r="AA15" s="13"/>
       <c r="AB15" s="13" t="str">
-        <f>CONCATENATE(C15," ", D15)</f>
+        <f t="shared" si="0"/>
         <v>AQUITUARI CALDERON LUPE AMPARO</v>
       </c>
     </row>
@@ -24992,7 +25004,7 @@
       </c>
       <c r="AA16" s="13"/>
       <c r="AB16" s="13" t="str">
-        <f>CONCATENATE(C16," ", D16)</f>
+        <f t="shared" si="0"/>
         <v>ARANDA GONZALES MELY BERTITA</v>
       </c>
     </row>
@@ -25065,7 +25077,7 @@
       <c r="Z17" s="28"/>
       <c r="AA17" s="28"/>
       <c r="AB17" s="13" t="str">
-        <f>CONCATENATE(C17," ", D17)</f>
+        <f t="shared" si="0"/>
         <v>BOJORQUEZ BERROCAL LUZ CRISTINA</v>
       </c>
     </row>
@@ -25131,7 +25143,7 @@
       </c>
       <c r="AA18" s="13"/>
       <c r="AB18" s="13" t="str">
-        <f>CONCATENATE(C18," ", D18)</f>
+        <f t="shared" si="0"/>
         <v>ARIAS ARIAS LOURDES DE FATIMA</v>
       </c>
     </row>
@@ -25198,7 +25210,7 @@
         <v>568</v>
       </c>
       <c r="AB19" s="13" t="str">
-        <f>CONCATENATE(C19," ", D19)</f>
+        <f t="shared" si="0"/>
         <v>GRABIEL LIVIA JESSICA KELY</v>
       </c>
     </row>
@@ -25269,7 +25281,7 @@
       </c>
       <c r="AA20" s="13"/>
       <c r="AB20" s="13" t="str">
-        <f>CONCATENATE(C20," ", D20)</f>
+        <f t="shared" si="0"/>
         <v>ATAHUA LINARES KAMILA ALEXANDRA</v>
       </c>
     </row>
@@ -25334,7 +25346,7 @@
         <v>436</v>
       </c>
       <c r="AB21" s="13" t="str">
-        <f>CONCATENATE(C21," ", D21)</f>
+        <f t="shared" si="0"/>
         <v>ARIAS CONDORI LUIS ANGEL</v>
       </c>
     </row>
@@ -25409,7 +25421,7 @@
         <v>484</v>
       </c>
       <c r="AB22" s="13" t="str">
-        <f>CONCATENATE(C22," ", D22)</f>
+        <f t="shared" si="0"/>
         <v>CAMASCA QUINTO LEYDI HELEN</v>
       </c>
     </row>
@@ -25474,7 +25486,7 @@
         <v>542</v>
       </c>
       <c r="AB23" s="13" t="str">
-        <f>CONCATENATE(C23," ", D23)</f>
+        <f t="shared" si="0"/>
         <v>ENCALADA LAZARO BRAYAN MANUEL</v>
       </c>
     </row>
@@ -25539,7 +25551,7 @@
       </c>
       <c r="AA24" s="13"/>
       <c r="AB24" s="13" t="str">
-        <f>CONCATENATE(C24," ", D24)</f>
+        <f t="shared" si="0"/>
         <v>CALVAY CASTRO MIGUEL ALONSO</v>
       </c>
     </row>
@@ -25604,7 +25616,7 @@
         <v>598</v>
       </c>
       <c r="AB25" s="13" t="str">
-        <f>CONCATENATE(C25," ", D25)</f>
+        <f t="shared" si="0"/>
         <v>LLANOS RAYMUNDO JUAN LEVIN</v>
       </c>
     </row>
@@ -25674,7 +25686,7 @@
       </c>
       <c r="AA26" s="13"/>
       <c r="AB26" s="13" t="str">
-        <f>CONCATENATE(C26," ", D26)</f>
+        <f t="shared" si="0"/>
         <v>CAMPOS ASIN MARIA LUISA</v>
       </c>
     </row>
@@ -25749,7 +25761,7 @@
         <v>634</v>
       </c>
       <c r="AB27" s="13" t="str">
-        <f>CONCATENATE(C27," ", D27)</f>
+        <f t="shared" si="0"/>
         <v>MERCADO CUYA MAYBELYN</v>
       </c>
     </row>
@@ -25814,7 +25826,7 @@
       </c>
       <c r="AA28" s="13"/>
       <c r="AB28" s="13" t="str">
-        <f>CONCATENATE(C28," ", D28)</f>
+        <f t="shared" si="0"/>
         <v>CARDENAS LAVAGGE PERCY ENRIQUE</v>
       </c>
     </row>
@@ -25875,7 +25887,7 @@
       <c r="Z29" s="13"/>
       <c r="AA29" s="13"/>
       <c r="AB29" s="13" t="str">
-        <f>CONCATENATE(C29," ", D29)</f>
+        <f t="shared" si="0"/>
         <v>CHUMPITAZ ROMAN MARGARITA</v>
       </c>
     </row>
@@ -25948,7 +25960,7 @@
       <c r="Z30" s="13"/>
       <c r="AA30" s="13"/>
       <c r="AB30" s="13" t="str">
-        <f>CONCATENATE(C30," ", D30)</f>
+        <f t="shared" si="0"/>
         <v>COELO SINUIRI GUADALUPE</v>
       </c>
     </row>
@@ -26023,7 +26035,7 @@
         <v>504</v>
       </c>
       <c r="AB31" s="13" t="str">
-        <f>CONCATENATE(C31," ", D31)</f>
+        <f t="shared" si="0"/>
         <v>CASTRO CORTEZ CAROLYNE BEATRIZ</v>
       </c>
     </row>
@@ -26094,7 +26106,7 @@
       </c>
       <c r="AA32" s="13"/>
       <c r="AB32" s="13" t="str">
-        <f>CONCATENATE(C32," ", D32)</f>
+        <f t="shared" si="0"/>
         <v>CHINGUEL FACUNDO BRENDA</v>
       </c>
     </row>
@@ -26167,7 +26179,7 @@
       </c>
       <c r="AA33" s="13"/>
       <c r="AB33" s="13" t="str">
-        <f>CONCATENATE(C33," ", D33)</f>
+        <f t="shared" si="0"/>
         <v>CHINO FLORES MARGARITA EDITH</v>
       </c>
     </row>
@@ -26232,7 +26244,7 @@
         <v>638</v>
       </c>
       <c r="AB34" s="13" t="str">
-        <f>CONCATENATE(C34," ", D34)</f>
+        <f t="shared" ref="AB34:AB65" si="1">CONCATENATE(C34," ", D34)</f>
         <v>MEZA MALASQUEZ LISBETH PAULINA</v>
       </c>
     </row>
@@ -26299,14 +26311,14 @@
       </c>
       <c r="AA35" s="13"/>
       <c r="AB35" s="13" t="str">
-        <f>CONCATENATE(C35," ", D35)</f>
+        <f t="shared" si="1"/>
         <v>CONDORI LANDEO LUCY</v>
       </c>
     </row>
     <row r="36" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="11"/>
       <c r="B36" s="13"/>
-      <c r="C36" s="82" t="s">
+      <c r="C36" s="81" t="s">
         <v>168</v>
       </c>
       <c r="D36" s="39" t="s">
@@ -26315,7 +26327,7 @@
       <c r="E36" s="40">
         <v>35940</v>
       </c>
-      <c r="F36" s="84" t="s">
+      <c r="F36" s="83" t="s">
         <v>711</v>
       </c>
       <c r="G36" s="42">
@@ -26368,7 +26380,7 @@
         <v>715</v>
       </c>
       <c r="AB36" s="13" t="str">
-        <f>CONCATENATE(C36," ", D36)</f>
+        <f t="shared" si="1"/>
         <v>SEMINARIO JIMENEZ ANDREA</v>
       </c>
     </row>
@@ -26434,7 +26446,7 @@
       </c>
       <c r="AA37" s="13"/>
       <c r="AB37" s="13" t="str">
-        <f>CONCATENATE(C37," ", D37)</f>
+        <f t="shared" si="1"/>
         <v>DIAZ CORTEZ DANITZA KATHERINE</v>
       </c>
     </row>
@@ -26499,7 +26511,7 @@
       </c>
       <c r="AA38" s="13"/>
       <c r="AB38" s="13" t="str">
-        <f>CONCATENATE(C38," ", D38)</f>
+        <f t="shared" si="1"/>
         <v>DIAZ HERRERA ROSITA</v>
       </c>
     </row>
@@ -26564,7 +26576,7 @@
       </c>
       <c r="AA39" s="13"/>
       <c r="AB39" s="13" t="str">
-        <f>CONCATENATE(C39," ", D39)</f>
+        <f t="shared" si="1"/>
         <v>DIAZ ORTIZ GLADYS SUSANA</v>
       </c>
     </row>
@@ -26635,7 +26647,7 @@
       </c>
       <c r="AA40" s="13"/>
       <c r="AB40" s="13" t="str">
-        <f>CONCATENATE(C40," ", D40)</f>
+        <f t="shared" si="1"/>
         <v>DIAZ SARMIENTO KAROLAY ESTHEFANY</v>
       </c>
     </row>
@@ -26700,7 +26712,7 @@
         <v>748</v>
       </c>
       <c r="AB41" s="13" t="str">
-        <f>CONCATENATE(C41," ", D41)</f>
+        <f t="shared" si="1"/>
         <v>TANTA CULQUI KATHERINE MARGOT</v>
       </c>
     </row>
@@ -26765,7 +26777,7 @@
         <v>779</v>
       </c>
       <c r="AB42" s="13" t="str">
-        <f>CONCATENATE(C42," ", D42)</f>
+        <f t="shared" si="1"/>
         <v>VILCA MORENO ANTONY WILFREDO</v>
       </c>
     </row>
@@ -26830,7 +26842,7 @@
         <v>448</v>
       </c>
       <c r="AB43" s="13" t="str">
-        <f>CONCATENATE(C43," ", D43)</f>
+        <f t="shared" si="1"/>
         <v>AYALA MONTES JORGE LUIS</v>
       </c>
     </row>
@@ -26901,7 +26913,7 @@
       </c>
       <c r="AA44" s="13"/>
       <c r="AB44" s="13" t="str">
-        <f>CONCATENATE(C44," ", D44)</f>
+        <f t="shared" si="1"/>
         <v>FLORES SOSA ANGIE DEL CIELO</v>
       </c>
     </row>
@@ -26973,7 +26985,7 @@
       </c>
       <c r="AA45" s="13"/>
       <c r="AB45" s="13" t="str">
-        <f>CONCATENATE(C45," ", D45)</f>
+        <f t="shared" si="1"/>
         <v>GARCIA CARDOZO GIOVANA</v>
       </c>
     </row>
@@ -27042,7 +27054,7 @@
         <v>548</v>
       </c>
       <c r="AB46" s="13" t="str">
-        <f>CONCATENATE(C46," ", D46)</f>
+        <f t="shared" si="1"/>
         <v>ESPINOZA RUBIO WILLY</v>
       </c>
     </row>
@@ -27107,7 +27119,7 @@
       </c>
       <c r="AA47" s="13"/>
       <c r="AB47" s="13" t="str">
-        <f>CONCATENATE(C47," ", D47)</f>
+        <f t="shared" si="1"/>
         <v>GUTIERREZ LA ROSA KATLEHEN DANIELA</v>
       </c>
     </row>
@@ -27175,7 +27187,7 @@
       </c>
       <c r="AA48" s="13"/>
       <c r="AB48" s="13" t="str">
-        <f>CONCATENATE(C48," ", D48)</f>
+        <f t="shared" si="1"/>
         <v>HUAMALI VELASQUEZ DEYBI BRAYTON</v>
       </c>
     </row>
@@ -27237,7 +27249,7 @@
       <c r="Z49" s="13"/>
       <c r="AA49" s="13"/>
       <c r="AB49" s="13" t="str">
-        <f>CONCATENATE(C49," ", D49)</f>
+        <f t="shared" si="1"/>
         <v>HUACCHA RAMOS JEANET ROXANA</v>
       </c>
     </row>
@@ -27299,7 +27311,7 @@
       <c r="Z50" s="13"/>
       <c r="AA50" s="13"/>
       <c r="AB50" s="13" t="str">
-        <f>CONCATENATE(C50," ", D50)</f>
+        <f t="shared" si="1"/>
         <v>HUACCHA RAMOS JHORDY GERARDO</v>
       </c>
     </row>
@@ -27363,7 +27375,7 @@
         <v>589</v>
       </c>
       <c r="AB51" s="13" t="str">
-        <f>CONCATENATE(C51," ", D51)</f>
+        <f t="shared" si="1"/>
         <v>INCHE ALMERCO DAVID RENZO</v>
       </c>
     </row>
@@ -27428,7 +27440,7 @@
       <c r="Z52" s="13"/>
       <c r="AA52" s="13"/>
       <c r="AB52" s="13" t="str">
-        <f>CONCATENATE(C52," ", D52)</f>
+        <f t="shared" si="1"/>
         <v>HUAMAN COSME RICARDO ANDRE</v>
       </c>
     </row>
@@ -27497,7 +27509,7 @@
         <v>735</v>
       </c>
       <c r="AB53" s="13" t="str">
-        <f>CONCATENATE(C53," ", D53)</f>
+        <f t="shared" si="1"/>
         <v>SOLIS SIMON ESTHER MARLENE</v>
       </c>
     </row>
@@ -27568,7 +27580,7 @@
       </c>
       <c r="AA54" s="13"/>
       <c r="AB54" s="13" t="str">
-        <f>CONCATENATE(C54," ", D54)</f>
+        <f t="shared" si="1"/>
         <v>LOPEZ AQUITUARI JHOYS EBELYN</v>
       </c>
     </row>
@@ -27633,7 +27645,7 @@
       </c>
       <c r="AA55" s="13"/>
       <c r="AB55" s="13" t="str">
-        <f>CONCATENATE(C55," ", D55)</f>
+        <f t="shared" si="1"/>
         <v>LUNA SOCOLA LUCIA GERALDINE</v>
       </c>
     </row>
@@ -27707,7 +27719,7 @@
         <v>619</v>
       </c>
       <c r="AB56" s="13" t="str">
-        <f>CONCATENATE(C56," ", D56)</f>
+        <f t="shared" si="1"/>
         <v>MALASQUEZ ZEÑA JORGE LUIS</v>
       </c>
     </row>
@@ -27777,7 +27789,7 @@
       </c>
       <c r="AA57" s="13"/>
       <c r="AB57" s="13" t="str">
-        <f>CONCATENATE(C57," ", D57)</f>
+        <f t="shared" si="1"/>
         <v>MASSA MONJA CLAUDIA CECILIA</v>
       </c>
     </row>
@@ -27842,7 +27854,7 @@
       </c>
       <c r="AA58" s="13"/>
       <c r="AB58" s="13" t="str">
-        <f>CONCATENATE(C58," ", D58)</f>
+        <f t="shared" si="1"/>
         <v>MELO GARCIA PAMELA RUBI</v>
       </c>
     </row>
@@ -27914,7 +27926,7 @@
       <c r="Z59" s="13"/>
       <c r="AA59" s="13"/>
       <c r="AB59" s="13" t="str">
-        <f>CONCATENATE(C59," ", D59)</f>
+        <f t="shared" si="1"/>
         <v>MALASQUEZ BERNALES DIANA ISABEL</v>
       </c>
     </row>
@@ -27985,7 +27997,7 @@
         <v>752</v>
       </c>
       <c r="AB60" s="13" t="str">
-        <f>CONCATENATE(C60," ", D60)</f>
+        <f t="shared" si="1"/>
         <v>TAQUIRI SOLIS ASHLY DAYAN</v>
       </c>
     </row>
@@ -28056,7 +28068,7 @@
         <v>521</v>
       </c>
       <c r="AB61" s="13" t="str">
-        <f>CONCATENATE(C61," ", D61)</f>
+        <f t="shared" si="1"/>
         <v>CUYA CHAMORRO BRISA DANA</v>
       </c>
     </row>
@@ -28126,7 +28138,7 @@
       </c>
       <c r="AA62" s="13"/>
       <c r="AB62" s="13" t="str">
-        <f>CONCATENATE(C62," ", D62)</f>
+        <f t="shared" si="1"/>
         <v>MURAYARI CUMAPA LUZ CLARITA</v>
       </c>
     </row>
@@ -28197,7 +28209,7 @@
       </c>
       <c r="AA63" s="13"/>
       <c r="AB63" s="13" t="str">
-        <f>CONCATENATE(C63," ", D63)</f>
+        <f t="shared" si="1"/>
         <v>NUÑEZ LAREDO ELVA ADELINA</v>
       </c>
     </row>
@@ -28262,7 +28274,7 @@
       </c>
       <c r="AA64" s="13"/>
       <c r="AB64" s="13" t="str">
-        <f>CONCATENATE(C64," ", D64)</f>
+        <f t="shared" si="1"/>
         <v>OLIVO AZOCAR ROGER</v>
       </c>
     </row>
@@ -28333,7 +28345,7 @@
       </c>
       <c r="AA65" s="13"/>
       <c r="AB65" s="13" t="str">
-        <f>CONCATENATE(C65," ", D65)</f>
+        <f t="shared" si="1"/>
         <v>PAHUACHO COSME CARMEN CATHERINE</v>
       </c>
     </row>
@@ -28402,7 +28414,7 @@
         <v>724</v>
       </c>
       <c r="AB66" s="13" t="str">
-        <f>CONCATENATE(C66," ", D66)</f>
+        <f t="shared" ref="AB66:AB97" si="2">CONCATENATE(C66," ", D66)</f>
         <v>SILVA VASQUEZ JEAN EFRAIN</v>
       </c>
     </row>
@@ -28429,7 +28441,7 @@
         <v>1</v>
       </c>
       <c r="H67" s="11" t="str">
-        <f>VLOOKUP(G67,AREAS,2)</f>
+        <f t="shared" ref="H67:H73" si="3">VLOOKUP(G67,AREAS,2)</f>
         <v>Operaciones</v>
       </c>
       <c r="I67" s="24">
@@ -28471,7 +28483,7 @@
       <c r="Z67" s="13"/>
       <c r="AA67" s="13"/>
       <c r="AB67" s="73" t="str">
-        <f>CONCATENATE(C67," ", D67)</f>
+        <f t="shared" si="2"/>
         <v>CANTA SHUAN SONIA</v>
       </c>
     </row>
@@ -28498,7 +28510,7 @@
         <v>1</v>
       </c>
       <c r="H68" s="11" t="str">
-        <f>VLOOKUP(G68,AREAS,2)</f>
+        <f t="shared" si="3"/>
         <v>Operaciones</v>
       </c>
       <c r="I68" s="24">
@@ -28536,7 +28548,7 @@
       <c r="Z68" s="13"/>
       <c r="AA68" s="13"/>
       <c r="AB68" s="13" t="str">
-        <f>CONCATENATE(C68," ", D68)</f>
+        <f t="shared" si="2"/>
         <v>MEZA MANCO JHONELL MARTIN</v>
       </c>
     </row>
@@ -28563,7 +28575,7 @@
         <v>1</v>
       </c>
       <c r="H69" s="11" t="str">
-        <f>VLOOKUP(G69,AREAS,2)</f>
+        <f t="shared" si="3"/>
         <v>Operaciones</v>
       </c>
       <c r="I69" s="24">
@@ -28601,7 +28613,7 @@
       </c>
       <c r="AA69" s="13"/>
       <c r="AB69" s="13" t="str">
-        <f>CONCATENATE(C69," ", D69)</f>
+        <f t="shared" si="2"/>
         <v>PILLACA RIVERA CANDY VANESSA</v>
       </c>
     </row>
@@ -28628,7 +28640,7 @@
         <v>1</v>
       </c>
       <c r="H70" s="11" t="str">
-        <f>VLOOKUP(G70,AREAS,2)</f>
+        <f t="shared" si="3"/>
         <v>Operaciones</v>
       </c>
       <c r="I70" s="24">
@@ -28666,7 +28678,7 @@
       </c>
       <c r="AA70" s="13"/>
       <c r="AB70" s="13" t="str">
-        <f>CONCATENATE(C70," ", D70)</f>
+        <f t="shared" si="2"/>
         <v>PINEDO GUTIERREZ CHRISTOPHER DAVID</v>
       </c>
     </row>
@@ -28693,7 +28705,7 @@
         <v>1</v>
       </c>
       <c r="H71" s="11" t="str">
-        <f>VLOOKUP(G71,AREAS,2)</f>
+        <f t="shared" si="3"/>
         <v>Operaciones</v>
       </c>
       <c r="I71" s="24">
@@ -28737,7 +28749,7 @@
       </c>
       <c r="AA71" s="13"/>
       <c r="AB71" s="13" t="str">
-        <f>CONCATENATE(C71," ", D71)</f>
+        <f t="shared" si="2"/>
         <v>PUICON JAVIER MARIA CRUZ</v>
       </c>
     </row>
@@ -28762,7 +28774,7 @@
         <v>1</v>
       </c>
       <c r="H72" s="11" t="str">
-        <f>VLOOKUP(G72,AREAS,2)</f>
+        <f t="shared" si="3"/>
         <v>Operaciones</v>
       </c>
       <c r="I72" s="24">
@@ -28803,7 +28815,7 @@
       </c>
       <c r="AA72" s="13"/>
       <c r="AB72" s="13" t="str">
-        <f>CONCATENATE(C72," ", D72)</f>
+        <f t="shared" si="2"/>
         <v>CANALES CAJA ANDERSON HONORIO ANGEL</v>
       </c>
     </row>
@@ -28830,7 +28842,7 @@
         <v>1</v>
       </c>
       <c r="H73" s="11" t="str">
-        <f>VLOOKUP(G73,AREAS,2)</f>
+        <f t="shared" si="3"/>
         <v>Operaciones</v>
       </c>
       <c r="I73" s="24">
@@ -28868,7 +28880,7 @@
       </c>
       <c r="AA73" s="13"/>
       <c r="AB73" s="13" t="str">
-        <f>CONCATENATE(C73," ", D73)</f>
+        <f t="shared" si="2"/>
         <v>COLMENARES IPANAQUE MARIA NERY</v>
       </c>
     </row>
@@ -28932,7 +28944,7 @@
       <c r="Z74" s="13"/>
       <c r="AA74" s="13"/>
       <c r="AB74" s="13" t="str">
-        <f>CONCATENATE(C74," ", D74)</f>
+        <f t="shared" si="2"/>
         <v>PALACIOS MANCO MARIA ANDREA</v>
       </c>
     </row>
@@ -28997,7 +29009,7 @@
       </c>
       <c r="AA75" s="13"/>
       <c r="AB75" s="13" t="str">
-        <f>CONCATENATE(C75," ", D75)</f>
+        <f t="shared" si="2"/>
         <v>ESPINOZA SANCHEZ JHOEL CRISTHIAN</v>
       </c>
     </row>
@@ -29061,7 +29073,7 @@
         <v>682</v>
       </c>
       <c r="AB76" s="13" t="str">
-        <f>CONCATENATE(C76," ", D76)</f>
+        <f t="shared" si="2"/>
         <v>PULLO GONZALES DANNY</v>
       </c>
     </row>
@@ -29133,7 +29145,7 @@
       </c>
       <c r="AA77" s="13"/>
       <c r="AB77" s="13" t="str">
-        <f>CONCATENATE(C77," ", D77)</f>
+        <f t="shared" si="2"/>
         <v>TRUJILLO MAITA VALESKA ALEJANDRA</v>
       </c>
     </row>
@@ -29204,7 +29216,7 @@
       </c>
       <c r="AA78" s="13"/>
       <c r="AB78" s="13" t="str">
-        <f>CONCATENATE(C78," ", D78)</f>
+        <f t="shared" si="2"/>
         <v>QUISPE MENESES ROXXETT</v>
       </c>
     </row>
@@ -29268,7 +29280,7 @@
       </c>
       <c r="AA79" s="13"/>
       <c r="AB79" s="13" t="str">
-        <f>CONCATENATE(C79," ", D79)</f>
+        <f t="shared" si="2"/>
         <v>ZARPAN SILVA ROSARIO DEL PILAR</v>
       </c>
     </row>
@@ -29332,7 +29344,7 @@
       </c>
       <c r="AA80" s="13"/>
       <c r="AB80" s="13" t="str">
-        <f>CONCATENATE(C80," ", D80)</f>
+        <f t="shared" si="2"/>
         <v>RAMIREZ HUAMANI FIORELLA STHEFANI</v>
       </c>
     </row>
@@ -29403,7 +29415,7 @@
       </c>
       <c r="AA81" s="13"/>
       <c r="AB81" s="13" t="str">
-        <f>CONCATENATE(C81," ", D81)</f>
+        <f t="shared" si="2"/>
         <v>RUIZ MACEDO SUSANY MARIA</v>
       </c>
     </row>
@@ -29474,7 +29486,7 @@
       </c>
       <c r="AA82" s="13"/>
       <c r="AB82" s="13" t="str">
-        <f>CONCATENATE(C82," ", D82)</f>
+        <f t="shared" si="2"/>
         <v>SANCHEZ CABRERA MERCEDES</v>
       </c>
     </row>
@@ -29539,7 +29551,7 @@
       </c>
       <c r="AA83" s="13"/>
       <c r="AB83" s="13" t="str">
-        <f>CONCATENATE(C83," ", D83)</f>
+        <f t="shared" si="2"/>
         <v>BARTOLO SANTOS EVELYN ROSALYNDA</v>
       </c>
     </row>
@@ -29604,7 +29616,7 @@
       </c>
       <c r="AA84" s="13"/>
       <c r="AB84" s="13" t="str">
-        <f>CONCATENATE(C84," ", D84)</f>
+        <f t="shared" si="2"/>
         <v>BALCAZAR CORI ANGELICA MARIA</v>
       </c>
     </row>
@@ -29670,7 +29682,7 @@
       </c>
       <c r="AA85" s="13"/>
       <c r="AB85" s="13" t="str">
-        <f>CONCATENATE(C85," ", D85)</f>
+        <f t="shared" si="2"/>
         <v>BANCES CHAPOÑAN YANINA IBONNE</v>
       </c>
     </row>
@@ -29745,7 +29757,7 @@
         <v>476</v>
       </c>
       <c r="AB86" s="13" t="str">
-        <f>CONCATENATE(C86," ", D86)</f>
+        <f t="shared" si="2"/>
         <v>CAJAS CARDENAS KELLY GRIS</v>
       </c>
     </row>
@@ -29816,7 +29828,7 @@
       <c r="Z87" s="13"/>
       <c r="AA87" s="13"/>
       <c r="AB87" s="13" t="str">
-        <f>CONCATENATE(C87," ", D87)</f>
+        <f t="shared" si="2"/>
         <v>RAMOS CAMPOS JULIA CARMEN</v>
       </c>
     </row>
@@ -29881,7 +29893,7 @@
       </c>
       <c r="AA88" s="13"/>
       <c r="AB88" s="13" t="str">
-        <f>CONCATENATE(C88," ", D88)</f>
+        <f t="shared" si="2"/>
         <v>BERNALES CASTRO JORDY JAMPIER</v>
       </c>
     </row>
@@ -29908,7 +29920,7 @@
         <v>1</v>
       </c>
       <c r="H89" s="11" t="str">
-        <f>VLOOKUP(G89,AREAS,2)</f>
+        <f t="shared" ref="H89:H95" si="4">VLOOKUP(G89,AREAS,2)</f>
         <v>Operaciones</v>
       </c>
       <c r="I89" s="24">
@@ -29948,7 +29960,7 @@
       </c>
       <c r="AA89" s="13"/>
       <c r="AB89" s="13" t="str">
-        <f>CONCATENATE(C89," ", D89)</f>
+        <f t="shared" si="2"/>
         <v>CAMPOS VILLALTA LOURDES ISABEL</v>
       </c>
     </row>
@@ -29975,7 +29987,7 @@
         <v>1</v>
       </c>
       <c r="H90" s="11" t="str">
-        <f>VLOOKUP(G90,AREAS,2)</f>
+        <f t="shared" si="4"/>
         <v>Operaciones</v>
       </c>
       <c r="I90" s="24">
@@ -30013,7 +30025,7 @@
       </c>
       <c r="AA90" s="13"/>
       <c r="AB90" s="13" t="str">
-        <f>CONCATENATE(C90," ", D90)</f>
+        <f t="shared" si="2"/>
         <v>SUEL CAYLLAHUA LISET</v>
       </c>
     </row>
@@ -30040,7 +30052,7 @@
         <v>1</v>
       </c>
       <c r="H91" s="11" t="str">
-        <f>VLOOKUP(G91,AREAS,2)</f>
+        <f t="shared" si="4"/>
         <v>Operaciones</v>
       </c>
       <c r="I91" s="24">
@@ -30084,7 +30096,7 @@
       </c>
       <c r="AA91" s="13"/>
       <c r="AB91" s="13" t="str">
-        <f>CONCATENATE(C91," ", D91)</f>
+        <f t="shared" si="2"/>
         <v>SULLON GARCIA KATHERINE ELIZABETH</v>
       </c>
     </row>
@@ -30111,7 +30123,7 @@
         <v>1</v>
       </c>
       <c r="H92" s="11" t="str">
-        <f>VLOOKUP(G92,AREAS,2)</f>
+        <f t="shared" si="4"/>
         <v>Operaciones</v>
       </c>
       <c r="I92" s="24">
@@ -30155,7 +30167,7 @@
       </c>
       <c r="AA92" s="13"/>
       <c r="AB92" s="13" t="str">
-        <f>CONCATENATE(C92," ", D92)</f>
+        <f t="shared" si="2"/>
         <v>FLORES LOPEZ DIANA</v>
       </c>
     </row>
@@ -30182,7 +30194,7 @@
         <v>1</v>
       </c>
       <c r="H93" s="11" t="str">
-        <f>VLOOKUP(G93,AREAS,2)</f>
+        <f t="shared" si="4"/>
         <v>Operaciones</v>
       </c>
       <c r="I93" s="24">
@@ -30224,7 +30236,7 @@
       </c>
       <c r="AA93" s="13"/>
       <c r="AB93" s="13" t="str">
-        <f>CONCATENATE(C93," ", D93)</f>
+        <f t="shared" si="2"/>
         <v>MALASQUEZ CHUMPITAZ MILAGROS</v>
       </c>
     </row>
@@ -30251,7 +30263,7 @@
         <v>1</v>
       </c>
       <c r="H94" s="11" t="str">
-        <f>VLOOKUP(G94,AREAS,2)</f>
+        <f t="shared" si="4"/>
         <v>Operaciones</v>
       </c>
       <c r="I94" s="24">
@@ -30293,7 +30305,7 @@
       <c r="Z94" s="13"/>
       <c r="AA94" s="13"/>
       <c r="AB94" s="73" t="str">
-        <f>CONCATENATE(C94," ", D94)</f>
+        <f t="shared" si="2"/>
         <v>GABRIEL CAMPOS ANA</v>
       </c>
     </row>
@@ -30317,7 +30329,7 @@
         <v>1</v>
       </c>
       <c r="H95" s="11" t="str">
-        <f>VLOOKUP(G95,AREAS,2)</f>
+        <f t="shared" si="4"/>
         <v>Operaciones</v>
       </c>
       <c r="I95" s="24">
@@ -30365,7 +30377,7 @@
       </c>
       <c r="AA95" s="13"/>
       <c r="AB95" s="13" t="str">
-        <f>CONCATENATE(C95," ", D95)</f>
+        <f t="shared" si="2"/>
         <v>MASSA MONJA VERONICA VIVIEN</v>
       </c>
     </row>
@@ -30429,7 +30441,7 @@
       </c>
       <c r="AA96" s="13"/>
       <c r="AB96" s="13" t="str">
-        <f>CONCATENATE(C96," ", D96)</f>
+        <f t="shared" si="2"/>
         <v>PEREZ CAYCHO DAVID ISRAEL</v>
       </c>
     </row>
@@ -30498,7 +30510,7 @@
       <c r="Z97" s="13"/>
       <c r="AA97" s="13"/>
       <c r="AB97" s="73" t="str">
-        <f>CONCATENATE(C97," ", D97)</f>
+        <f t="shared" si="2"/>
         <v>GOMEZ RUFINO EDER GRACIEL</v>
       </c>
     </row>
@@ -30563,7 +30575,7 @@
       </c>
       <c r="AA98" s="13"/>
       <c r="AB98" s="13" t="str">
-        <f>CONCATENATE(C98," ", D98)</f>
+        <f t="shared" ref="AB98:AB117" si="5">CONCATENATE(C98," ", D98)</f>
         <v>TORRES MORALES MERY LANDIS</v>
       </c>
     </row>
@@ -30625,7 +30637,7 @@
       </c>
       <c r="AA99" s="13"/>
       <c r="AB99" s="13" t="str">
-        <f>CONCATENATE(C99," ", D99)</f>
+        <f t="shared" si="5"/>
         <v>PADILLA RAMIREZ IVY ARACELY</v>
       </c>
     </row>
@@ -30688,7 +30700,7 @@
       <c r="Z100" s="13"/>
       <c r="AA100" s="13"/>
       <c r="AB100" s="73" t="str">
-        <f>CONCATENATE(C100," ", D100)</f>
+        <f t="shared" si="5"/>
         <v>JAVIER RESURRECCION BLANCA</v>
       </c>
     </row>
@@ -30757,7 +30769,7 @@
       <c r="Z101" s="13"/>
       <c r="AA101" s="13"/>
       <c r="AB101" s="73" t="str">
-        <f>CONCATENATE(C101," ", D101)</f>
+        <f t="shared" si="5"/>
         <v>LITANO ROSAS IRMA</v>
       </c>
     </row>
@@ -30821,7 +30833,7 @@
       </c>
       <c r="AA102" s="13"/>
       <c r="AB102" s="13" t="str">
-        <f>CONCATENATE(C102," ", D102)</f>
+        <f t="shared" si="5"/>
         <v>PAUCAR MAYTA BEATRIZ SALUSTRIA</v>
       </c>
     </row>
@@ -30885,7 +30897,7 @@
         <v>672</v>
       </c>
       <c r="AB103" s="13" t="str">
-        <f>CONCATENATE(C103," ", D103)</f>
+        <f t="shared" si="5"/>
         <v>PFENING NAHUATUPE POOL GABRIEL</v>
       </c>
     </row>
@@ -30948,7 +30960,7 @@
       </c>
       <c r="AA104" s="13"/>
       <c r="AB104" s="13" t="str">
-        <f>CONCATENATE(C104," ", D104)</f>
+        <f t="shared" si="5"/>
         <v>TAIPE CONTRERAS NOELIA MELISSA</v>
       </c>
     </row>
@@ -31013,7 +31025,7 @@
       </c>
       <c r="AA105" s="13"/>
       <c r="AB105" s="13" t="str">
-        <f>CONCATENATE(C105," ", D105)</f>
+        <f t="shared" si="5"/>
         <v>UCHASARA CHOLAN ANGEL ISRAEL</v>
       </c>
     </row>
@@ -31024,10 +31036,10 @@
       <c r="B106" s="1">
         <v>1</v>
       </c>
-      <c r="C106" s="83" t="s">
+      <c r="C106" s="82" t="s">
         <v>687</v>
       </c>
-      <c r="D106" s="83" t="s">
+      <c r="D106" s="82" t="s">
         <v>242</v>
       </c>
       <c r="E106" s="32">
@@ -31080,7 +31092,7 @@
       </c>
       <c r="AA106" s="34"/>
       <c r="AB106" s="13" t="str">
-        <f>CONCATENATE(C106," ", D106)</f>
+        <f t="shared" si="5"/>
         <v>QUISPE FLORES SONIA EDITA</v>
       </c>
     </row>
@@ -31145,7 +31157,7 @@
       <c r="Z107" s="13"/>
       <c r="AA107" s="13"/>
       <c r="AB107" s="13" t="str">
-        <f>CONCATENATE(C107," ", D107)</f>
+        <f t="shared" si="5"/>
         <v>UCHASARA CHOLAN ANGGIE MAYUMI</v>
       </c>
     </row>
@@ -31216,7 +31228,7 @@
       </c>
       <c r="AA108" s="13"/>
       <c r="AB108" s="13" t="str">
-        <f>CONCATENATE(C108," ", D108)</f>
+        <f t="shared" si="5"/>
         <v>VALERIO CASTRO JAIRO ANDERSON</v>
       </c>
     </row>
@@ -31243,7 +31255,7 @@
         <v>1</v>
       </c>
       <c r="H109" s="11" t="str">
-        <f>VLOOKUP(G109,AREAS,2)</f>
+        <f t="shared" ref="H109:H115" si="6">VLOOKUP(G109,AREAS,2)</f>
         <v>Operaciones</v>
       </c>
       <c r="I109" s="24">
@@ -31289,7 +31301,7 @@
       </c>
       <c r="AA109" s="13"/>
       <c r="AB109" s="13" t="str">
-        <f>CONCATENATE(C109," ", D109)</f>
+        <f t="shared" si="5"/>
         <v>SANCHEZ RAMOS LUCY MAGDALENA</v>
       </c>
     </row>
@@ -31314,7 +31326,7 @@
         <v>1</v>
       </c>
       <c r="H110" s="11" t="str">
-        <f>VLOOKUP(G110,AREAS,2)</f>
+        <f t="shared" si="6"/>
         <v>Operaciones</v>
       </c>
       <c r="I110" s="24">
@@ -31356,7 +31368,7 @@
       </c>
       <c r="AA110" s="13"/>
       <c r="AB110" s="13" t="str">
-        <f>CONCATENATE(C110," ", D110)</f>
+        <f t="shared" si="5"/>
         <v>VEGA GONZALES CHRISTIAN MOISES</v>
       </c>
     </row>
@@ -31383,7 +31395,7 @@
         <v>1</v>
       </c>
       <c r="H111" s="11" t="str">
-        <f>VLOOKUP(G111,AREAS,2)</f>
+        <f t="shared" si="6"/>
         <v>Operaciones</v>
       </c>
       <c r="I111" s="24">
@@ -31427,7 +31439,7 @@
       <c r="Z111" s="13"/>
       <c r="AA111" s="13"/>
       <c r="AB111" s="73" t="str">
-        <f>CONCATENATE(C111," ", D111)</f>
+        <f t="shared" si="5"/>
         <v>URBINA GARCIA KAROL GABRIELA</v>
       </c>
     </row>
@@ -31452,7 +31464,7 @@
         <v>1</v>
       </c>
       <c r="H112" s="11" t="str">
-        <f>VLOOKUP(G112,AREAS,2)</f>
+        <f t="shared" si="6"/>
         <v>Operaciones</v>
       </c>
       <c r="I112" s="24">
@@ -31493,7 +31505,7 @@
       </c>
       <c r="AA112" s="13"/>
       <c r="AB112" s="13" t="str">
-        <f>CONCATENATE(C112," ", D112)</f>
+        <f t="shared" si="5"/>
         <v>ZAPATA FLORES DIANA CAROLINA</v>
       </c>
     </row>
@@ -31520,7 +31532,7 @@
         <v>1</v>
       </c>
       <c r="H113" s="11" t="str">
-        <f>VLOOKUP(G113,AREAS,2)</f>
+        <f t="shared" si="6"/>
         <v>Operaciones</v>
       </c>
       <c r="I113" s="24">
@@ -31564,7 +31576,7 @@
       <c r="Z113" s="13"/>
       <c r="AA113" s="13"/>
       <c r="AB113" s="73" t="str">
-        <f>CONCATENATE(C113," ", D113)</f>
+        <f t="shared" si="5"/>
         <v>VITOR BARRIENTOS MAYDA GLORIA</v>
       </c>
     </row>
@@ -31591,7 +31603,7 @@
         <v>1</v>
       </c>
       <c r="H114" s="11" t="str">
-        <f>VLOOKUP(G114,AREAS,2)</f>
+        <f t="shared" si="6"/>
         <v>Operaciones</v>
       </c>
       <c r="I114" s="24">
@@ -31635,7 +31647,7 @@
       </c>
       <c r="AA114" s="13"/>
       <c r="AB114" s="13" t="str">
-        <f>CONCATENATE(C114," ", D114)</f>
+        <f t="shared" si="5"/>
         <v>TITO AGUILAR MIRIAN VANESA</v>
       </c>
     </row>
@@ -31662,7 +31674,7 @@
         <v>1</v>
       </c>
       <c r="H115" s="11" t="str">
-        <f>VLOOKUP(G115,AREAS,2)</f>
+        <f t="shared" si="6"/>
         <v>Operaciones</v>
       </c>
       <c r="I115" s="24">
@@ -31700,7 +31712,7 @@
       </c>
       <c r="AA115" s="13"/>
       <c r="AB115" s="13" t="str">
-        <f>CONCATENATE(C115," ", D115)</f>
+        <f t="shared" si="5"/>
         <v>VILLAZANA CASTILLON LUIZ ALBERTO</v>
       </c>
     </row>
@@ -31764,7 +31776,7 @@
       </c>
       <c r="AA116" s="13"/>
       <c r="AB116" s="13" t="str">
-        <f>CONCATENATE(C116," ", D116)</f>
+        <f t="shared" si="5"/>
         <v>ZARPAN SILVA CLAUDIA LIZETH</v>
       </c>
     </row>
@@ -31828,7 +31840,7 @@
       </c>
       <c r="AA117" s="13"/>
       <c r="AB117" s="13" t="str">
-        <f>CONCATENATE(C117," ", D117)</f>
+        <f t="shared" si="5"/>
         <v>ZUNIGA MARTINEZ HARUMI KATIUSKA</v>
       </c>
     </row>
@@ -31841,10 +31853,10 @@
       <filters blank="1"/>
     </filterColumn>
     <filterColumn colId="27">
-      <colorFilter dxfId="1"/>
+      <colorFilter dxfId="0"/>
     </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AB117">
-      <sortCondition sortBy="cellColor" ref="C1:C117" dxfId="0"/>
+      <sortCondition sortBy="cellColor" ref="C1:C117" dxfId="1"/>
     </sortState>
   </autoFilter>
   <dataConsolidate/>
@@ -31954,16 +31966,16 @@
   <sheetData>
     <row r="1" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="53"/>
-      <c r="B1" s="81" t="s">
+      <c r="B1" s="84" t="s">
         <v>806</v>
       </c>
-      <c r="C1" s="81"/>
-      <c r="D1" s="81"/>
-      <c r="E1" s="81"/>
-      <c r="F1" s="81"/>
-      <c r="G1" s="81"/>
-      <c r="H1" s="81"/>
-      <c r="I1" s="81"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="84"/>
+      <c r="H1" s="84"/>
+      <c r="I1" s="84"/>
     </row>
     <row r="2" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="54" t="s">
